--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_4_21.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_4_21.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>642729.9454338496</v>
+        <v>647569.3841999446</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>13167287.16146241</v>
+        <v>11943472.88418848</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3809475.954677905</v>
+        <v>2610015.581521715</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7231483.818363337</v>
+        <v>7744719.656789894</v>
       </c>
     </row>
     <row r="11">
@@ -665,19 +667,19 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>82.18134327790955</v>
       </c>
       <c r="F2" t="n">
-        <v>382.8039865752942</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G2" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>294.8896947407055</v>
       </c>
       <c r="I2" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,7 +709,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -722,7 +724,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -814,19 +816,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F4" t="n">
-        <v>4.378995526348037</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G4" t="n">
         <v>164.5944000087102</v>
@@ -862,19 +864,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>278.8943527180514</v>
+        <v>161.6737988100375</v>
       </c>
       <c r="W4" t="n">
         <v>272.1038797892121</v>
@@ -893,10 +895,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C5" t="n">
-        <v>311.6106027531922</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D5" t="n">
         <v>419.0596946068497</v>
@@ -908,13 +910,13 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G5" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,10 +949,10 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -962,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>58.67748875058538</v>
       </c>
     </row>
     <row r="6">
@@ -1057,10 +1059,10 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D7" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1072,7 +1074,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>51.58543740429392</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,10 +1101,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T7" t="n">
         <v>240.905954296359</v>
@@ -1117,7 +1119,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X7" t="n">
-        <v>180.49589024553</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y7" t="n">
         <v>224.0793406271554</v>
@@ -1139,7 +1141,7 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F8" t="n">
         <v>420.8729399924937</v>
@@ -1151,7 +1153,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,13 +1183,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U8" t="n">
-        <v>50.16722724568133</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V8" t="n">
         <v>353.914520725013</v>
@@ -1196,10 +1198,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>61.52485299794121</v>
       </c>
     </row>
     <row r="9">
@@ -1288,19 +1290,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F10" t="n">
-        <v>4.378995526348037</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G10" t="n">
         <v>164.5944000087102</v>
@@ -1336,19 +1338,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>278.8943527180514</v>
+        <v>161.6737988100371</v>
       </c>
       <c r="W10" t="n">
         <v>272.1038797892121</v>
@@ -1367,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C11" t="n">
         <v>422.6317226868329</v>
@@ -1385,10 +1387,10 @@
         <v>400.2956717864458</v>
       </c>
       <c r="H11" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,25 +1420,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>44.0999374406752</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>353.914520725013</v>
+        <v>172.3890952258962</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="12">
@@ -1525,13 +1527,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D13" t="n">
-        <v>133.9073134702962</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E13" t="n">
         <v>164.546123788675</v>
@@ -1573,28 +1575,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>278.8943527180514</v>
+        <v>161.6737988100371</v>
       </c>
       <c r="W13" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="14">
@@ -1607,10 +1609,10 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -1619,10 +1621,10 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>122.2919083745066</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1658,7 +1660,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>129.9585183657176</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U14" t="n">
         <v>255.7713603095518</v>
@@ -1765,22 +1767,22 @@
         <v>188.264309024945</v>
       </c>
       <c r="C16" t="n">
-        <v>170.2528374898731</v>
+        <v>123.0673923170403</v>
       </c>
       <c r="D16" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>98.77088257712678</v>
@@ -1810,19 +1812,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V16" t="n">
-        <v>161.6737988100371</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W16" t="n">
         <v>272.1038797892121</v>
@@ -1856,13 +1858,13 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,25 +1894,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V17" t="n">
-        <v>269.947145200294</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X17" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="18">
@@ -2008,13 +2010,13 @@
         <v>161.683605144497</v>
       </c>
       <c r="E19" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2047,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T19" t="n">
-        <v>86.66428804999369</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U19" t="n">
         <v>277.3826040146988</v>
@@ -2065,10 +2067,10 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y19" t="n">
-        <v>224.0793406271554</v>
+        <v>113.9811728869525</v>
       </c>
     </row>
     <row r="20">
@@ -2099,7 +2101,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I20" t="n">
-        <v>34.5479025439635</v>
+        <v>34.54790254396345</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2132,7 +2134,7 @@
         <v>103.323621185591</v>
       </c>
       <c r="T20" t="n">
-        <v>218.7163152458144</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U20" t="n">
         <v>255.7713603095518</v>
@@ -2239,22 +2241,22 @@
         <v>188.264309024945</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S22" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T22" t="n">
-        <v>32.21659407140271</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U22" t="n">
         <v>277.3826040146988</v>
@@ -2302,7 +2304,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X22" t="n">
-        <v>240.1382575886529</v>
+        <v>130.0400898484501</v>
       </c>
       <c r="Y22" t="n">
         <v>224.0793406271554</v>
@@ -2479,10 +2481,10 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D25" t="n">
-        <v>161.683605144497</v>
+        <v>51.58543740429418</v>
       </c>
       <c r="E25" t="n">
-        <v>58.33552926585361</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2524,7 +2526,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T25" t="n">
         <v>240.905954296359</v>
@@ -2722,16 +2724,16 @@
         <v>164.546123788675</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2764,13 +2766,13 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>181.2635869532363</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>278.8943527180514</v>
+        <v>161.6737988100371</v>
       </c>
       <c r="W28" t="n">
         <v>272.1038797892121</v>
@@ -2998,25 +3000,25 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>278.8943527180514</v>
+        <v>161.6737988100371</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y31" t="n">
-        <v>209.7612727945905</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="32">
@@ -3190,22 +3192,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D34" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S34" t="n">
-        <v>104.9037564455521</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T34" t="n">
         <v>240.905954296359</v>
@@ -3244,16 +3246,16 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V34" t="n">
-        <v>278.8943527180514</v>
+        <v>228.6084476810166</v>
       </c>
       <c r="W34" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y34" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3314,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>103.3236211855919</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T35" t="n">
         <v>218.7163152458132</v>
@@ -3475,19 +3477,19 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>278.8943527180514</v>
+        <v>161.6737988100375</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X37" t="n">
-        <v>154.1156291734911</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y37" t="n">
         <v>224.0793406271554</v>
@@ -3667,13 +3669,13 @@
         <v>161.683605144497</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F40" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H40" t="n">
         <v>142.3583058069271</v>
@@ -3706,25 +3708,25 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>238.5680519956215</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>161.6737988100371</v>
       </c>
       <c r="W40" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y40" t="n">
         <v>224.0793406271554</v>
@@ -3752,7 +3754,7 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G41" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>294.8896947407055</v>
@@ -3788,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>103.3236211855919</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T41" t="n">
         <v>218.7163152458132</v>
@@ -3800,7 +3802,7 @@
         <v>353.914520725013</v>
       </c>
       <c r="W41" t="n">
-        <v>392.4274362026566</v>
+        <v>60.53662743972861</v>
       </c>
       <c r="X41" t="n">
         <v>407.6027988439302</v>
@@ -3913,10 +3915,10 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3949,16 +3951,16 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U43" t="n">
-        <v>123.9086344760398</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>272.1038797892121</v>
+        <v>192.8717243028904</v>
       </c>
       <c r="X43" t="n">
         <v>240.1382575886529</v>
@@ -3974,28 +3976,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F44" t="n">
-        <v>133.4244487501209</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G44" t="n">
         <v>400.2956717864458</v>
       </c>
       <c r="H44" t="n">
-        <v>294.8896947407055</v>
+        <v>175.0624134762509</v>
       </c>
       <c r="I44" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,13 +4027,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>353.914520725013</v>
@@ -4138,10 +4140,10 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D46" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>170.1431564831852</v>
@@ -4153,7 +4155,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,19 +4182,19 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>96.44420510686383</v>
       </c>
       <c r="T46" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U46" t="n">
-        <v>181.1523231496167</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W46" t="n">
         <v>272.1038797892121</v>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2031.224207926142</v>
+        <v>1700.695594043986</v>
       </c>
       <c r="C2" t="n">
-        <v>1604.323477939442</v>
+        <v>1273.794864057287</v>
       </c>
       <c r="D2" t="n">
-        <v>1181.030857124442</v>
+        <v>850.5022432422868</v>
       </c>
       <c r="E2" t="n">
-        <v>1181.030857124442</v>
+        <v>767.4907853858125</v>
       </c>
       <c r="F2" t="n">
-        <v>794.3601636140438</v>
+        <v>342.3666035752127</v>
       </c>
       <c r="G2" t="n">
-        <v>390.0211012034924</v>
+        <v>342.3666035752127</v>
       </c>
       <c r="H2" t="n">
-        <v>92.15272267752728</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I2" t="n">
-        <v>57.25585142099849</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J2" t="n">
-        <v>57.25585142099849</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K2" t="n">
-        <v>57.25585142099849</v>
+        <v>407.101683866143</v>
       </c>
       <c r="L2" t="n">
-        <v>765.7970127558548</v>
+        <v>407.101683866143</v>
       </c>
       <c r="M2" t="n">
-        <v>1474.338174090711</v>
+        <v>957.7672188505811</v>
       </c>
       <c r="N2" t="n">
-        <v>2182.879335425568</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="O2" t="n">
-        <v>2862.792571049924</v>
+        <v>1651.26943807629</v>
       </c>
       <c r="P2" t="n">
-        <v>2862.792571049924</v>
+        <v>1651.26943807629</v>
       </c>
       <c r="Q2" t="n">
-        <v>2862.792571049924</v>
+        <v>2107.354917580473</v>
       </c>
       <c r="R2" t="n">
-        <v>2862.792571049924</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S2" t="n">
-        <v>2862.792571049924</v>
+        <v>2120.543958335516</v>
       </c>
       <c r="T2" t="n">
-        <v>2862.792571049924</v>
+        <v>2120.543958335516</v>
       </c>
       <c r="U2" t="n">
-        <v>2862.792571049924</v>
+        <v>2120.543958335516</v>
       </c>
       <c r="V2" t="n">
-        <v>2862.792571049924</v>
+        <v>2120.543958335516</v>
       </c>
       <c r="W2" t="n">
-        <v>2862.792571049924</v>
+        <v>2120.543958335516</v>
       </c>
       <c r="X2" t="n">
-        <v>2451.072572217672</v>
+        <v>2120.543958335516</v>
       </c>
       <c r="Y2" t="n">
-        <v>2451.072572217672</v>
+        <v>2120.543958335516</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>624.3793424524537</v>
+        <v>611.6217160807028</v>
       </c>
       <c r="C3" t="n">
-        <v>506.8734389699584</v>
+        <v>494.1158125982075</v>
       </c>
       <c r="D3" t="n">
-        <v>403.0334804852435</v>
+        <v>390.2758541134926</v>
       </c>
       <c r="E3" t="n">
-        <v>298.3315467581807</v>
+        <v>285.5739203864298</v>
       </c>
       <c r="F3" t="n">
-        <v>204.6857164410849</v>
+        <v>191.9280900693339</v>
       </c>
       <c r="G3" t="n">
-        <v>110.6319446586889</v>
+        <v>97.87431828693794</v>
       </c>
       <c r="H3" t="n">
-        <v>57.25585142099849</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I3" t="n">
-        <v>57.25585142099849</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J3" t="n">
-        <v>57.25585142099849</v>
+        <v>316.1957143288386</v>
       </c>
       <c r="K3" t="n">
-        <v>57.25585142099849</v>
+        <v>751.8547856608812</v>
       </c>
       <c r="L3" t="n">
-        <v>57.25585142099849</v>
+        <v>751.8547856608812</v>
       </c>
       <c r="M3" t="n">
-        <v>448.8611593317958</v>
+        <v>1302.520320645319</v>
       </c>
       <c r="N3" t="n">
-        <v>1157.402320666652</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="O3" t="n">
-        <v>1157.402320666652</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="P3" t="n">
-        <v>1865.943482001508</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="Q3" t="n">
-        <v>1865.943482001508</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="R3" t="n">
-        <v>1865.943482001508</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="S3" t="n">
-        <v>1784.619234562763</v>
+        <v>1771.861608191012</v>
       </c>
       <c r="T3" t="n">
-        <v>1642.739298860441</v>
+        <v>1629.98167248869</v>
       </c>
       <c r="U3" t="n">
-        <v>1457.971102780078</v>
+        <v>1445.213476408327</v>
       </c>
       <c r="V3" t="n">
-        <v>1252.997963919344</v>
+        <v>1240.240337547593</v>
       </c>
       <c r="W3" t="n">
-        <v>1056.476586752561</v>
+        <v>1043.71896038081</v>
       </c>
       <c r="X3" t="n">
-        <v>892.999240519224</v>
+        <v>880.2416141474731</v>
       </c>
       <c r="Y3" t="n">
-        <v>753.3063518725164</v>
+        <v>740.5487255007655</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>471.5008856827279</v>
+        <v>1127.679347573484</v>
       </c>
       <c r="C4" t="n">
-        <v>471.5008856827279</v>
+        <v>955.7067844524004</v>
       </c>
       <c r="D4" t="n">
-        <v>471.5008856827279</v>
+        <v>792.3900115791711</v>
       </c>
       <c r="E4" t="n">
-        <v>471.5008856827279</v>
+        <v>626.1818057320246</v>
       </c>
       <c r="F4" t="n">
-        <v>467.077657878336</v>
+        <v>454.3200315065851</v>
       </c>
       <c r="G4" t="n">
-        <v>300.8206881725681</v>
+        <v>288.0630618008172</v>
       </c>
       <c r="H4" t="n">
-        <v>157.0244196807225</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="I4" t="n">
-        <v>57.25585142099849</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J4" t="n">
-        <v>114.7471796451565</v>
+        <v>101.9895532734055</v>
       </c>
       <c r="K4" t="n">
-        <v>341.2747808509937</v>
+        <v>328.5171544792427</v>
       </c>
       <c r="L4" t="n">
-        <v>695.9641021454145</v>
+        <v>683.2064757736637</v>
       </c>
       <c r="M4" t="n">
-        <v>1087.149897115665</v>
+        <v>1074.392270743914</v>
       </c>
       <c r="N4" t="n">
-        <v>1464.641407991701</v>
+        <v>1451.88378161995</v>
       </c>
       <c r="O4" t="n">
-        <v>1820.069536671464</v>
+        <v>1807.311910299713</v>
       </c>
       <c r="P4" t="n">
-        <v>2110.668748593365</v>
+        <v>2097.911122221614</v>
       </c>
       <c r="Q4" t="n">
-        <v>2237.668878834127</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="R4" t="n">
-        <v>2190.6302655213</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S4" t="n">
-        <v>2020.495218040435</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="T4" t="n">
-        <v>1777.155870266335</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="U4" t="n">
-        <v>1496.971421766639</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="V4" t="n">
-        <v>1215.259954374668</v>
+        <v>2061.60438497749</v>
       </c>
       <c r="W4" t="n">
-        <v>940.4075505471808</v>
+        <v>1786.751981150003</v>
       </c>
       <c r="X4" t="n">
-        <v>697.8436539929859</v>
+        <v>1544.188084595808</v>
       </c>
       <c r="Y4" t="n">
-        <v>471.5008856827279</v>
+        <v>1317.84531628555</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2383.51209069097</v>
+        <v>1745.792697513689</v>
       </c>
       <c r="C5" t="n">
-        <v>2068.753906091786</v>
+        <v>1318.891967526989</v>
       </c>
       <c r="D5" t="n">
-        <v>1645.461285276786</v>
+        <v>895.5993467119897</v>
       </c>
       <c r="E5" t="n">
-        <v>1219.484345424644</v>
+        <v>469.6224068598473</v>
       </c>
       <c r="F5" t="n">
-        <v>794.3601636140438</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="G5" t="n">
-        <v>390.0211012034924</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H5" t="n">
-        <v>92.15272267752728</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I5" t="n">
-        <v>57.25585142099849</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J5" t="n">
-        <v>57.25585142099849</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K5" t="n">
-        <v>765.7970127558548</v>
+        <v>572.914647509062</v>
       </c>
       <c r="L5" t="n">
-        <v>1474.338174090711</v>
+        <v>572.914647509062</v>
       </c>
       <c r="M5" t="n">
-        <v>2036.695074833165</v>
+        <v>1123.5801824935</v>
       </c>
       <c r="N5" t="n">
-        <v>2036.695074833165</v>
+        <v>1674.245717477938</v>
       </c>
       <c r="O5" t="n">
-        <v>2745.236236168022</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="P5" t="n">
-        <v>2745.236236168022</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="Q5" t="n">
-        <v>2745.236236168022</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R5" t="n">
-        <v>2862.792571049924</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S5" t="n">
-        <v>2862.792571049924</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T5" t="n">
-        <v>2641.867000094558</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="U5" t="n">
-        <v>2383.51209069097</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="V5" t="n">
-        <v>2383.51209069097</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="W5" t="n">
-        <v>2383.51209069097</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="X5" t="n">
-        <v>2383.51209069097</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="Y5" t="n">
-        <v>2383.51209069097</v>
+        <v>2165.64106180522</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>624.3793424524537</v>
+        <v>611.6217160807028</v>
       </c>
       <c r="C6" t="n">
-        <v>506.8734389699584</v>
+        <v>494.1158125982075</v>
       </c>
       <c r="D6" t="n">
-        <v>403.0334804852435</v>
+        <v>390.2758541134926</v>
       </c>
       <c r="E6" t="n">
-        <v>298.3315467581807</v>
+        <v>285.5739203864298</v>
       </c>
       <c r="F6" t="n">
-        <v>204.6857164410849</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G6" t="n">
-        <v>110.6319446586889</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H6" t="n">
-        <v>57.25585142099849</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I6" t="n">
-        <v>57.25585142099849</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J6" t="n">
-        <v>57.25585142099849</v>
+        <v>316.1957143288386</v>
       </c>
       <c r="K6" t="n">
-        <v>57.25585142099849</v>
+        <v>316.1957143288386</v>
       </c>
       <c r="L6" t="n">
-        <v>57.25585142099849</v>
+        <v>751.8547856608809</v>
       </c>
       <c r="M6" t="n">
-        <v>765.7970127558548</v>
+        <v>1302.520320645319</v>
       </c>
       <c r="N6" t="n">
-        <v>1474.338174090711</v>
+        <v>1302.520320645319</v>
       </c>
       <c r="O6" t="n">
-        <v>1865.943482001508</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="P6" t="n">
-        <v>1865.943482001508</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="Q6" t="n">
-        <v>1865.943482001508</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="R6" t="n">
-        <v>1865.943482001508</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="S6" t="n">
-        <v>1784.619234562763</v>
+        <v>1771.861608191012</v>
       </c>
       <c r="T6" t="n">
-        <v>1642.739298860441</v>
+        <v>1629.98167248869</v>
       </c>
       <c r="U6" t="n">
-        <v>1457.971102780078</v>
+        <v>1445.213476408327</v>
       </c>
       <c r="V6" t="n">
-        <v>1252.997963919344</v>
+        <v>1240.240337547593</v>
       </c>
       <c r="W6" t="n">
-        <v>1056.476586752561</v>
+        <v>1043.71896038081</v>
       </c>
       <c r="X6" t="n">
-        <v>892.999240519224</v>
+        <v>880.2416141474731</v>
       </c>
       <c r="Y6" t="n">
-        <v>753.3063518725164</v>
+        <v>740.5487255007655</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>558.7533932624582</v>
+        <v>268.5772905989112</v>
       </c>
       <c r="C7" t="n">
-        <v>386.7808301413742</v>
+        <v>96.60472747782725</v>
       </c>
       <c r="D7" t="n">
-        <v>223.4640572681449</v>
+        <v>96.60472747782725</v>
       </c>
       <c r="E7" t="n">
-        <v>57.25585142099849</v>
+        <v>96.60472747782725</v>
       </c>
       <c r="F7" t="n">
-        <v>57.25585142099849</v>
+        <v>96.60472747782725</v>
       </c>
       <c r="G7" t="n">
-        <v>57.25585142099849</v>
+        <v>96.60472747782725</v>
       </c>
       <c r="H7" t="n">
-        <v>57.25585142099849</v>
+        <v>96.60472747782725</v>
       </c>
       <c r="I7" t="n">
-        <v>57.25585142099849</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J7" t="n">
-        <v>114.7471796451565</v>
+        <v>101.9895532734055</v>
       </c>
       <c r="K7" t="n">
-        <v>341.2747808509937</v>
+        <v>328.5171544792427</v>
       </c>
       <c r="L7" t="n">
-        <v>695.9641021454145</v>
+        <v>683.2064757736634</v>
       </c>
       <c r="M7" t="n">
-        <v>1087.149897115665</v>
+        <v>1074.392270743914</v>
       </c>
       <c r="N7" t="n">
-        <v>1464.641407991701</v>
+        <v>1451.88378161995</v>
       </c>
       <c r="O7" t="n">
-        <v>1820.069536671464</v>
+        <v>1807.311910299713</v>
       </c>
       <c r="P7" t="n">
-        <v>2110.668748593365</v>
+        <v>2097.911122221614</v>
       </c>
       <c r="Q7" t="n">
-        <v>2237.668878834127</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="R7" t="n">
-        <v>2237.668878834127</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="S7" t="n">
-        <v>2237.668878834127</v>
+        <v>2007.737591668684</v>
       </c>
       <c r="T7" t="n">
-        <v>1994.329531060027</v>
+        <v>1764.398243894584</v>
       </c>
       <c r="U7" t="n">
-        <v>1714.145082560331</v>
+        <v>1484.213795394888</v>
       </c>
       <c r="V7" t="n">
-        <v>1432.43361516836</v>
+        <v>1202.502328002917</v>
       </c>
       <c r="W7" t="n">
-        <v>1157.581211340873</v>
+        <v>927.6499241754298</v>
       </c>
       <c r="X7" t="n">
-        <v>975.2621302847817</v>
+        <v>685.0860276212348</v>
       </c>
       <c r="Y7" t="n">
-        <v>748.9193619745238</v>
+        <v>458.7432593109769</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2034.780824969814</v>
+        <v>2525.607981663617</v>
       </c>
       <c r="C8" t="n">
-        <v>1607.880094983115</v>
+        <v>2098.707251676917</v>
       </c>
       <c r="D8" t="n">
-        <v>1184.587474168115</v>
+        <v>1675.414630861917</v>
       </c>
       <c r="E8" t="n">
-        <v>1184.587474168115</v>
+        <v>1249.437691009775</v>
       </c>
       <c r="F8" t="n">
-        <v>759.463292357515</v>
+        <v>824.3135091991753</v>
       </c>
       <c r="G8" t="n">
-        <v>355.1242299469637</v>
+        <v>419.9744467886239</v>
       </c>
       <c r="H8" t="n">
-        <v>57.25585142099849</v>
+        <v>122.1060682626588</v>
       </c>
       <c r="I8" t="n">
-        <v>57.25585142099849</v>
+        <v>87.20919700613001</v>
       </c>
       <c r="J8" t="n">
-        <v>57.25585142099849</v>
+        <v>449.8126558230255</v>
       </c>
       <c r="K8" t="n">
-        <v>765.7970127558548</v>
+        <v>449.8126558230255</v>
       </c>
       <c r="L8" t="n">
-        <v>765.7970127558548</v>
+        <v>449.8126558230255</v>
       </c>
       <c r="M8" t="n">
-        <v>765.7970127558548</v>
+        <v>1454.098757242084</v>
       </c>
       <c r="N8" t="n">
-        <v>1474.338174090711</v>
+        <v>2430.349815728785</v>
       </c>
       <c r="O8" t="n">
-        <v>2182.879335425568</v>
+        <v>3196.09509164439</v>
       </c>
       <c r="P8" t="n">
-        <v>2406.707091545741</v>
+        <v>3904.374370802318</v>
       </c>
       <c r="Q8" t="n">
-        <v>2862.792571049924</v>
+        <v>4360.459850306501</v>
       </c>
       <c r="R8" t="n">
-        <v>2862.792571049924</v>
+        <v>4360.459850306501</v>
       </c>
       <c r="S8" t="n">
-        <v>2862.792571049924</v>
+        <v>4256.092556179641</v>
       </c>
       <c r="T8" t="n">
-        <v>2862.792571049924</v>
+        <v>4035.166985224274</v>
       </c>
       <c r="U8" t="n">
-        <v>2812.118604135095</v>
+        <v>3776.812075820687</v>
       </c>
       <c r="V8" t="n">
-        <v>2454.629189261344</v>
+        <v>3419.322660946937</v>
       </c>
       <c r="W8" t="n">
-        <v>2454.629189261344</v>
+        <v>3419.322660946937</v>
       </c>
       <c r="X8" t="n">
-        <v>2454.629189261344</v>
+        <v>3007.602662114684</v>
       </c>
       <c r="Y8" t="n">
-        <v>2454.629189261344</v>
+        <v>2945.456345955147</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1621.22843150087</v>
+        <v>654.3326880375853</v>
       </c>
       <c r="C9" t="n">
-        <v>1503.722528018375</v>
+        <v>536.8267845550901</v>
       </c>
       <c r="D9" t="n">
-        <v>1399.88256953366</v>
+        <v>432.9868260703751</v>
       </c>
       <c r="E9" t="n">
-        <v>1295.180635806597</v>
+        <v>328.2848923433123</v>
       </c>
       <c r="F9" t="n">
-        <v>1201.534805489501</v>
+        <v>234.6390620262164</v>
       </c>
       <c r="G9" t="n">
-        <v>1107.481033707105</v>
+        <v>140.5852902438204</v>
       </c>
       <c r="H9" t="n">
-        <v>1054.104940469414</v>
+        <v>87.20919700613001</v>
       </c>
       <c r="I9" t="n">
-        <v>1054.104940469414</v>
+        <v>87.20919700613001</v>
       </c>
       <c r="J9" t="n">
-        <v>1054.104940469414</v>
+        <v>87.20919700613001</v>
       </c>
       <c r="K9" t="n">
-        <v>1644.589867037754</v>
+        <v>87.20919700613001</v>
       </c>
       <c r="L9" t="n">
-        <v>1644.589867037754</v>
+        <v>87.20919700613001</v>
       </c>
       <c r="M9" t="n">
-        <v>1644.589867037754</v>
+        <v>1143.195734982175</v>
       </c>
       <c r="N9" t="n">
-        <v>1644.589867037754</v>
+        <v>1895.89682758664</v>
       </c>
       <c r="O9" t="n">
-        <v>2154.251409715068</v>
+        <v>1895.89682758664</v>
       </c>
       <c r="P9" t="n">
-        <v>2862.792571049924</v>
+        <v>1895.89682758664</v>
       </c>
       <c r="Q9" t="n">
-        <v>2862.792571049924</v>
+        <v>1895.89682758664</v>
       </c>
       <c r="R9" t="n">
-        <v>2862.792571049924</v>
+        <v>1895.89682758664</v>
       </c>
       <c r="S9" t="n">
-        <v>2781.468323611179</v>
+        <v>1814.572580147894</v>
       </c>
       <c r="T9" t="n">
-        <v>2639.588387908857</v>
+        <v>1672.692644445573</v>
       </c>
       <c r="U9" t="n">
-        <v>2454.820191828494</v>
+        <v>1487.924448365209</v>
       </c>
       <c r="V9" t="n">
-        <v>2249.84705296776</v>
+        <v>1282.951309504475</v>
       </c>
       <c r="W9" t="n">
-        <v>2053.325675800977</v>
+        <v>1086.429932337693</v>
       </c>
       <c r="X9" t="n">
-        <v>1889.84832956764</v>
+        <v>922.9525861043556</v>
       </c>
       <c r="Y9" t="n">
-        <v>1750.155440920932</v>
+        <v>783.259697457648</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>471.5008856827279</v>
+        <v>1170.390319530367</v>
       </c>
       <c r="C10" t="n">
-        <v>471.5008856827279</v>
+        <v>998.4177564092828</v>
       </c>
       <c r="D10" t="n">
-        <v>471.5008856827279</v>
+        <v>835.1009835360535</v>
       </c>
       <c r="E10" t="n">
-        <v>471.5008856827279</v>
+        <v>668.892777688907</v>
       </c>
       <c r="F10" t="n">
-        <v>467.077657878336</v>
+        <v>497.0310034634675</v>
       </c>
       <c r="G10" t="n">
-        <v>300.8206881725681</v>
+        <v>330.7740337576996</v>
       </c>
       <c r="H10" t="n">
-        <v>157.0244196807225</v>
+        <v>186.977765265854</v>
       </c>
       <c r="I10" t="n">
-        <v>57.25585142099849</v>
+        <v>87.20919700613001</v>
       </c>
       <c r="J10" t="n">
-        <v>114.7471796451565</v>
+        <v>144.700525230288</v>
       </c>
       <c r="K10" t="n">
-        <v>341.2747808509937</v>
+        <v>371.2281264361252</v>
       </c>
       <c r="L10" t="n">
-        <v>695.9641021454145</v>
+        <v>725.917447730546</v>
       </c>
       <c r="M10" t="n">
-        <v>1087.149897115665</v>
+        <v>1117.103242700797</v>
       </c>
       <c r="N10" t="n">
-        <v>1464.641407991701</v>
+        <v>1494.594753576833</v>
       </c>
       <c r="O10" t="n">
-        <v>1820.069536671464</v>
+        <v>1850.022882256595</v>
       </c>
       <c r="P10" t="n">
-        <v>2110.668748593365</v>
+        <v>2140.622094178496</v>
       </c>
       <c r="Q10" t="n">
-        <v>2237.668878834127</v>
+        <v>2267.622224419258</v>
       </c>
       <c r="R10" t="n">
-        <v>2190.6302655213</v>
+        <v>2267.622224419258</v>
       </c>
       <c r="S10" t="n">
-        <v>2020.495218040435</v>
+        <v>2267.622224419258</v>
       </c>
       <c r="T10" t="n">
-        <v>1777.155870266335</v>
+        <v>2267.622224419258</v>
       </c>
       <c r="U10" t="n">
-        <v>1496.971421766639</v>
+        <v>2267.622224419258</v>
       </c>
       <c r="V10" t="n">
-        <v>1215.259954374668</v>
+        <v>2104.315356934372</v>
       </c>
       <c r="W10" t="n">
-        <v>940.4075505471808</v>
+        <v>1829.462953106885</v>
       </c>
       <c r="X10" t="n">
-        <v>697.8436539929859</v>
+        <v>1586.89905655269</v>
       </c>
       <c r="Y10" t="n">
-        <v>471.5008856827279</v>
+        <v>1360.556288242432</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2460.757764821957</v>
+        <v>2227.739603137652</v>
       </c>
       <c r="C11" t="n">
-        <v>2033.857034835257</v>
+        <v>1800.838873150952</v>
       </c>
       <c r="D11" t="n">
-        <v>1610.564414020257</v>
+        <v>1377.546252335952</v>
       </c>
       <c r="E11" t="n">
-        <v>1184.587474168115</v>
+        <v>951.56931248381</v>
       </c>
       <c r="F11" t="n">
-        <v>759.463292357515</v>
+        <v>526.4451306732102</v>
       </c>
       <c r="G11" t="n">
-        <v>355.1242299469637</v>
+        <v>122.1060682626588</v>
       </c>
       <c r="H11" t="n">
-        <v>57.25585142099849</v>
+        <v>122.1060682626588</v>
       </c>
       <c r="I11" t="n">
-        <v>57.25585142099849</v>
+        <v>87.20919700613001</v>
       </c>
       <c r="J11" t="n">
-        <v>419.859310237894</v>
+        <v>449.8126558230255</v>
       </c>
       <c r="K11" t="n">
-        <v>1128.40047157275</v>
+        <v>1165.320963798525</v>
       </c>
       <c r="L11" t="n">
-        <v>1128.40047157275</v>
+        <v>1165.320963798525</v>
       </c>
       <c r="M11" t="n">
-        <v>1580.609595328982</v>
+        <v>1257.143048124974</v>
       </c>
       <c r="N11" t="n">
-        <v>2289.150756663838</v>
+        <v>2233.394106611675</v>
       </c>
       <c r="O11" t="n">
-        <v>2289.150756663838</v>
+        <v>3078.538756762488</v>
       </c>
       <c r="P11" t="n">
-        <v>2289.150756663838</v>
+        <v>3786.818035920415</v>
       </c>
       <c r="Q11" t="n">
-        <v>2745.236236168022</v>
+        <v>4242.903515424598</v>
       </c>
       <c r="R11" t="n">
-        <v>2862.792571049924</v>
+        <v>4360.459850306501</v>
       </c>
       <c r="S11" t="n">
-        <v>2818.247179695707</v>
+        <v>4256.092556179641</v>
       </c>
       <c r="T11" t="n">
-        <v>2818.247179695707</v>
+        <v>4035.166985224274</v>
       </c>
       <c r="U11" t="n">
-        <v>2818.247179695707</v>
+        <v>4035.166985224274</v>
       </c>
       <c r="V11" t="n">
-        <v>2460.757764821957</v>
+        <v>3861.036586006197</v>
       </c>
       <c r="W11" t="n">
-        <v>2460.757764821957</v>
+        <v>3464.645236306544</v>
       </c>
       <c r="X11" t="n">
-        <v>2460.757764821957</v>
+        <v>3052.925237474291</v>
       </c>
       <c r="Y11" t="n">
-        <v>2460.757764821957</v>
+        <v>2647.587967429182</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>624.3793424524537</v>
+        <v>654.3326880375853</v>
       </c>
       <c r="C12" t="n">
-        <v>506.8734389699584</v>
+        <v>536.8267845550901</v>
       </c>
       <c r="D12" t="n">
-        <v>403.0334804852435</v>
+        <v>432.9868260703751</v>
       </c>
       <c r="E12" t="n">
-        <v>298.3315467581807</v>
+        <v>328.2848923433123</v>
       </c>
       <c r="F12" t="n">
-        <v>204.6857164410849</v>
+        <v>234.6390620262164</v>
       </c>
       <c r="G12" t="n">
-        <v>110.6319446586889</v>
+        <v>140.5852902438204</v>
       </c>
       <c r="H12" t="n">
-        <v>57.25585142099849</v>
+        <v>87.20919700613001</v>
       </c>
       <c r="I12" t="n">
-        <v>57.25585142099849</v>
+        <v>87.20919700613001</v>
       </c>
       <c r="J12" t="n">
-        <v>57.25585142099849</v>
+        <v>358.9066862857211</v>
       </c>
       <c r="K12" t="n">
-        <v>57.25585142099849</v>
+        <v>358.9066862857211</v>
       </c>
       <c r="L12" t="n">
-        <v>57.25585142099849</v>
+        <v>839.9102896105946</v>
       </c>
       <c r="M12" t="n">
-        <v>765.7970127558548</v>
+        <v>1895.89682758664</v>
       </c>
       <c r="N12" t="n">
-        <v>1474.338174090711</v>
+        <v>1895.89682758664</v>
       </c>
       <c r="O12" t="n">
-        <v>1474.338174090711</v>
+        <v>1895.89682758664</v>
       </c>
       <c r="P12" t="n">
-        <v>1474.338174090711</v>
+        <v>1895.89682758664</v>
       </c>
       <c r="Q12" t="n">
-        <v>1865.943482001508</v>
+        <v>1895.89682758664</v>
       </c>
       <c r="R12" t="n">
-        <v>1865.943482001508</v>
+        <v>1895.89682758664</v>
       </c>
       <c r="S12" t="n">
-        <v>1784.619234562763</v>
+        <v>1814.572580147894</v>
       </c>
       <c r="T12" t="n">
-        <v>1642.739298860441</v>
+        <v>1672.692644445573</v>
       </c>
       <c r="U12" t="n">
-        <v>1457.971102780078</v>
+        <v>1487.924448365209</v>
       </c>
       <c r="V12" t="n">
-        <v>1252.997963919344</v>
+        <v>1282.951309504475</v>
       </c>
       <c r="W12" t="n">
-        <v>1056.476586752561</v>
+        <v>1086.429932337693</v>
       </c>
       <c r="X12" t="n">
-        <v>892.999240519224</v>
+        <v>922.9525861043556</v>
       </c>
       <c r="Y12" t="n">
-        <v>753.3063518725164</v>
+        <v>783.259697457648</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>940.4075505471808</v>
+        <v>1170.390319530367</v>
       </c>
       <c r="C13" t="n">
-        <v>940.4075505471808</v>
+        <v>998.4177564092828</v>
       </c>
       <c r="D13" t="n">
-        <v>805.147637950922</v>
+        <v>835.1009835360535</v>
       </c>
       <c r="E13" t="n">
-        <v>638.9394321037755</v>
+        <v>668.892777688907</v>
       </c>
       <c r="F13" t="n">
-        <v>467.077657878336</v>
+        <v>497.0310034634675</v>
       </c>
       <c r="G13" t="n">
-        <v>300.8206881725681</v>
+        <v>330.7740337576996</v>
       </c>
       <c r="H13" t="n">
-        <v>157.0244196807225</v>
+        <v>186.977765265854</v>
       </c>
       <c r="I13" t="n">
-        <v>57.25585142099849</v>
+        <v>87.20919700613001</v>
       </c>
       <c r="J13" t="n">
-        <v>114.7471796451565</v>
+        <v>144.700525230288</v>
       </c>
       <c r="K13" t="n">
-        <v>341.2747808509937</v>
+        <v>371.2281264361252</v>
       </c>
       <c r="L13" t="n">
-        <v>695.9641021454145</v>
+        <v>725.917447730546</v>
       </c>
       <c r="M13" t="n">
-        <v>1087.149897115665</v>
+        <v>1117.103242700797</v>
       </c>
       <c r="N13" t="n">
-        <v>1464.641407991701</v>
+        <v>1494.594753576833</v>
       </c>
       <c r="O13" t="n">
-        <v>1820.069536671464</v>
+        <v>1850.022882256595</v>
       </c>
       <c r="P13" t="n">
-        <v>2110.668748593365</v>
+        <v>2140.622094178496</v>
       </c>
       <c r="Q13" t="n">
-        <v>2237.668878834127</v>
+        <v>2267.622224419258</v>
       </c>
       <c r="R13" t="n">
-        <v>2190.6302655213</v>
+        <v>2267.622224419258</v>
       </c>
       <c r="S13" t="n">
-        <v>2020.495218040435</v>
+        <v>2267.622224419258</v>
       </c>
       <c r="T13" t="n">
-        <v>1777.155870266335</v>
+        <v>2267.622224419258</v>
       </c>
       <c r="U13" t="n">
-        <v>1496.971421766639</v>
+        <v>2267.622224419258</v>
       </c>
       <c r="V13" t="n">
-        <v>1215.259954374668</v>
+        <v>2104.315356934372</v>
       </c>
       <c r="W13" t="n">
-        <v>940.4075505471808</v>
+        <v>1829.462953106885</v>
       </c>
       <c r="X13" t="n">
-        <v>940.4075505471808</v>
+        <v>1586.89905655269</v>
       </c>
       <c r="Y13" t="n">
-        <v>940.4075505471808</v>
+        <v>1360.556288242432</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>482.3800332315983</v>
+        <v>1890.39297220525</v>
       </c>
       <c r="C14" t="n">
-        <v>482.3800332315983</v>
+        <v>1463.49224221855</v>
       </c>
       <c r="D14" t="n">
-        <v>482.3800332315983</v>
+        <v>1040.199621403551</v>
       </c>
       <c r="E14" t="n">
-        <v>482.3800332315983</v>
+        <v>1040.199621403551</v>
       </c>
       <c r="F14" t="n">
-        <v>57.25585142099849</v>
+        <v>615.0754395929507</v>
       </c>
       <c r="G14" t="n">
-        <v>57.25585142099849</v>
+        <v>210.7363771823993</v>
       </c>
       <c r="H14" t="n">
-        <v>57.25585142099849</v>
+        <v>87.20919700613001</v>
       </c>
       <c r="I14" t="n">
-        <v>57.25585142099849</v>
+        <v>87.20919700613001</v>
       </c>
       <c r="J14" t="n">
-        <v>419.859310237894</v>
+        <v>87.20919700613001</v>
       </c>
       <c r="K14" t="n">
-        <v>1128.40047157275</v>
+        <v>802.7175049816291</v>
       </c>
       <c r="L14" t="n">
-        <v>1836.941632907607</v>
+        <v>1732.342552600906</v>
       </c>
       <c r="M14" t="n">
-        <v>2036.695074833165</v>
+        <v>2736.628654019964</v>
       </c>
       <c r="N14" t="n">
-        <v>2745.236236168022</v>
+        <v>3712.879712506665</v>
       </c>
       <c r="O14" t="n">
-        <v>2745.236236168022</v>
+        <v>4360.459850306501</v>
       </c>
       <c r="P14" t="n">
-        <v>2745.236236168022</v>
+        <v>4360.459850306501</v>
       </c>
       <c r="Q14" t="n">
-        <v>2745.236236168022</v>
+        <v>4360.459850306501</v>
       </c>
       <c r="R14" t="n">
-        <v>2862.792571049924</v>
+        <v>4360.459850306501</v>
       </c>
       <c r="S14" t="n">
-        <v>2862.792571049924</v>
+        <v>4360.459850306501</v>
       </c>
       <c r="T14" t="n">
-        <v>2731.521340377482</v>
+        <v>4139.534279351134</v>
       </c>
       <c r="U14" t="n">
-        <v>2473.166430973894</v>
+        <v>3881.179369947546</v>
       </c>
       <c r="V14" t="n">
-        <v>2115.677016100144</v>
+        <v>3523.689955073795</v>
       </c>
       <c r="W14" t="n">
-        <v>1719.285666400491</v>
+        <v>3127.298605374142</v>
       </c>
       <c r="X14" t="n">
-        <v>1307.565667568238</v>
+        <v>2715.57860654189</v>
       </c>
       <c r="Y14" t="n">
-        <v>902.2283975231284</v>
+        <v>2310.24133649678</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>624.3793424524537</v>
+        <v>654.3326880375853</v>
       </c>
       <c r="C15" t="n">
-        <v>506.8734389699584</v>
+        <v>536.8267845550901</v>
       </c>
       <c r="D15" t="n">
-        <v>403.0334804852435</v>
+        <v>432.9868260703751</v>
       </c>
       <c r="E15" t="n">
-        <v>298.3315467581807</v>
+        <v>328.2848923433123</v>
       </c>
       <c r="F15" t="n">
-        <v>204.6857164410849</v>
+        <v>234.6390620262164</v>
       </c>
       <c r="G15" t="n">
-        <v>110.6319446586889</v>
+        <v>140.5852902438204</v>
       </c>
       <c r="H15" t="n">
-        <v>57.25585142099849</v>
+        <v>87.20919700613001</v>
       </c>
       <c r="I15" t="n">
-        <v>57.25585142099849</v>
+        <v>87.20919700613001</v>
       </c>
       <c r="J15" t="n">
-        <v>57.25585142099849</v>
+        <v>87.20919700613001</v>
       </c>
       <c r="K15" t="n">
-        <v>647.7407779893381</v>
+        <v>87.20919700613001</v>
       </c>
       <c r="L15" t="n">
-        <v>647.7407779893381</v>
+        <v>87.20919700613001</v>
       </c>
       <c r="M15" t="n">
-        <v>647.7407779893381</v>
+        <v>816.6830146357809</v>
       </c>
       <c r="N15" t="n">
-        <v>1157.402320666652</v>
+        <v>1895.89682758664</v>
       </c>
       <c r="O15" t="n">
-        <v>1865.943482001508</v>
+        <v>1895.89682758664</v>
       </c>
       <c r="P15" t="n">
-        <v>1865.943482001508</v>
+        <v>1895.89682758664</v>
       </c>
       <c r="Q15" t="n">
-        <v>1865.943482001508</v>
+        <v>1895.89682758664</v>
       </c>
       <c r="R15" t="n">
-        <v>1865.943482001508</v>
+        <v>1895.89682758664</v>
       </c>
       <c r="S15" t="n">
-        <v>1784.619234562763</v>
+        <v>1814.572580147894</v>
       </c>
       <c r="T15" t="n">
-        <v>1642.739298860441</v>
+        <v>1672.692644445573</v>
       </c>
       <c r="U15" t="n">
-        <v>1457.971102780078</v>
+        <v>1487.924448365209</v>
       </c>
       <c r="V15" t="n">
-        <v>1252.997963919344</v>
+        <v>1282.951309504475</v>
       </c>
       <c r="W15" t="n">
-        <v>1056.476586752561</v>
+        <v>1086.429932337693</v>
       </c>
       <c r="X15" t="n">
-        <v>892.999240519224</v>
+        <v>922.9525861043556</v>
       </c>
       <c r="Y15" t="n">
-        <v>753.3063518725164</v>
+        <v>783.259697457648</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1140.436973945235</v>
+        <v>311.2882625557938</v>
       </c>
       <c r="C16" t="n">
-        <v>968.4644108241513</v>
+        <v>186.977765265854</v>
       </c>
       <c r="D16" t="n">
-        <v>805.147637950922</v>
+        <v>186.977765265854</v>
       </c>
       <c r="E16" t="n">
-        <v>638.9394321037755</v>
+        <v>186.977765265854</v>
       </c>
       <c r="F16" t="n">
-        <v>467.077657878336</v>
+        <v>186.977765265854</v>
       </c>
       <c r="G16" t="n">
-        <v>300.8206881725681</v>
+        <v>186.977765265854</v>
       </c>
       <c r="H16" t="n">
-        <v>157.0244196807225</v>
+        <v>186.977765265854</v>
       </c>
       <c r="I16" t="n">
-        <v>57.25585142099849</v>
+        <v>87.20919700613001</v>
       </c>
       <c r="J16" t="n">
-        <v>114.7471796451565</v>
+        <v>144.700525230288</v>
       </c>
       <c r="K16" t="n">
-        <v>341.2747808509937</v>
+        <v>371.2281264361252</v>
       </c>
       <c r="L16" t="n">
-        <v>695.9641021454145</v>
+        <v>725.917447730546</v>
       </c>
       <c r="M16" t="n">
-        <v>1087.149897115665</v>
+        <v>1117.103242700797</v>
       </c>
       <c r="N16" t="n">
-        <v>1464.641407991701</v>
+        <v>1494.594753576833</v>
       </c>
       <c r="O16" t="n">
-        <v>1820.069536671464</v>
+        <v>1850.022882256595</v>
       </c>
       <c r="P16" t="n">
-        <v>2110.668748593365</v>
+        <v>2140.622094178496</v>
       </c>
       <c r="Q16" t="n">
-        <v>2237.668878834127</v>
+        <v>2267.622224419258</v>
       </c>
       <c r="R16" t="n">
-        <v>2237.668878834127</v>
+        <v>2220.583611106431</v>
       </c>
       <c r="S16" t="n">
-        <v>2237.668878834127</v>
+        <v>2050.448563625566</v>
       </c>
       <c r="T16" t="n">
-        <v>2237.668878834127</v>
+        <v>1807.109215851466</v>
       </c>
       <c r="U16" t="n">
-        <v>2237.668878834127</v>
+        <v>1526.92476735177</v>
       </c>
       <c r="V16" t="n">
-        <v>2074.362011349241</v>
+        <v>1245.213299959799</v>
       </c>
       <c r="W16" t="n">
-        <v>1799.509607521754</v>
+        <v>970.3608961323123</v>
       </c>
       <c r="X16" t="n">
-        <v>1556.945710967559</v>
+        <v>727.7969995781174</v>
       </c>
       <c r="Y16" t="n">
-        <v>1330.602942657301</v>
+        <v>501.4542312678594</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1758.55032388544</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C17" t="n">
-        <v>1331.64959389874</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D17" t="n">
-        <v>908.3569730837407</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E17" t="n">
-        <v>482.3800332315983</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F17" t="n">
-        <v>57.25585142099849</v>
+        <v>839.4070255988739</v>
       </c>
       <c r="G17" t="n">
-        <v>57.25585142099849</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H17" t="n">
-        <v>57.25585142099849</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I17" t="n">
-        <v>57.25585142099849</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J17" t="n">
-        <v>57.25585142099849</v>
+        <v>464.906172222724</v>
       </c>
       <c r="K17" t="n">
-        <v>765.7970127558548</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L17" t="n">
-        <v>1474.338174090711</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M17" t="n">
-        <v>2182.879335425568</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N17" t="n">
-        <v>2182.879335425568</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O17" t="n">
-        <v>2745.236236168022</v>
+        <v>4935.721337874071</v>
       </c>
       <c r="P17" t="n">
-        <v>2745.236236168022</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="Q17" t="n">
-        <v>2745.236236168022</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="R17" t="n">
-        <v>2862.792571049924</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S17" t="n">
-        <v>2862.792571049924</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T17" t="n">
-        <v>2862.792571049924</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U17" t="n">
-        <v>2862.792571049924</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V17" t="n">
-        <v>2590.118687009223</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W17" t="n">
-        <v>2590.118687009223</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X17" t="n">
-        <v>2178.398688176971</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y17" t="n">
-        <v>2178.398688176971</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>624.3793424524537</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C18" t="n">
-        <v>506.8734389699584</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D18" t="n">
-        <v>403.0334804852435</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E18" t="n">
-        <v>298.3315467581807</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F18" t="n">
-        <v>204.6857164410849</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G18" t="n">
-        <v>110.6319446586889</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H18" t="n">
-        <v>57.25585142099849</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I18" t="n">
-        <v>57.25585142099849</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J18" t="n">
-        <v>57.25585142099849</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K18" t="n">
-        <v>57.25585142099849</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L18" t="n">
-        <v>448.8611593317958</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M18" t="n">
-        <v>1157.402320666652</v>
+        <v>1158.289251381874</v>
       </c>
       <c r="N18" t="n">
-        <v>1865.943482001508</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O18" t="n">
-        <v>1865.943482001508</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P18" t="n">
-        <v>1865.943482001508</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q18" t="n">
-        <v>1865.943482001508</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R18" t="n">
-        <v>1865.943482001508</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S18" t="n">
-        <v>1784.619234562763</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T18" t="n">
-        <v>1642.739298860441</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U18" t="n">
-        <v>1457.971102780078</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V18" t="n">
-        <v>1252.997963919344</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W18" t="n">
-        <v>1056.476586752561</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X18" t="n">
-        <v>892.999240519224</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y18" t="n">
-        <v>753.3063518725164</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>896.8721371936657</v>
+        <v>437.5920494001418</v>
       </c>
       <c r="C19" t="n">
-        <v>724.8995740725817</v>
+        <v>265.6194862790578</v>
       </c>
       <c r="D19" t="n">
-        <v>561.5828011993524</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="E19" t="n">
-        <v>395.3745953522059</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="F19" t="n">
-        <v>223.5128211267663</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G19" t="n">
-        <v>57.25585142099849</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H19" t="n">
-        <v>57.25585142099849</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I19" t="n">
-        <v>57.25585142099849</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J19" t="n">
-        <v>114.7471796451565</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K19" t="n">
-        <v>341.2747808509937</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L19" t="n">
-        <v>695.9641021454145</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M19" t="n">
-        <v>1087.149897115665</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N19" t="n">
-        <v>1464.641407991701</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O19" t="n">
-        <v>1820.069536671464</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P19" t="n">
-        <v>2110.668748593365</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q19" t="n">
-        <v>2237.668878834127</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R19" t="n">
-        <v>2237.668878834127</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S19" t="n">
-        <v>2237.668878834127</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T19" t="n">
-        <v>2150.129193935143</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U19" t="n">
-        <v>1869.944745435447</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V19" t="n">
-        <v>1588.233278043476</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="W19" t="n">
-        <v>1313.380874215989</v>
+        <v>985.454412532011</v>
       </c>
       <c r="X19" t="n">
-        <v>1313.380874215989</v>
+        <v>742.8905159778161</v>
       </c>
       <c r="Y19" t="n">
-        <v>1087.038105905731</v>
+        <v>627.7580181122075</v>
       </c>
     </row>
     <row r="20">
@@ -5741,7 +5743,7 @@
         <v>839.4070255988738</v>
       </c>
       <c r="G20" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883224</v>
       </c>
       <c r="H20" t="n">
         <v>137.1995846623573</v>
@@ -5750,34 +5752,34 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J20" t="n">
-        <v>464.9061722227241</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K20" t="n">
-        <v>1180.414480198223</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L20" t="n">
-        <v>2110.0395278175</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M20" t="n">
-        <v>2110.0395278175</v>
+        <v>2751.722170419663</v>
       </c>
       <c r="N20" t="n">
-        <v>2988.069926596602</v>
+        <v>3727.973228906364</v>
       </c>
       <c r="O20" t="n">
-        <v>3833.214576747414</v>
+        <v>4573.117879057176</v>
       </c>
       <c r="P20" t="n">
-        <v>4541.493855905342</v>
+        <v>4573.117879057176</v>
       </c>
       <c r="Q20" t="n">
-        <v>4997.579335409525</v>
+        <v>5029.203358561359</v>
       </c>
       <c r="R20" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S20" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T20" t="n">
         <v>4789.842805209199</v>
@@ -5792,7 +5794,7 @@
         <v>3777.607131232208</v>
       </c>
       <c r="X20" t="n">
-        <v>3365.887132399955</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y20" t="n">
         <v>2960.549862354846</v>
@@ -5838,16 +5840,16 @@
         <v>102.3027134058285</v>
       </c>
       <c r="M21" t="n">
-        <v>102.3027134058285</v>
+        <v>821.6753975134684</v>
       </c>
       <c r="N21" t="n">
-        <v>102.3027134058285</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O21" t="n">
-        <v>991.7839914173002</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P21" t="n">
-        <v>1446.844867123559</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q21" t="n">
         <v>1910.990343986338</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3416.637655301352</v>
+        <v>437.5920494001418</v>
       </c>
       <c r="C22" t="n">
-        <v>3416.637655301352</v>
+        <v>265.6194862790578</v>
       </c>
       <c r="D22" t="n">
-        <v>3416.637655301352</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="E22" t="n">
-        <v>3416.637655301352</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="F22" t="n">
-        <v>3244.775881075912</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G22" t="n">
-        <v>3078.518911370144</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H22" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I22" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J22" t="n">
-        <v>2992.213971102457</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K22" t="n">
-        <v>3218.741572308294</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L22" t="n">
-        <v>3573.430893602715</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M22" t="n">
-        <v>3964.616688572966</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N22" t="n">
-        <v>4342.108199449001</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O22" t="n">
-        <v>4697.536328128765</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P22" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q22" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R22" t="n">
-        <v>5115.135670291427</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S22" t="n">
-        <v>4945.000622810562</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T22" t="n">
-        <v>4912.458608597024</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U22" t="n">
-        <v>4632.274160097329</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V22" t="n">
-        <v>4350.562692705357</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="W22" t="n">
-        <v>4075.71028887787</v>
+        <v>985.454412532011</v>
       </c>
       <c r="X22" t="n">
-        <v>3833.146392323676</v>
+        <v>854.1007864224655</v>
       </c>
       <c r="Y22" t="n">
-        <v>3606.803624013417</v>
+        <v>627.7580181122075</v>
       </c>
     </row>
     <row r="23">
@@ -5963,10 +5965,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2540.701498063315</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C23" t="n">
-        <v>2113.800768076615</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D23" t="n">
         <v>1690.508147261616</v>
@@ -5975,13 +5977,13 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F23" t="n">
-        <v>839.4070255988736</v>
+        <v>839.4070255988739</v>
       </c>
       <c r="G23" t="n">
-        <v>435.0679631883222</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H23" t="n">
-        <v>137.1995846623568</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I23" t="n">
         <v>102.3027134058285</v>
@@ -6005,19 +6007,19 @@
         <v>4573.117879057176</v>
       </c>
       <c r="P23" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="Q23" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="R23" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S23" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T23" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U23" t="n">
         <v>4531.487895805612</v>
@@ -6063,31 +6065,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I24" t="n">
-        <v>109.7493563677404</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J24" t="n">
-        <v>381.4468456473314</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K24" t="n">
-        <v>971.931772215671</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L24" t="n">
-        <v>971.931772215671</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M24" t="n">
-        <v>971.931772215671</v>
+        <v>821.6753975134684</v>
       </c>
       <c r="N24" t="n">
-        <v>971.931772215671</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O24" t="n">
-        <v>971.931772215671</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P24" t="n">
-        <v>1364.825557038856</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q24" t="n">
-        <v>1828.971033901635</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R24" t="n">
         <v>1910.990343986338</v>
@@ -6121,13 +6123,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>496.5168264363576</v>
+        <v>326.3817789554925</v>
       </c>
       <c r="C25" t="n">
-        <v>324.5442633152736</v>
+        <v>154.4092158344085</v>
       </c>
       <c r="D25" t="n">
-        <v>161.2274904420443</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="E25" t="n">
         <v>102.3027134058285</v>
@@ -6145,10 +6147,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J25" t="n">
-        <v>159.7940416299866</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K25" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L25" t="n">
         <v>741.0109641302445</v>
@@ -6172,25 +6174,25 @@
         <v>2235.67712750613</v>
       </c>
       <c r="S25" t="n">
-        <v>2235.67712750613</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T25" t="n">
-        <v>1992.33777973203</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U25" t="n">
-        <v>1712.153331232334</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V25" t="n">
-        <v>1430.441863840363</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="W25" t="n">
-        <v>1155.589460012876</v>
+        <v>985.454412532011</v>
       </c>
       <c r="X25" t="n">
-        <v>913.0255634586812</v>
+        <v>742.8905159778161</v>
       </c>
       <c r="Y25" t="n">
-        <v>686.6827951484232</v>
+        <v>516.5477476675582</v>
       </c>
     </row>
     <row r="26">
@@ -6200,10 +6202,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2540.701498063315</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C26" t="n">
-        <v>2113.800768076615</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D26" t="n">
         <v>1690.508147261616</v>
@@ -6212,13 +6214,13 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F26" t="n">
-        <v>839.4070255988736</v>
+        <v>839.4070255988739</v>
       </c>
       <c r="G26" t="n">
-        <v>435.0679631883222</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H26" t="n">
-        <v>137.1995846623568</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I26" t="n">
         <v>102.3027134058285</v>
@@ -6242,19 +6244,19 @@
         <v>4573.117879057176</v>
       </c>
       <c r="P26" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="Q26" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="R26" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S26" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T26" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U26" t="n">
         <v>4531.487895805612</v>
@@ -6279,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>3873.571530742373</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C27" t="n">
-        <v>3756.065627259878</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D27" t="n">
-        <v>3652.225668775163</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E27" t="n">
-        <v>3547.523735048101</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F27" t="n">
-        <v>3453.877904731005</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G27" t="n">
-        <v>3359.824132948609</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H27" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I27" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J27" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K27" t="n">
-        <v>3896.932966279258</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L27" t="n">
-        <v>4733.731774362164</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M27" t="n">
-        <v>4733.731774362164</v>
+        <v>1158.289251381874</v>
       </c>
       <c r="N27" t="n">
-        <v>4733.731774362164</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O27" t="n">
-        <v>4733.731774362164</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P27" t="n">
-        <v>4733.731774362164</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q27" t="n">
-        <v>5115.135670291427</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R27" t="n">
-        <v>5115.135670291427</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S27" t="n">
-        <v>5033.811422852682</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T27" t="n">
-        <v>4891.93148715036</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U27" t="n">
-        <v>4707.163291069997</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V27" t="n">
-        <v>4502.190152209264</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W27" t="n">
-        <v>4305.668775042481</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X27" t="n">
-        <v>4142.191428809144</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y27" t="n">
-        <v>4002.498540162436</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="28">
@@ -6358,34 +6360,34 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>603.8002552472883</v>
+        <v>1185.483835930065</v>
       </c>
       <c r="C28" t="n">
-        <v>431.8276921262043</v>
+        <v>1013.511272808981</v>
       </c>
       <c r="D28" t="n">
-        <v>268.510919252975</v>
+        <v>850.1944999357521</v>
       </c>
       <c r="E28" t="n">
-        <v>102.3027134058285</v>
+        <v>683.9862940886056</v>
       </c>
       <c r="F28" t="n">
-        <v>102.3027134058285</v>
+        <v>512.124519863166</v>
       </c>
       <c r="G28" t="n">
-        <v>102.3027134058285</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H28" t="n">
-        <v>102.3027134058285</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I28" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J28" t="n">
-        <v>159.7940416299866</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K28" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L28" t="n">
         <v>741.0109641302445</v>
@@ -6412,22 +6414,22 @@
         <v>2282.715740818957</v>
       </c>
       <c r="T28" t="n">
-        <v>2099.621208542961</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="U28" t="n">
-        <v>1819.436760043265</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="V28" t="n">
-        <v>1537.725292651294</v>
+        <v>2119.408873334071</v>
       </c>
       <c r="W28" t="n">
-        <v>1262.872888823807</v>
+        <v>1844.556469506584</v>
       </c>
       <c r="X28" t="n">
-        <v>1020.308992269612</v>
+        <v>1601.992572952389</v>
       </c>
       <c r="Y28" t="n">
-        <v>793.966223959354</v>
+        <v>1375.649804642131</v>
       </c>
     </row>
     <row r="29">
@@ -6437,10 +6439,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2540.701498063315</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C29" t="n">
-        <v>2113.800768076615</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D29" t="n">
         <v>1690.508147261616</v>
@@ -6449,13 +6451,13 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F29" t="n">
-        <v>839.4070255988736</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G29" t="n">
-        <v>435.0679631883222</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H29" t="n">
-        <v>137.1995846623568</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I29" t="n">
         <v>102.3027134058285</v>
@@ -6479,25 +6481,25 @@
         <v>4573.117879057176</v>
       </c>
       <c r="P29" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291425</v>
       </c>
       <c r="Q29" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291425</v>
       </c>
       <c r="R29" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291425</v>
       </c>
       <c r="S29" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164566</v>
       </c>
       <c r="T29" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U29" t="n">
         <v>4531.487895805612</v>
       </c>
       <c r="V29" t="n">
-        <v>4173.998480931861</v>
+        <v>4173.99848093186</v>
       </c>
       <c r="W29" t="n">
         <v>3777.607131232208</v>
@@ -6549,7 +6551,7 @@
         <v>102.3027134058285</v>
       </c>
       <c r="M30" t="n">
-        <v>821.6753975134684</v>
+        <v>1158.289251381874</v>
       </c>
       <c r="N30" t="n">
         <v>1910.990343986338</v>
@@ -6598,16 +6600,16 @@
         <v>1185.483835930065</v>
       </c>
       <c r="C31" t="n">
-        <v>1013.511272808982</v>
+        <v>1013.511272808981</v>
       </c>
       <c r="D31" t="n">
-        <v>850.1944999357522</v>
+        <v>850.1944999357521</v>
       </c>
       <c r="E31" t="n">
-        <v>683.9862940886057</v>
+        <v>683.9862940886056</v>
       </c>
       <c r="F31" t="n">
-        <v>512.1245198631661</v>
+        <v>512.124519863166</v>
       </c>
       <c r="G31" t="n">
         <v>345.8675501573982</v>
@@ -6619,10 +6621,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J31" t="n">
-        <v>159.7940416299866</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K31" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L31" t="n">
         <v>741.0109641302445</v>
@@ -6646,22 +6648,22 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S31" t="n">
-        <v>2112.580693338092</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="T31" t="n">
-        <v>1869.241345563992</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="U31" t="n">
-        <v>1869.241345563992</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="V31" t="n">
-        <v>1587.529878172021</v>
+        <v>2119.408873334071</v>
       </c>
       <c r="W31" t="n">
-        <v>1587.529878172021</v>
+        <v>1844.556469506584</v>
       </c>
       <c r="X31" t="n">
-        <v>1587.529878172021</v>
+        <v>1601.992572952389</v>
       </c>
       <c r="Y31" t="n">
         <v>1375.649804642131</v>
@@ -6674,10 +6676,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2540.701498063315</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C32" t="n">
-        <v>2113.800768076615</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D32" t="n">
         <v>1690.508147261616</v>
@@ -6686,13 +6688,13 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F32" t="n">
-        <v>839.4070255988736</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G32" t="n">
-        <v>435.0679631883222</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H32" t="n">
-        <v>137.1995846623568</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I32" t="n">
         <v>102.3027134058285</v>
@@ -6716,25 +6718,25 @@
         <v>4573.117879057176</v>
       </c>
       <c r="P32" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291425</v>
       </c>
       <c r="Q32" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291425</v>
       </c>
       <c r="R32" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291425</v>
       </c>
       <c r="S32" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164566</v>
       </c>
       <c r="T32" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U32" t="n">
         <v>4531.487895805612</v>
       </c>
       <c r="V32" t="n">
-        <v>4173.998480931861</v>
+        <v>4173.99848093186</v>
       </c>
       <c r="W32" t="n">
         <v>3777.607131232208</v>
@@ -6753,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3873.571530742373</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C33" t="n">
-        <v>3756.065627259878</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D33" t="n">
-        <v>3652.225668775163</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E33" t="n">
-        <v>3547.523735048101</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F33" t="n">
-        <v>3453.877904731005</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G33" t="n">
-        <v>3359.824132948609</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H33" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I33" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J33" t="n">
-        <v>3306.448039710919</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="K33" t="n">
-        <v>3896.932966279258</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="L33" t="n">
-        <v>3896.932966279258</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="M33" t="n">
-        <v>3896.932966279258</v>
+        <v>739.6560874287652</v>
       </c>
       <c r="N33" t="n">
-        <v>4986.247912752128</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="O33" t="n">
-        <v>4986.247912752128</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="P33" t="n">
-        <v>5115.135670291427</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="Q33" t="n">
-        <v>5115.135670291427</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R33" t="n">
-        <v>5115.135670291427</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S33" t="n">
-        <v>5033.811422852682</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T33" t="n">
-        <v>4891.93148715036</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U33" t="n">
-        <v>4707.163291069997</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V33" t="n">
-        <v>4502.190152209264</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W33" t="n">
-        <v>4305.668775042481</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X33" t="n">
-        <v>4142.191428809144</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y33" t="n">
-        <v>4002.498540162436</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>437.5920494001418</v>
+        <v>3710.79072403746</v>
       </c>
       <c r="C34" t="n">
-        <v>265.6194862790578</v>
+        <v>3538.818160916376</v>
       </c>
       <c r="D34" t="n">
-        <v>102.3027134058285</v>
+        <v>3538.818160916376</v>
       </c>
       <c r="E34" t="n">
-        <v>102.3027134058285</v>
+        <v>3372.609955069229</v>
       </c>
       <c r="F34" t="n">
-        <v>102.3027134058285</v>
+        <v>3200.74818084379</v>
       </c>
       <c r="G34" t="n">
-        <v>102.3027134058285</v>
+        <v>3034.491211138022</v>
       </c>
       <c r="H34" t="n">
-        <v>102.3027134058285</v>
+        <v>3034.491211138022</v>
       </c>
       <c r="I34" t="n">
-        <v>102.3027134058285</v>
+        <v>2934.722642878298</v>
       </c>
       <c r="J34" t="n">
-        <v>159.7940416299866</v>
+        <v>2992.213971102456</v>
       </c>
       <c r="K34" t="n">
-        <v>386.3216428358238</v>
+        <v>3218.741572308293</v>
       </c>
       <c r="L34" t="n">
-        <v>741.0109641302445</v>
+        <v>3573.430893602714</v>
       </c>
       <c r="M34" t="n">
-        <v>1132.196759100495</v>
+        <v>3964.616688572965</v>
       </c>
       <c r="N34" t="n">
-        <v>1509.688269976531</v>
+        <v>4342.108199449</v>
       </c>
       <c r="O34" t="n">
-        <v>1865.116398656294</v>
+        <v>4697.536328128764</v>
       </c>
       <c r="P34" t="n">
-        <v>2155.715610578195</v>
+        <v>4988.135540050665</v>
       </c>
       <c r="Q34" t="n">
-        <v>2282.715740818957</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="R34" t="n">
-        <v>2282.715740818957</v>
+        <v>5068.0970569786</v>
       </c>
       <c r="S34" t="n">
-        <v>2176.752350469914</v>
+        <v>4897.962009497734</v>
       </c>
       <c r="T34" t="n">
-        <v>1933.413002695814</v>
+        <v>4654.622661723634</v>
       </c>
       <c r="U34" t="n">
-        <v>1653.228554196118</v>
+        <v>4374.438213223939</v>
       </c>
       <c r="V34" t="n">
-        <v>1371.517086804147</v>
+        <v>4143.52058930372</v>
       </c>
       <c r="W34" t="n">
-        <v>1096.66468297666</v>
+        <v>4143.52058930372</v>
       </c>
       <c r="X34" t="n">
-        <v>854.1007864224655</v>
+        <v>3900.956692749525</v>
       </c>
       <c r="Y34" t="n">
-        <v>627.7580181122075</v>
+        <v>3900.956692749525</v>
       </c>
     </row>
     <row r="35">
@@ -6923,7 +6925,7 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F35" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988739</v>
       </c>
       <c r="G35" t="n">
         <v>435.0679631883225</v>
@@ -6935,31 +6937,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J35" t="n">
-        <v>464.9061722227241</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K35" t="n">
-        <v>464.9061722227241</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L35" t="n">
-        <v>1394.531219842001</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M35" t="n">
-        <v>2398.817321261059</v>
+        <v>2751.722170419663</v>
       </c>
       <c r="N35" t="n">
-        <v>3375.06837974776</v>
+        <v>3727.973228906364</v>
       </c>
       <c r="O35" t="n">
-        <v>4220.213029898572</v>
+        <v>4573.117879057176</v>
       </c>
       <c r="P35" t="n">
-        <v>4928.4923090565</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="Q35" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="R35" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S35" t="n">
         <v>5010.768376164567</v>
@@ -7005,7 +7007,7 @@
         <v>249.7325784259149</v>
       </c>
       <c r="G36" t="n">
-        <v>155.678806643519</v>
+        <v>155.6788066435189</v>
       </c>
       <c r="H36" t="n">
         <v>102.3027134058285</v>
@@ -7014,25 +7016,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J36" t="n">
-        <v>102.3027134058285</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="K36" t="n">
-        <v>102.3027134058285</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="L36" t="n">
-        <v>102.3027134058285</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="M36" t="n">
-        <v>821.6753975134684</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="N36" t="n">
-        <v>1910.990343986338</v>
+        <v>1463.315149158289</v>
       </c>
       <c r="O36" t="n">
-        <v>1910.990343986338</v>
+        <v>1463.315149158289</v>
       </c>
       <c r="P36" t="n">
-        <v>1910.990343986338</v>
+        <v>1463.315149158289</v>
       </c>
       <c r="Q36" t="n">
         <v>1910.990343986338</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>4017.903765402536</v>
+        <v>1185.483835930065</v>
       </c>
       <c r="C37" t="n">
-        <v>3845.931202281452</v>
+        <v>1013.511272808981</v>
       </c>
       <c r="D37" t="n">
-        <v>3682.614429408222</v>
+        <v>850.194499935752</v>
       </c>
       <c r="E37" t="n">
-        <v>3516.406223561076</v>
+        <v>683.9862940886055</v>
       </c>
       <c r="F37" t="n">
-        <v>3344.544449335636</v>
+        <v>512.1245198631659</v>
       </c>
       <c r="G37" t="n">
-        <v>3178.287479629868</v>
+        <v>345.8675501573981</v>
       </c>
       <c r="H37" t="n">
-        <v>3034.491211138023</v>
+        <v>202.0712816655525</v>
       </c>
       <c r="I37" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J37" t="n">
-        <v>2992.213971102457</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K37" t="n">
-        <v>3218.741572308294</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L37" t="n">
-        <v>3573.430893602715</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M37" t="n">
-        <v>3964.616688572966</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N37" t="n">
-        <v>4342.108199449001</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O37" t="n">
-        <v>4697.536328128765</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P37" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q37" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R37" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S37" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="T37" t="n">
-        <v>4871.796322517327</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="U37" t="n">
-        <v>4871.796322517327</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="V37" t="n">
-        <v>4590.084855125356</v>
+        <v>2119.40887333407</v>
       </c>
       <c r="W37" t="n">
-        <v>4590.084855125356</v>
+        <v>1844.556469506584</v>
       </c>
       <c r="X37" t="n">
-        <v>4434.41250242486</v>
+        <v>1601.992572952389</v>
       </c>
       <c r="Y37" t="n">
-        <v>4208.069734114601</v>
+        <v>1375.649804642131</v>
       </c>
     </row>
     <row r="38">
@@ -7148,10 +7150,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2540.701498063315</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C38" t="n">
-        <v>2113.800768076615</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D38" t="n">
         <v>1690.508147261616</v>
@@ -7160,49 +7162,49 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F38" t="n">
-        <v>839.4070255988736</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G38" t="n">
-        <v>435.0679631883222</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H38" t="n">
-        <v>137.1995846623568</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I38" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J38" t="n">
-        <v>102.3027134058285</v>
+        <v>464.906172222724</v>
       </c>
       <c r="K38" t="n">
-        <v>651.5495334576516</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L38" t="n">
-        <v>1581.174581076928</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M38" t="n">
-        <v>2585.460682495986</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N38" t="n">
-        <v>3561.711740982687</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O38" t="n">
-        <v>4406.8563911335</v>
+        <v>4935.721337874071</v>
       </c>
       <c r="P38" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="Q38" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="R38" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S38" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T38" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U38" t="n">
         <v>4531.487895805612</v>
@@ -7254,19 +7256,19 @@
         <v>102.3027134058285</v>
       </c>
       <c r="K39" t="n">
-        <v>692.7876399741681</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L39" t="n">
-        <v>692.7876399741681</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M39" t="n">
-        <v>692.7876399741681</v>
+        <v>1021.509065974867</v>
       </c>
       <c r="N39" t="n">
-        <v>692.7876399741681</v>
+        <v>1021.509065974867</v>
       </c>
       <c r="O39" t="n">
-        <v>1194.79262694784</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P39" t="n">
         <v>1910.990343986338</v>
@@ -7306,19 +7308,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>853.0186603771511</v>
+        <v>1185.483835930065</v>
       </c>
       <c r="C40" t="n">
-        <v>681.0460972560671</v>
+        <v>1013.511272808981</v>
       </c>
       <c r="D40" t="n">
-        <v>517.7293243828378</v>
+        <v>850.1944999357521</v>
       </c>
       <c r="E40" t="n">
-        <v>517.7293243828378</v>
+        <v>683.9862940886056</v>
       </c>
       <c r="F40" t="n">
-        <v>345.8675501573982</v>
+        <v>512.124519863166</v>
       </c>
       <c r="G40" t="n">
         <v>345.8675501573982</v>
@@ -7330,10 +7332,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J40" t="n">
-        <v>159.7940416299866</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K40" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L40" t="n">
         <v>741.0109641302445</v>
@@ -7354,28 +7356,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R40" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S40" t="n">
-        <v>2065.542080025265</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="T40" t="n">
-        <v>1824.564249726657</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="U40" t="n">
-        <v>1544.379801226962</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="V40" t="n">
-        <v>1544.379801226962</v>
+        <v>2119.408873334071</v>
       </c>
       <c r="W40" t="n">
-        <v>1269.527397399475</v>
+        <v>1844.556469506584</v>
       </c>
       <c r="X40" t="n">
-        <v>1269.527397399475</v>
+        <v>1601.992572952389</v>
       </c>
       <c r="Y40" t="n">
-        <v>1043.184629089217</v>
+        <v>1375.649804642131</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2540.701498063316</v>
+        <v>2121.268919253066</v>
       </c>
       <c r="C41" t="n">
-        <v>2113.800768076616</v>
+        <v>1694.368189266366</v>
       </c>
       <c r="D41" t="n">
-        <v>1690.508147261616</v>
+        <v>1271.075568451366</v>
       </c>
       <c r="E41" t="n">
-        <v>1264.531207409474</v>
+        <v>845.0986285992237</v>
       </c>
       <c r="F41" t="n">
-        <v>839.4070255988738</v>
+        <v>419.9744467886239</v>
       </c>
       <c r="G41" t="n">
-        <v>435.0679631883225</v>
+        <v>419.9744467886239</v>
       </c>
       <c r="H41" t="n">
-        <v>137.1995846623573</v>
+        <v>122.1060682626588</v>
       </c>
       <c r="I41" t="n">
-        <v>102.3027134058285</v>
+        <v>87.20919700613001</v>
       </c>
       <c r="J41" t="n">
-        <v>464.9061722227241</v>
+        <v>87.20919700613001</v>
       </c>
       <c r="K41" t="n">
-        <v>1180.414480198223</v>
+        <v>802.7175049816291</v>
       </c>
       <c r="L41" t="n">
-        <v>2110.0395278175</v>
+        <v>1732.342552600906</v>
       </c>
       <c r="M41" t="n">
-        <v>3114.325629236558</v>
+        <v>2736.628654019964</v>
       </c>
       <c r="N41" t="n">
-        <v>3950.770911629316</v>
+        <v>3712.879712506665</v>
       </c>
       <c r="O41" t="n">
-        <v>3950.770911629316</v>
+        <v>4360.459850306501</v>
       </c>
       <c r="P41" t="n">
-        <v>4659.050190787244</v>
+        <v>4360.459850306501</v>
       </c>
       <c r="Q41" t="n">
-        <v>5115.135670291427</v>
+        <v>4360.459850306501</v>
       </c>
       <c r="R41" t="n">
-        <v>5115.135670291427</v>
+        <v>4360.459850306501</v>
       </c>
       <c r="S41" t="n">
-        <v>5010.768376164567</v>
+        <v>4256.092556179641</v>
       </c>
       <c r="T41" t="n">
-        <v>4789.842805209199</v>
+        <v>4035.166985224274</v>
       </c>
       <c r="U41" t="n">
-        <v>4531.487895805612</v>
+        <v>3776.812075820687</v>
       </c>
       <c r="V41" t="n">
-        <v>4173.998480931861</v>
+        <v>3419.322660946937</v>
       </c>
       <c r="W41" t="n">
-        <v>3777.607131232208</v>
+        <v>3358.174552421958</v>
       </c>
       <c r="X41" t="n">
-        <v>3365.887132399955</v>
+        <v>2946.454553589705</v>
       </c>
       <c r="Y41" t="n">
-        <v>2960.549862354846</v>
+        <v>2541.117283544596</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>669.4262044372838</v>
+        <v>654.3326880375853</v>
       </c>
       <c r="C42" t="n">
-        <v>551.9203009547886</v>
+        <v>536.8267845550901</v>
       </c>
       <c r="D42" t="n">
-        <v>448.0803424700736</v>
+        <v>432.9868260703751</v>
       </c>
       <c r="E42" t="n">
-        <v>343.3784087430108</v>
+        <v>328.2848923433123</v>
       </c>
       <c r="F42" t="n">
-        <v>249.7325784259149</v>
+        <v>234.6390620262164</v>
       </c>
       <c r="G42" t="n">
-        <v>155.678806643519</v>
+        <v>140.5852902438204</v>
       </c>
       <c r="H42" t="n">
-        <v>102.3027134058285</v>
+        <v>87.20919700613001</v>
       </c>
       <c r="I42" t="n">
-        <v>102.3027134058285</v>
+        <v>87.20919700613001</v>
       </c>
       <c r="J42" t="n">
-        <v>102.3027134058285</v>
+        <v>358.9066862857211</v>
       </c>
       <c r="K42" t="n">
-        <v>692.7876399741681</v>
+        <v>949.3916128540607</v>
       </c>
       <c r="L42" t="n">
-        <v>855.0038060102931</v>
+        <v>949.3916128540607</v>
       </c>
       <c r="M42" t="n">
-        <v>1910.990343986338</v>
+        <v>949.3916128540607</v>
       </c>
       <c r="N42" t="n">
-        <v>1910.990343986338</v>
+        <v>949.3916128540607</v>
       </c>
       <c r="O42" t="n">
-        <v>1910.990343986338</v>
+        <v>949.3916128540607</v>
       </c>
       <c r="P42" t="n">
-        <v>1910.990343986338</v>
+        <v>1431.75135072386</v>
       </c>
       <c r="Q42" t="n">
-        <v>1910.990343986338</v>
+        <v>1895.89682758664</v>
       </c>
       <c r="R42" t="n">
-        <v>1910.990343986338</v>
+        <v>1895.89682758664</v>
       </c>
       <c r="S42" t="n">
-        <v>1829.666096547593</v>
+        <v>1814.572580147894</v>
       </c>
       <c r="T42" t="n">
-        <v>1687.786160845271</v>
+        <v>1672.692644445573</v>
       </c>
       <c r="U42" t="n">
-        <v>1503.017964764908</v>
+        <v>1487.924448365209</v>
       </c>
       <c r="V42" t="n">
-        <v>1298.044825904174</v>
+        <v>1282.951309504475</v>
       </c>
       <c r="W42" t="n">
-        <v>1101.523448737391</v>
+        <v>1086.429932337693</v>
       </c>
       <c r="X42" t="n">
-        <v>938.0461025040541</v>
+        <v>922.9525861043556</v>
       </c>
       <c r="Y42" t="n">
-        <v>798.3532138573465</v>
+        <v>783.259697457648</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>941.9189991784958</v>
+        <v>3263.227945417609</v>
       </c>
       <c r="C43" t="n">
-        <v>769.9464360574118</v>
+        <v>3091.255382296525</v>
       </c>
       <c r="D43" t="n">
-        <v>606.6296631841825</v>
+        <v>2927.938609423296</v>
       </c>
       <c r="E43" t="n">
-        <v>440.421457337036</v>
+        <v>2761.730403576149</v>
       </c>
       <c r="F43" t="n">
-        <v>268.5596831115964</v>
+        <v>2589.86862935071</v>
       </c>
       <c r="G43" t="n">
-        <v>102.3027134058285</v>
+        <v>2423.611659644942</v>
       </c>
       <c r="H43" t="n">
-        <v>102.3027134058285</v>
+        <v>2279.815391153096</v>
       </c>
       <c r="I43" t="n">
-        <v>102.3027134058285</v>
+        <v>2180.046822893372</v>
       </c>
       <c r="J43" t="n">
-        <v>159.7940416299866</v>
+        <v>2237.538151117531</v>
       </c>
       <c r="K43" t="n">
-        <v>386.3216428358238</v>
+        <v>2464.065752323368</v>
       </c>
       <c r="L43" t="n">
-        <v>741.0109641302445</v>
+        <v>2818.755073617789</v>
       </c>
       <c r="M43" t="n">
-        <v>1132.196759100495</v>
+        <v>3209.940868588039</v>
       </c>
       <c r="N43" t="n">
-        <v>1509.688269976531</v>
+        <v>3587.432379464075</v>
       </c>
       <c r="O43" t="n">
-        <v>1865.116398656294</v>
+        <v>3942.860508143838</v>
       </c>
       <c r="P43" t="n">
-        <v>2155.715610578195</v>
+        <v>4233.459720065739</v>
       </c>
       <c r="Q43" t="n">
-        <v>2282.715740818957</v>
+        <v>4360.459850306501</v>
       </c>
       <c r="R43" t="n">
-        <v>2282.715740818957</v>
+        <v>4360.459850306501</v>
       </c>
       <c r="S43" t="n">
-        <v>2282.715740818957</v>
+        <v>4360.459850306501</v>
       </c>
       <c r="T43" t="n">
-        <v>2282.715740818957</v>
+        <v>4117.120502532401</v>
       </c>
       <c r="U43" t="n">
-        <v>2157.555503974472</v>
+        <v>4117.120502532401</v>
       </c>
       <c r="V43" t="n">
-        <v>1875.844036582501</v>
+        <v>4117.120502532401</v>
       </c>
       <c r="W43" t="n">
-        <v>1600.991632755014</v>
+        <v>3922.300578994128</v>
       </c>
       <c r="X43" t="n">
-        <v>1358.427736200819</v>
+        <v>3679.736682439933</v>
       </c>
       <c r="Y43" t="n">
-        <v>1132.084967890562</v>
+        <v>3453.393914129675</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>929.1323340687114</v>
+        <v>2369.673452564205</v>
       </c>
       <c r="C44" t="n">
-        <v>929.1323340687114</v>
+        <v>1942.772722577505</v>
       </c>
       <c r="D44" t="n">
-        <v>929.1323340687114</v>
+        <v>1519.480101762505</v>
       </c>
       <c r="E44" t="n">
-        <v>929.1323340687114</v>
+        <v>1093.503161910363</v>
       </c>
       <c r="F44" t="n">
-        <v>794.3601636140438</v>
+        <v>668.3789800997631</v>
       </c>
       <c r="G44" t="n">
-        <v>390.0211012034924</v>
+        <v>264.0399176892117</v>
       </c>
       <c r="H44" t="n">
-        <v>92.15272267752728</v>
+        <v>87.20919700613001</v>
       </c>
       <c r="I44" t="n">
-        <v>57.25585142099849</v>
+        <v>87.20919700613001</v>
       </c>
       <c r="J44" t="n">
-        <v>57.25585142099849</v>
+        <v>449.8126558230255</v>
       </c>
       <c r="K44" t="n">
-        <v>57.25585142099849</v>
+        <v>1165.320963798525</v>
       </c>
       <c r="L44" t="n">
-        <v>57.25585142099849</v>
+        <v>2094.946011417801</v>
       </c>
       <c r="M44" t="n">
-        <v>737.4309692222841</v>
+        <v>2102.287698275787</v>
       </c>
       <c r="N44" t="n">
-        <v>1445.97213055714</v>
+        <v>3078.538756762488</v>
       </c>
       <c r="O44" t="n">
-        <v>2154.513291891997</v>
+        <v>3078.538756762488</v>
       </c>
       <c r="P44" t="n">
-        <v>2862.792571049924</v>
+        <v>3786.818035920415</v>
       </c>
       <c r="Q44" t="n">
-        <v>2862.792571049924</v>
+        <v>4242.903515424598</v>
       </c>
       <c r="R44" t="n">
-        <v>2862.792571049924</v>
+        <v>4360.459850306501</v>
       </c>
       <c r="S44" t="n">
-        <v>2758.425276923065</v>
+        <v>4360.459850306501</v>
       </c>
       <c r="T44" t="n">
-        <v>2758.425276923065</v>
+        <v>4360.459850306501</v>
       </c>
       <c r="U44" t="n">
-        <v>2500.070367519477</v>
+        <v>4360.459850306501</v>
       </c>
       <c r="V44" t="n">
-        <v>2142.580952645727</v>
+        <v>4002.97043543275</v>
       </c>
       <c r="W44" t="n">
-        <v>1746.189602946074</v>
+        <v>3606.579085733098</v>
       </c>
       <c r="X44" t="n">
-        <v>1334.469604113821</v>
+        <v>3194.859086900845</v>
       </c>
       <c r="Y44" t="n">
-        <v>929.1323340687114</v>
+        <v>2789.521816855735</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>624.3793424524537</v>
+        <v>654.3326880375853</v>
       </c>
       <c r="C45" t="n">
-        <v>506.8734389699584</v>
+        <v>536.8267845550901</v>
       </c>
       <c r="D45" t="n">
-        <v>403.0334804852435</v>
+        <v>432.9868260703751</v>
       </c>
       <c r="E45" t="n">
-        <v>298.3315467581807</v>
+        <v>328.2848923433123</v>
       </c>
       <c r="F45" t="n">
-        <v>204.6857164410849</v>
+        <v>234.6390620262164</v>
       </c>
       <c r="G45" t="n">
-        <v>110.6319446586889</v>
+        <v>140.5852902438204</v>
       </c>
       <c r="H45" t="n">
-        <v>57.25585142099849</v>
+        <v>87.20919700613001</v>
       </c>
       <c r="I45" t="n">
-        <v>64.70249438291033</v>
+        <v>94.65583996804185</v>
       </c>
       <c r="J45" t="n">
-        <v>336.3999836625014</v>
+        <v>366.3533292476329</v>
       </c>
       <c r="K45" t="n">
-        <v>926.884910230841</v>
+        <v>956.8382558159725</v>
       </c>
       <c r="L45" t="n">
-        <v>926.884910230841</v>
+        <v>956.8382558159725</v>
       </c>
       <c r="M45" t="n">
-        <v>926.884910230841</v>
+        <v>956.8382558159725</v>
       </c>
       <c r="N45" t="n">
-        <v>926.884910230841</v>
+        <v>956.8382558159725</v>
       </c>
       <c r="O45" t="n">
-        <v>1157.402320666652</v>
+        <v>956.8382558159725</v>
       </c>
       <c r="P45" t="n">
-        <v>1865.943482001508</v>
+        <v>1349.732040639157</v>
       </c>
       <c r="Q45" t="n">
-        <v>1865.943482001508</v>
+        <v>1813.877517501937</v>
       </c>
       <c r="R45" t="n">
-        <v>1865.943482001508</v>
+        <v>1895.89682758664</v>
       </c>
       <c r="S45" t="n">
-        <v>1784.619234562763</v>
+        <v>1814.572580147894</v>
       </c>
       <c r="T45" t="n">
-        <v>1642.739298860441</v>
+        <v>1672.692644445573</v>
       </c>
       <c r="U45" t="n">
-        <v>1457.971102780078</v>
+        <v>1487.924448365209</v>
       </c>
       <c r="V45" t="n">
-        <v>1252.997963919344</v>
+        <v>1282.951309504475</v>
       </c>
       <c r="W45" t="n">
-        <v>1056.476586752561</v>
+        <v>1086.429932337693</v>
       </c>
       <c r="X45" t="n">
-        <v>892.999240519224</v>
+        <v>922.9525861043556</v>
       </c>
       <c r="Y45" t="n">
-        <v>753.3063518725164</v>
+        <v>783.259697457648</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>830.3837357476219</v>
+        <v>431.0435343526536</v>
       </c>
       <c r="C46" t="n">
-        <v>658.4111726265379</v>
+        <v>259.0709712315696</v>
       </c>
       <c r="D46" t="n">
-        <v>495.0943997533086</v>
+        <v>259.0709712315696</v>
       </c>
       <c r="E46" t="n">
-        <v>328.8861939061621</v>
+        <v>259.0709712315696</v>
       </c>
       <c r="F46" t="n">
-        <v>157.0244196807225</v>
+        <v>87.20919700613001</v>
       </c>
       <c r="G46" t="n">
-        <v>157.0244196807225</v>
+        <v>87.20919700613001</v>
       </c>
       <c r="H46" t="n">
-        <v>157.0244196807225</v>
+        <v>87.20919700613001</v>
       </c>
       <c r="I46" t="n">
-        <v>57.25585142099849</v>
+        <v>87.20919700613001</v>
       </c>
       <c r="J46" t="n">
-        <v>114.7471796451565</v>
+        <v>144.700525230288</v>
       </c>
       <c r="K46" t="n">
-        <v>341.2747808509937</v>
+        <v>371.2281264361252</v>
       </c>
       <c r="L46" t="n">
-        <v>695.9641021454145</v>
+        <v>725.917447730546</v>
       </c>
       <c r="M46" t="n">
-        <v>1087.149897115665</v>
+        <v>1117.103242700797</v>
       </c>
       <c r="N46" t="n">
-        <v>1464.641407991701</v>
+        <v>1494.594753576833</v>
       </c>
       <c r="O46" t="n">
-        <v>1820.069536671464</v>
+        <v>1850.022882256595</v>
       </c>
       <c r="P46" t="n">
-        <v>2110.668748593365</v>
+        <v>2140.622094178496</v>
       </c>
       <c r="Q46" t="n">
-        <v>2237.668878834127</v>
+        <v>2267.622224419258</v>
       </c>
       <c r="R46" t="n">
-        <v>2190.6302655213</v>
+        <v>2267.622224419258</v>
       </c>
       <c r="S46" t="n">
-        <v>2190.6302655213</v>
+        <v>2170.203835422426</v>
       </c>
       <c r="T46" t="n">
-        <v>1947.2909177472</v>
+        <v>1926.864487648326</v>
       </c>
       <c r="U46" t="n">
-        <v>1764.308773151627</v>
+        <v>1646.68003914863</v>
       </c>
       <c r="V46" t="n">
-        <v>1764.308773151627</v>
+        <v>1364.968571756659</v>
       </c>
       <c r="W46" t="n">
-        <v>1489.45636932414</v>
+        <v>1090.116167929172</v>
       </c>
       <c r="X46" t="n">
-        <v>1246.892472769945</v>
+        <v>847.5522713749772</v>
       </c>
       <c r="Y46" t="n">
-        <v>1020.549704459688</v>
+        <v>621.2095030647192</v>
       </c>
     </row>
   </sheetData>
@@ -7976,31 +7978,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K2" t="n">
         <v>35.76460079480934</v>
       </c>
       <c r="L2" t="n">
-        <v>754.010185195104</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M2" t="n">
-        <v>753.1294056619129</v>
+        <v>593.6590760150258</v>
       </c>
       <c r="N2" t="n">
-        <v>752.9777655969272</v>
+        <v>593.5074359500401</v>
       </c>
       <c r="O2" t="n">
-        <v>724.1720054412328</v>
+        <v>181.6704383876111</v>
       </c>
       <c r="P2" t="n">
         <v>37.5753618102313</v>
       </c>
       <c r="Q2" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R2" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8055,25 +8057,25 @@
         <v>16.17238675</v>
       </c>
       <c r="J3" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K3" t="n">
-        <v>22.39923383333334</v>
+        <v>462.4589018454976</v>
       </c>
       <c r="L3" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M3" t="n">
-        <v>418.6576975939414</v>
+        <v>579.324593627922</v>
       </c>
       <c r="N3" t="n">
-        <v>737.0411709760227</v>
+        <v>577.5708413291356</v>
       </c>
       <c r="O3" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P3" t="n">
-        <v>737.4689839673098</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q3" t="n">
         <v>22.7470382889785</v>
@@ -8216,19 +8218,19 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K5" t="n">
-        <v>751.4627435572904</v>
+        <v>569.51856287543</v>
       </c>
       <c r="L5" t="n">
-        <v>754.010185195104</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M5" t="n">
-        <v>605.4685363766582</v>
+        <v>593.6590760150259</v>
       </c>
       <c r="N5" t="n">
-        <v>37.27962283444602</v>
+        <v>593.5074359500402</v>
       </c>
       <c r="O5" t="n">
-        <v>753.0891021185053</v>
+        <v>593.6187724716183</v>
       </c>
       <c r="P5" t="n">
         <v>37.5753618102313</v>
@@ -8237,7 +8239,7 @@
         <v>36.12467460459804</v>
       </c>
       <c r="R5" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8292,22 +8294,22 @@
         <v>16.17238675</v>
       </c>
       <c r="J6" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K6" t="n">
         <v>22.39923383333334</v>
       </c>
       <c r="L6" t="n">
-        <v>22.51508671422956</v>
+        <v>462.5747547263935</v>
       </c>
       <c r="M6" t="n">
-        <v>738.7949232748091</v>
+        <v>579.3245936279221</v>
       </c>
       <c r="N6" t="n">
-        <v>737.0411709760227</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O6" t="n">
-        <v>418.7328068038355</v>
+        <v>579.3997028378163</v>
       </c>
       <c r="P6" t="n">
         <v>21.77084120482866</v>
@@ -8450,25 +8452,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K8" t="n">
-        <v>751.4627435572904</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L8" t="n">
         <v>38.31204243262292</v>
       </c>
       <c r="M8" t="n">
-        <v>37.43126289943181</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N8" t="n">
-        <v>752.9777655969272</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O8" t="n">
-        <v>753.0891021185053</v>
+        <v>810.8710360384532</v>
       </c>
       <c r="P8" t="n">
-        <v>263.6640043558611</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q8" t="n">
         <v>496.8170781441769</v>
@@ -8532,22 +8534,22 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K9" t="n">
-        <v>618.848654609434</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L9" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M9" t="n">
-        <v>23.09678051232798</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N9" t="n">
-        <v>21.34302821354166</v>
+        <v>781.6471621574455</v>
       </c>
       <c r="O9" t="n">
-        <v>537.9815287902163</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P9" t="n">
-        <v>737.4689839673098</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q9" t="n">
         <v>22.7470382889785</v>
@@ -8690,22 +8692,22 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K11" t="n">
-        <v>751.4627435572904</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L11" t="n">
         <v>38.31204243262292</v>
       </c>
       <c r="M11" t="n">
-        <v>494.2081555824942</v>
+        <v>130.1808430271589</v>
       </c>
       <c r="N11" t="n">
-        <v>752.9777655969272</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O11" t="n">
-        <v>37.3909593560241</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P11" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q11" t="n">
         <v>496.8170781441769</v>
@@ -8766,19 +8768,19 @@
         <v>16.17238675</v>
       </c>
       <c r="J12" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K12" t="n">
         <v>22.39923383333334</v>
       </c>
       <c r="L12" t="n">
-        <v>22.51508671422956</v>
+        <v>508.3773122949099</v>
       </c>
       <c r="M12" t="n">
-        <v>738.7949232748091</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N12" t="n">
-        <v>737.0411709760227</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O12" t="n">
         <v>23.17188972222222</v>
@@ -8787,7 +8789,7 @@
         <v>21.77084120482866</v>
       </c>
       <c r="Q12" t="n">
-        <v>418.3079553705918</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R12" t="n">
         <v>23.67291939414415</v>
@@ -8924,22 +8926,22 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K14" t="n">
-        <v>751.4627435572904</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L14" t="n">
-        <v>754.010185195104</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M14" t="n">
-        <v>239.2024163595921</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N14" t="n">
-        <v>752.9777655969272</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O14" t="n">
-        <v>37.3909593560241</v>
+        <v>691.5123106689896</v>
       </c>
       <c r="P14" t="n">
         <v>37.5753618102313</v>
@@ -8948,7 +8950,7 @@
         <v>36.12467460459804</v>
       </c>
       <c r="R14" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9006,19 +9008,19 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K15" t="n">
-        <v>618.848654609434</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L15" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M15" t="n">
-        <v>23.09678051232798</v>
+        <v>759.9390205422784</v>
       </c>
       <c r="N15" t="n">
-        <v>536.1526672815355</v>
+        <v>1111.457990790167</v>
       </c>
       <c r="O15" t="n">
-        <v>738.8700324847033</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P15" t="n">
         <v>21.77084120482866</v>
@@ -9161,31 +9163,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K17" t="n">
-        <v>751.4627435572904</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L17" t="n">
-        <v>754.010185195104</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M17" t="n">
-        <v>753.1294056619129</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N17" t="n">
-        <v>37.27962283444602</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O17" t="n">
-        <v>605.4282328332504</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P17" t="n">
-        <v>37.5753618102313</v>
+        <v>218.8019602116006</v>
       </c>
       <c r="Q17" t="n">
         <v>36.12467460459804</v>
       </c>
       <c r="R17" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9246,13 +9248,13 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L18" t="n">
-        <v>418.076003795843</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M18" t="n">
-        <v>738.7949232748091</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N18" t="n">
-        <v>737.0411709760227</v>
+        <v>781.6471621574452</v>
       </c>
       <c r="O18" t="n">
         <v>23.17188972222222</v>
@@ -9398,7 +9400,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K20" t="n">
         <v>758.5002654165255</v>
@@ -9407,22 +9409,22 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M20" t="n">
-        <v>37.43126289943181</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N20" t="n">
-        <v>924.1790155406098</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O20" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P20" t="n">
-        <v>753.0089771212694</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q20" t="n">
         <v>496.8170781441769</v>
       </c>
       <c r="R20" t="n">
-        <v>153.7764225027789</v>
+        <v>121.8329647736524</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9486,19 +9488,19 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M21" t="n">
-        <v>23.09678051232798</v>
+        <v>749.7358553685299</v>
       </c>
       <c r="N21" t="n">
-        <v>21.34302821354166</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O21" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P21" t="n">
-        <v>481.4282914131709</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q21" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R21" t="n">
         <v>23.67291939414415</v>
@@ -9653,13 +9655,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P23" t="n">
-        <v>466.324307620685</v>
+        <v>585.0680802286663</v>
       </c>
       <c r="Q23" t="n">
         <v>36.12467460459804</v>
       </c>
       <c r="R23" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9711,34 +9713,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J24" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K24" t="n">
-        <v>618.848654609434</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L24" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M24" t="n">
-        <v>23.09678051232798</v>
+        <v>749.7358553685299</v>
       </c>
       <c r="N24" t="n">
-        <v>21.34302821354166</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O24" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P24" t="n">
-        <v>418.6332501171365</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q24" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R24" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9890,7 +9892,7 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P26" t="n">
-        <v>585.0680802286672</v>
+        <v>585.0680802286663</v>
       </c>
       <c r="Q26" t="n">
         <v>36.12467460459804</v>
@@ -9954,16 +9956,16 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K27" t="n">
-        <v>618.848654609434</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L27" t="n">
-        <v>867.7664080100944</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M27" t="n">
-        <v>23.09678051232798</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N27" t="n">
-        <v>21.34302821354166</v>
+        <v>781.6471621574452</v>
       </c>
       <c r="O27" t="n">
         <v>23.17188972222222</v>
@@ -9972,7 +9974,7 @@
         <v>21.77084120482866</v>
       </c>
       <c r="Q27" t="n">
-        <v>408.0034988235876</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R27" t="n">
         <v>23.67291939414415</v>
@@ -10127,13 +10129,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P29" t="n">
-        <v>466.324307620685</v>
+        <v>585.0680802286654</v>
       </c>
       <c r="Q29" t="n">
         <v>36.12467460459804</v>
       </c>
       <c r="R29" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10197,10 +10199,10 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M30" t="n">
-        <v>749.7358553685299</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N30" t="n">
-        <v>1121.661155963915</v>
+        <v>781.6471621574452</v>
       </c>
       <c r="O30" t="n">
         <v>23.17188972222222</v>
@@ -10364,7 +10366,7 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P32" t="n">
-        <v>585.0680802286672</v>
+        <v>585.0680802286654</v>
       </c>
       <c r="Q32" t="n">
         <v>36.12467460459804</v>
@@ -10425,16 +10427,16 @@
         <v>16.17238675</v>
       </c>
       <c r="J33" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K33" t="n">
-        <v>618.848654609434</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L33" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M33" t="n">
-        <v>23.09678051232798</v>
+        <v>392.4461590409599</v>
       </c>
       <c r="N33" t="n">
         <v>1121.661155963915</v>
@@ -10443,13 +10445,13 @@
         <v>23.17188972222222</v>
       </c>
       <c r="P33" t="n">
-        <v>151.9604952849286</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q33" t="n">
         <v>22.7470382889785</v>
       </c>
       <c r="R33" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10583,10 +10585,10 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K35" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L35" t="n">
         <v>977.3272420480539</v>
@@ -10601,10 +10603,10 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P35" t="n">
-        <v>753.0089771212694</v>
+        <v>585.0680802286663</v>
       </c>
       <c r="Q35" t="n">
-        <v>224.6533223166459</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R35" t="n">
         <v>35.03264989479647</v>
@@ -10662,7 +10664,7 @@
         <v>16.17238675</v>
       </c>
       <c r="J36" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K36" t="n">
         <v>22.39923383333334</v>
@@ -10671,7 +10673,7 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M36" t="n">
-        <v>749.7358553685299</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N36" t="n">
         <v>1121.661155963915</v>
@@ -10683,7 +10685,7 @@
         <v>21.77084120482866</v>
       </c>
       <c r="Q36" t="n">
-        <v>22.7470382889785</v>
+        <v>474.9442047819572</v>
       </c>
       <c r="R36" t="n">
         <v>23.67291939414415</v>
@@ -10820,10 +10822,10 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K38" t="n">
-        <v>590.5593685239236</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L38" t="n">
         <v>977.3272420480539</v>
@@ -10838,7 +10840,7 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P38" t="n">
-        <v>753.0089771212694</v>
+        <v>218.8019602116006</v>
       </c>
       <c r="Q38" t="n">
         <v>36.12467460459804</v>
@@ -10902,22 +10904,22 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K39" t="n">
-        <v>618.848654609434</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L39" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M39" t="n">
-        <v>23.09678051232798</v>
+        <v>951.5880457335786</v>
       </c>
       <c r="N39" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O39" t="n">
-        <v>530.2476341400729</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P39" t="n">
-        <v>745.2028786174529</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q39" t="n">
         <v>22.7470382889785</v>
@@ -11057,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K41" t="n">
         <v>758.5002654165255</v>
@@ -11069,16 +11071,16 @@
         <v>1051.861668373228</v>
       </c>
       <c r="N41" t="n">
-        <v>882.1738474735962</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O41" t="n">
-        <v>37.3909593560241</v>
+        <v>691.5123106689896</v>
       </c>
       <c r="P41" t="n">
-        <v>753.0089771212694</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q41" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R41" t="n">
         <v>35.03264989479647</v>
@@ -11136,16 +11138,16 @@
         <v>16.17238675</v>
       </c>
       <c r="J42" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K42" t="n">
         <v>618.848654609434</v>
       </c>
       <c r="L42" t="n">
-        <v>186.3697998820327</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M42" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N42" t="n">
         <v>21.34302821354166</v>
@@ -11154,10 +11156,10 @@
         <v>23.17188972222222</v>
       </c>
       <c r="P42" t="n">
-        <v>21.77084120482866</v>
+        <v>509.0028996591719</v>
       </c>
       <c r="Q42" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R42" t="n">
         <v>23.67291939414415</v>
@@ -11294,31 +11296,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K44" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L44" t="n">
-        <v>38.31204243262292</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M44" t="n">
-        <v>724.4768364360839</v>
+        <v>44.847108210528</v>
       </c>
       <c r="N44" t="n">
-        <v>752.9777655969272</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O44" t="n">
-        <v>753.0891021185053</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P44" t="n">
         <v>753.0089771212694</v>
       </c>
       <c r="Q44" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R44" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11388,16 +11390,16 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O45" t="n">
-        <v>256.0177588493041</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P45" t="n">
-        <v>737.4689839673098</v>
+        <v>418.6332501171365</v>
       </c>
       <c r="Q45" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R45" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -22553,19 +22555,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>421.717170453621</v>
+        <v>339.5358271757115</v>
       </c>
       <c r="F2" t="n">
-        <v>38.06895341719951</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22595,7 +22597,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>218.7163152458132</v>
@@ -22610,7 +22612,7 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y2" t="n">
         <v>401.2838973446586</v>
@@ -22702,19 +22704,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>165.7641609568371</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -22750,19 +22752,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>117.2205539080138</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -22781,10 +22783,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>111.0211199336407</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -22796,13 +22798,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22835,10 +22837,10 @@
         <v>103.323621185591</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V5" t="n">
         <v>353.914520725013</v>
@@ -22850,7 +22852,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y5" t="n">
-        <v>401.2838973446586</v>
+        <v>342.6064085940732</v>
       </c>
     </row>
     <row r="6">
@@ -22945,10 +22947,10 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F7" t="n">
         <v>170.1431564831852</v>
@@ -22960,7 +22962,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I7" t="n">
-        <v>98.77088257712678</v>
+        <v>47.18544517283286</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -22987,10 +22989,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -23005,7 +23007,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>59.64236734312294</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -23027,7 +23029,7 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -23039,7 +23041,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23069,13 +23071,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>205.6041330638705</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -23084,10 +23086,10 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X8" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>401.2838973446586</v>
+        <v>339.7590443467174</v>
       </c>
     </row>
     <row r="9">
@@ -23176,19 +23178,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>165.7641609568371</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -23224,19 +23226,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>117.2205539080143</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -23255,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23273,10 +23275,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I11" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,25 +23308,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>59.2236837449158</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>255.7713603095518</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>181.5254254991168</v>
       </c>
       <c r="W11" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23413,13 +23415,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>27.77629167420079</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23461,28 +23463,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>117.2205539080143</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23495,10 +23497,10 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>421.717170453621</v>
@@ -23507,10 +23509,10 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>294.8896947407055</v>
+        <v>172.5977863661989</v>
       </c>
       <c r="I14" t="n">
         <v>34.5479025439635</v>
@@ -23546,7 +23548,7 @@
         <v>103.323621185591</v>
       </c>
       <c r="T14" t="n">
-        <v>88.75779688009558</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23653,22 +23655,22 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>47.1854451728328</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23698,19 +23700,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>117.2205539080143</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23744,13 +23746,13 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23780,25 +23782,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>83.96737552471899</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23896,13 +23898,13 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H19" t="n">
         <v>142.3583058069271</v>
@@ -23935,13 +23937,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>154.2416662463653</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23953,10 +23955,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>110.0981677402029</v>
       </c>
     </row>
     <row r="20">
@@ -24127,22 +24129,22 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I22" t="n">
         <v>98.77088257712678</v>
@@ -24172,13 +24174,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>208.6893602249563</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24190,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>110.0981677402029</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24367,10 +24369,10 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>110.0981677402028</v>
       </c>
       <c r="E25" t="n">
-        <v>106.2105945228214</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F25" t="n">
         <v>170.1431564831852</v>
@@ -24412,7 +24414,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24610,16 +24612,16 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24652,13 +24654,13 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T28" t="n">
-        <v>59.64236734312274</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>117.2205539080143</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24886,25 +24888,25 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U31" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>117.2205539080143</v>
       </c>
       <c r="W31" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>14.31806783256491</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25078,22 +25080,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E34" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I34" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>63.52994056050434</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25132,16 +25134,16 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>50.28590503703475</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="35">
@@ -25363,19 +25365,19 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U37" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>117.2205539080138</v>
       </c>
       <c r="W37" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>86.02262841516185</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25555,13 +25557,13 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -25594,25 +25596,25 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T40" t="n">
-        <v>2.337902300737483</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V40" t="n">
-        <v>278.8943527180514</v>
+        <v>117.2205539080143</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25640,7 +25642,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -25688,7 +25690,7 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>331.890808762928</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -25801,10 +25803,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25837,16 +25839,16 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T43" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>153.473969538659</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>79.23215548632174</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -25862,28 +25864,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>287.4484912423728</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>119.8272812644546</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25913,13 +25915,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T44" t="n">
         <v>218.7163152458132</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -26026,10 +26028,10 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -26041,7 +26043,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,19 +26070,19 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S46" t="n">
-        <v>168.4336970060565</v>
+        <v>71.98949189919266</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>96.23028086508205</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>514923.0223169532</v>
+        <v>449550.5221406262</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>514923.0223169532</v>
+        <v>449550.5221406262</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>514923.0223169532</v>
+        <v>668409.6531749822</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>514923.0223169532</v>
+        <v>668409.6531749822</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>514923.0223169531</v>
+        <v>668409.6531749821</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>514923.0223169531</v>
+        <v>745751.6974353092</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>745751.6974353093</v>
+        <v>745751.6974353092</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>745751.6974353093</v>
+        <v>745751.6974353092</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>745751.6974353093</v>
+        <v>745751.6974353091</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>745751.6974353092</v>
+        <v>745751.6974353093</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>745751.6974353093</v>
+        <v>668409.6531749823</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>514923.0223169532</v>
+        <v>668409.6531749822</v>
       </c>
     </row>
   </sheetData>
@@ -26311,37 +26313,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>203745.4809897531</v>
+        <v>177882.8010830319</v>
       </c>
       <c r="C2" t="n">
-        <v>203745.4809897531</v>
+        <v>177882.8010830319</v>
       </c>
       <c r="D2" t="n">
-        <v>203745.4809897531</v>
+        <v>264467.8886250014</v>
       </c>
       <c r="E2" t="n">
-        <v>203745.4809897531</v>
+        <v>264467.8886250013</v>
       </c>
       <c r="F2" t="n">
-        <v>203745.4809897531</v>
+        <v>264467.8886250015</v>
       </c>
       <c r="G2" t="n">
-        <v>203745.4809897531</v>
+        <v>295065.9616471597</v>
       </c>
       <c r="H2" t="n">
-        <v>295065.9616471598</v>
+        <v>295065.9616471595</v>
       </c>
       <c r="I2" t="n">
         <v>295065.9616471597</v>
       </c>
       <c r="J2" t="n">
-        <v>295065.9616471598</v>
+        <v>295065.9616471597</v>
       </c>
       <c r="K2" t="n">
-        <v>295065.9616471595</v>
+        <v>295065.9616471597</v>
       </c>
       <c r="L2" t="n">
-        <v>295065.9616471597</v>
+        <v>295065.9616471596</v>
       </c>
       <c r="M2" t="n">
         <v>295065.9616471597</v>
@@ -26350,10 +26352,10 @@
         <v>295065.9616471597</v>
       </c>
       <c r="O2" t="n">
-        <v>295065.9616471598</v>
+        <v>264467.8886250014</v>
       </c>
       <c r="P2" t="n">
-        <v>203745.4809897531</v>
+        <v>264467.8886250015</v>
       </c>
     </row>
     <row r="3">
@@ -26363,13 +26365,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>239846.908696991</v>
+        <v>186404.7334147372</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>165841.3652370801</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -26378,22 +26380,22 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>51711.33053014208</v>
       </c>
       <c r="H3" t="n">
-        <v>151925.6098158127</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>187258.1248649466</v>
+        <v>145533.6699348165</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>135122.0325442418</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -26415,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>40050.74696370634</v>
+        <v>34949.1061971525</v>
       </c>
       <c r="C4" t="n">
-        <v>40050.74696370634</v>
+        <v>34949.1061971525</v>
       </c>
       <c r="D4" t="n">
-        <v>40050.74696370634</v>
+        <v>52028.77520179228</v>
       </c>
       <c r="E4" t="n">
-        <v>40050.74696370635</v>
+        <v>52028.77520179228</v>
       </c>
       <c r="F4" t="n">
-        <v>40050.74696370634</v>
+        <v>52028.77520179228</v>
       </c>
       <c r="G4" t="n">
-        <v>40050.74696370634</v>
+        <v>58064.51385187963</v>
       </c>
       <c r="H4" t="n">
-        <v>58064.51385187964</v>
+        <v>58064.51385187963</v>
       </c>
       <c r="I4" t="n">
-        <v>58064.51385187964</v>
+        <v>58064.51385187963</v>
       </c>
       <c r="J4" t="n">
-        <v>58064.51385187964</v>
+        <v>58064.51385187963</v>
       </c>
       <c r="K4" t="n">
-        <v>58064.51385187964</v>
+        <v>58064.51385187962</v>
       </c>
       <c r="L4" t="n">
-        <v>58064.51385187963</v>
+        <v>58064.51385187962</v>
       </c>
       <c r="M4" t="n">
         <v>58064.51385187964</v>
       </c>
       <c r="N4" t="n">
-        <v>58064.51385187964</v>
+        <v>58064.51385187963</v>
       </c>
       <c r="O4" t="n">
-        <v>58064.51385187964</v>
+        <v>52028.77520179228</v>
       </c>
       <c r="P4" t="n">
-        <v>40050.74696370635</v>
+        <v>52028.77520179228</v>
       </c>
     </row>
     <row r="5">
@@ -26467,49 +26469,49 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>77142.04707995884</v>
+        <v>67446.25103742811</v>
       </c>
       <c r="C5" t="n">
-        <v>77142.04707995884</v>
+        <v>67446.25103742813</v>
       </c>
       <c r="D5" t="n">
-        <v>77142.04707995884</v>
+        <v>99906.58972465881</v>
       </c>
       <c r="E5" t="n">
-        <v>43514.44707995885</v>
+        <v>66278.98972465881</v>
       </c>
       <c r="F5" t="n">
-        <v>43514.44707995885</v>
+        <v>66278.98972465881</v>
       </c>
       <c r="G5" t="n">
-        <v>43514.44707995885</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="H5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="I5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="J5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="K5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="L5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="M5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842966</v>
       </c>
       <c r="N5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="O5" t="n">
-        <v>77750.06218842969</v>
+        <v>66278.98972465881</v>
       </c>
       <c r="P5" t="n">
-        <v>43514.44707995885</v>
+        <v>66278.98972465881</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-153294.221750903</v>
+        <v>-110917.2895662859</v>
       </c>
       <c r="C6" t="n">
-        <v>86552.6869460879</v>
+        <v>75487.44384845131</v>
       </c>
       <c r="D6" t="n">
-        <v>86552.6869460879</v>
+        <v>-53308.84153852984</v>
       </c>
       <c r="E6" t="n">
-        <v>120180.2869460879</v>
+        <v>146160.1236985502</v>
       </c>
       <c r="F6" t="n">
-        <v>120180.2869460879</v>
+        <v>146160.1236985504</v>
       </c>
       <c r="G6" t="n">
-        <v>120180.2869460879</v>
+        <v>107540.0550767083</v>
       </c>
       <c r="H6" t="n">
-        <v>7325.77579103777</v>
+        <v>159251.3856068502</v>
       </c>
       <c r="I6" t="n">
-        <v>159251.3856068503</v>
+        <v>159251.3856068504</v>
       </c>
       <c r="J6" t="n">
-        <v>-28006.73925809614</v>
+        <v>13717.71567203393</v>
       </c>
       <c r="K6" t="n">
-        <v>159251.3856068502</v>
+        <v>159251.3856068504</v>
       </c>
       <c r="L6" t="n">
+        <v>24129.35306260845</v>
+      </c>
+      <c r="M6" t="n">
         <v>159251.3856068504</v>
-      </c>
-      <c r="M6" t="n">
-        <v>159251.3856068503</v>
       </c>
       <c r="N6" t="n">
         <v>159251.3856068504</v>
       </c>
       <c r="O6" t="n">
-        <v>159251.3856068504</v>
+        <v>146160.1236985503</v>
       </c>
       <c r="P6" t="n">
-        <v>120180.2869460879</v>
+        <v>146160.1236985504</v>
       </c>
     </row>
   </sheetData>
@@ -26787,22 +26789,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>715.6981427624811</v>
+        <v>556.227813115594</v>
       </c>
       <c r="C4" t="n">
-        <v>715.6981427624811</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="D4" t="n">
-        <v>715.6981427624811</v>
+        <v>1090.114962576625</v>
       </c>
       <c r="E4" t="n">
-        <v>715.6981427624811</v>
+        <v>1090.114962576625</v>
       </c>
       <c r="F4" t="n">
-        <v>715.6981427624811</v>
+        <v>1090.114962576625</v>
       </c>
       <c r="G4" t="n">
-        <v>715.6981427624811</v>
+        <v>1278.783917572857</v>
       </c>
       <c r="H4" t="n">
         <v>1278.783917572857</v>
@@ -26820,16 +26822,16 @@
         <v>1278.783917572857</v>
       </c>
       <c r="M4" t="n">
-        <v>1278.783917572857</v>
+        <v>1278.783917572856</v>
       </c>
       <c r="N4" t="n">
         <v>1278.783917572857</v>
       </c>
       <c r="O4" t="n">
-        <v>1278.783917572857</v>
+        <v>1090.114962576625</v>
       </c>
       <c r="P4" t="n">
-        <v>715.6981427624811</v>
+        <v>1090.114962576625</v>
       </c>
     </row>
   </sheetData>
@@ -27009,13 +27011,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>715.6981427624811</v>
+        <v>556.227813115594</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>533.8871494610312</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -27024,22 +27026,22 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>188.6689549962314</v>
       </c>
       <c r="H4" t="n">
-        <v>563.0857748103757</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>715.698142762481</v>
+        <v>556.227813115594</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>533.8871494610312</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
@@ -27255,13 +27257,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>715.6981427624811</v>
+        <v>556.227813115594</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>533.8871494610312</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
@@ -27270,10 +27272,10 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>188.6689549962314</v>
       </c>
       <c r="P4" t="n">
-        <v>563.0857748103757</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -34696,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>715.6981427624811</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>715.6981427624811</v>
+        <v>556.227813115594</v>
       </c>
       <c r="N2" t="n">
-        <v>715.6981427624811</v>
+        <v>556.227813115594</v>
       </c>
       <c r="O2" t="n">
-        <v>686.7810460852088</v>
+        <v>144.279479031587</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,25 +34777,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>440.0596680121643</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>395.5609170816134</v>
+        <v>556.227813115594</v>
       </c>
       <c r="N3" t="n">
-        <v>715.6981427624811</v>
+        <v>556.227813115594</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>715.6981427624811</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -34936,19 +34938,19 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>715.6981427624811</v>
+        <v>533.7539620806207</v>
       </c>
       <c r="L5" t="n">
-        <v>715.6981427624811</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>568.0372734772264</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="O5" t="n">
-        <v>715.6981427624811</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
@@ -34957,7 +34959,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,22 +35014,22 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>440.0596680121639</v>
       </c>
       <c r="M6" t="n">
-        <v>715.6981427624811</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="N6" t="n">
-        <v>715.6981427624811</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>395.5609170816133</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
@@ -35170,25 +35172,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K8" t="n">
-        <v>715.6981427624811</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N8" t="n">
-        <v>715.6981427624811</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O8" t="n">
-        <v>715.6981427624811</v>
+        <v>773.4800766824292</v>
       </c>
       <c r="P8" t="n">
-        <v>226.0886425456298</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q8" t="n">
         <v>460.6924035395789</v>
@@ -35252,22 +35254,22 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>596.4494207761006</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>760.3041339439038</v>
       </c>
       <c r="O9" t="n">
-        <v>514.8096390679941</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>715.6981427624811</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35410,22 +35412,22 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K11" t="n">
-        <v>715.6981427624811</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>456.7768926830624</v>
+        <v>92.74958012772711</v>
       </c>
       <c r="N11" t="n">
-        <v>715.6981427624811</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q11" t="n">
         <v>460.6924035395789</v>
@@ -35486,19 +35488,19 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>485.8622255806804</v>
       </c>
       <c r="M12" t="n">
-        <v>715.6981427624811</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N12" t="n">
-        <v>715.6981427624811</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -35507,7 +35509,7 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>395.5609170816133</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35644,22 +35646,22 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>715.6981427624811</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L14" t="n">
-        <v>715.6981427624811</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M14" t="n">
-        <v>201.7711534601603</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N14" t="n">
-        <v>715.6981427624811</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>654.1213513129655</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
@@ -35668,7 +35670,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35726,19 +35728,19 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>596.4494207761006</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>736.8422400299504</v>
       </c>
       <c r="N15" t="n">
-        <v>514.8096390679939</v>
+        <v>1090.114962576625</v>
       </c>
       <c r="O15" t="n">
-        <v>715.6981427624811</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35881,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K17" t="n">
-        <v>715.6981427624811</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L17" t="n">
-        <v>715.6981427624811</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M17" t="n">
-        <v>715.6981427624811</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O17" t="n">
-        <v>568.0372734772262</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>181.2265984013693</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35966,13 +35968,13 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>395.5609170816134</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>715.6981427624811</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N18" t="n">
-        <v>715.6981427624811</v>
+        <v>760.3041339439036</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -36118,7 +36120,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>722.7356646217162</v>
@@ -36127,22 +36129,22 @@
         <v>939.015199615431</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N20" t="n">
-        <v>886.8993927061638</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O20" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P20" t="n">
-        <v>715.433615311038</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
         <v>460.6924035395789</v>
       </c>
       <c r="R20" t="n">
-        <v>118.7437726079824</v>
+        <v>86.8003148788559</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36206,19 +36208,19 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>726.6390748562019</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O21" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>459.6574502083422</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36373,13 +36375,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P23" t="n">
-        <v>428.7489458104537</v>
+        <v>547.4927184184349</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,34 +36433,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>596.4494207761006</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>726.6390748562019</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>396.8624089123078</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36610,7 +36612,7 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P26" t="n">
-        <v>547.4927184184359</v>
+        <v>547.4927184184349</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
@@ -36674,16 +36676,16 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>596.4494207761006</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>845.2513212958648</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>760.3041339439036</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -36692,7 +36694,7 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>385.2564605346091</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36847,13 +36849,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P29" t="n">
-        <v>428.7489458104537</v>
+        <v>547.492718418434</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36917,10 +36919,10 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>726.6390748562019</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N30" t="n">
-        <v>1100.318127750374</v>
+        <v>760.3041339439036</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -37084,7 +37086,7 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P32" t="n">
-        <v>547.4927184184359</v>
+        <v>547.492718418434</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
@@ -37145,16 +37147,16 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K33" t="n">
-        <v>596.4494207761006</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>369.3493785286319</v>
       </c>
       <c r="N33" t="n">
         <v>1100.318127750374</v>
@@ -37163,13 +37165,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>130.1896540801</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37303,10 +37305,10 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L35" t="n">
         <v>939.015199615431</v>
@@ -37321,10 +37323,10 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P35" t="n">
-        <v>715.433615311038</v>
+        <v>547.4927184184349</v>
       </c>
       <c r="Q35" t="n">
-        <v>188.5286477120479</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37382,7 +37384,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -37391,7 +37393,7 @@
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>726.6390748562019</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>1100.318127750374</v>
@@ -37403,7 +37405,7 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>452.1971664929787</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37540,10 +37542,10 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K38" t="n">
-        <v>554.7947677291143</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L38" t="n">
         <v>939.015199615431</v>
@@ -37558,7 +37560,7 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P38" t="n">
-        <v>715.433615311038</v>
+        <v>181.2265984013693</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
@@ -37622,22 +37624,22 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>596.4494207761006</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>928.4912652212506</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>507.0757444178507</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P39" t="n">
-        <v>723.4320374126243</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37777,7 +37779,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>722.7356646217162</v>
@@ -37789,16 +37791,16 @@
         <v>1014.430405473796</v>
       </c>
       <c r="N41" t="n">
-        <v>844.8942246391501</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>654.1213513129655</v>
       </c>
       <c r="P41" t="n">
-        <v>715.433615311038</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37856,16 +37858,16 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K42" t="n">
         <v>596.4494207761006</v>
       </c>
       <c r="L42" t="n">
-        <v>163.8547131678031</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
@@ -37874,10 +37876,10 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>487.2320584543432</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38014,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M44" t="n">
-        <v>687.0455735366521</v>
+        <v>7.415845311096185</v>
       </c>
       <c r="N44" t="n">
-        <v>715.6981427624811</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O44" t="n">
-        <v>715.6981427624811</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
         <v>715.433615311038</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38108,16 +38110,16 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>232.8458691270818</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>715.6981427624811</v>
+        <v>396.8624089123078</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_4_21.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_4_21.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>647569.3841999446</v>
+        <v>645416.1503956108</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>11943472.88418848</v>
+        <v>11943472.88418847</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2610015.581521715</v>
+        <v>2610015.581521716</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7744719.656789894</v>
+        <v>7744719.656789895</v>
       </c>
     </row>
     <row r="11">
@@ -667,19 +667,19 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E2" t="n">
-        <v>82.18134327790955</v>
+        <v>68.2107089399944</v>
       </c>
       <c r="F2" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H2" t="n">
         <v>294.8896947407055</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -822,10 +822,10 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D4" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>170.1431564831852</v>
@@ -834,7 +834,7 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H4" t="n">
-        <v>142.3583058069271</v>
+        <v>26.64895292998195</v>
       </c>
       <c r="I4" t="n">
         <v>98.77088257712678</v>
@@ -864,25 +864,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V4" t="n">
-        <v>161.6737988100375</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W4" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X4" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>224.0793406271554</v>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>422.6317226868329</v>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -961,10 +961,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>336.4558456696458</v>
       </c>
       <c r="Y5" t="n">
-        <v>58.67748875058538</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1065,7 +1065,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1074,7 +1074,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>51.58543740429392</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,10 +1101,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686383</v>
       </c>
       <c r="T7" t="n">
         <v>240.905954296359</v>
@@ -1141,10 +1141,10 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E8" t="n">
-        <v>421.717170453621</v>
+        <v>110.4036298967404</v>
       </c>
       <c r="F8" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>400.2956717864458</v>
@@ -1195,13 +1195,13 @@
         <v>353.914520725013</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X8" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y8" t="n">
-        <v>61.52485299794121</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="9">
@@ -1296,22 +1296,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D10" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>164.546123788675</v>
+        <v>96.44420510686378</v>
       </c>
       <c r="F10" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G10" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1344,13 +1344,13 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V10" t="n">
-        <v>161.6737988100371</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W10" t="n">
         <v>272.1038797892121</v>
@@ -1387,7 +1387,7 @@
         <v>400.2956717864458</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>37.19088974669558</v>
       </c>
       <c r="I11" t="n">
         <v>34.5479025439635</v>
@@ -1423,13 +1423,13 @@
         <v>103.323621185591</v>
       </c>
       <c r="T11" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>172.3890952258962</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W11" t="n">
         <v>392.4274362026566</v>
@@ -1533,22 +1533,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D13" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G13" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1578,16 +1578,16 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>96.44420510686383</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V13" t="n">
-        <v>161.6737988100371</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W13" t="n">
         <v>272.1038797892121</v>
@@ -1615,19 +1615,19 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>110.4036298967404</v>
       </c>
       <c r="F14" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>400.2956717864458</v>
       </c>
       <c r="H14" t="n">
-        <v>122.2919083745066</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T14" t="n">
         <v>218.7163152458132</v>
@@ -1767,7 +1767,7 @@
         <v>188.264309024945</v>
       </c>
       <c r="C16" t="n">
-        <v>123.0673923170403</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1776,7 +1776,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1785,7 +1785,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686383</v>
       </c>
       <c r="T16" t="n">
         <v>240.905954296359</v>
@@ -2007,13 +2007,13 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D19" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2049,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T19" t="n">
         <v>240.905954296359</v>
@@ -2070,7 +2070,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y19" t="n">
-        <v>113.9811728869525</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="20">
@@ -2101,7 +2101,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I20" t="n">
-        <v>34.54790254396345</v>
+        <v>34.54790254396433</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2244,13 +2244,13 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D22" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2286,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T22" t="n">
         <v>240.905954296359</v>
@@ -2304,7 +2304,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X22" t="n">
-        <v>130.0400898484501</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y22" t="n">
         <v>224.0793406271554</v>
@@ -2481,13 +2481,13 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D25" t="n">
-        <v>51.58543740429418</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2523,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T25" t="n">
         <v>240.905954296359</v>
@@ -2718,22 +2718,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D28" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G28" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2763,16 +2763,16 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V28" t="n">
-        <v>161.6737988100371</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W28" t="n">
         <v>272.1038797892121</v>
@@ -2955,22 +2955,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D31" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G31" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3000,16 +3000,16 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V31" t="n">
-        <v>161.6737988100371</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W31" t="n">
         <v>272.1038797892121</v>
@@ -3195,19 +3195,19 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G34" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T34" t="n">
         <v>240.905954296359</v>
@@ -3246,16 +3246,16 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V34" t="n">
-        <v>228.6084476810166</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X34" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="35">
@@ -3429,22 +3429,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D37" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G37" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3474,16 +3474,16 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V37" t="n">
-        <v>161.6737988100375</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W37" t="n">
         <v>272.1038797892121</v>
@@ -3666,22 +3666,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D40" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>164.546123788675</v>
+        <v>96.44420510686395</v>
       </c>
       <c r="F40" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G40" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3714,13 +3714,13 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V40" t="n">
-        <v>161.6737988100371</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W40" t="n">
         <v>272.1038797892121</v>
@@ -3754,7 +3754,7 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>142.5968667924359</v>
       </c>
       <c r="H41" t="n">
         <v>294.8896947407055</v>
@@ -3793,16 +3793,16 @@
         <v>103.323621185591</v>
       </c>
       <c r="T41" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W41" t="n">
-        <v>60.53662743972861</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X41" t="n">
         <v>407.6027988439302</v>
@@ -3903,22 +3903,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D43" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>164.546123788675</v>
+        <v>96.44420510686378</v>
       </c>
       <c r="F43" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G43" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3954,13 +3954,13 @@
         <v>240.905954296359</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W43" t="n">
-        <v>192.8717243028904</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X43" t="n">
         <v>240.1382575886529</v>
@@ -3985,7 +3985,7 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E44" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>420.8729399924937</v>
@@ -3994,7 +3994,7 @@
         <v>400.2956717864458</v>
       </c>
       <c r="H44" t="n">
-        <v>175.0624134762509</v>
+        <v>122.2919083745057</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4030,10 +4030,10 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V44" t="n">
         <v>353.914520725013</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1700.695594043986</v>
+        <v>1700.695594043987</v>
       </c>
       <c r="C2" t="n">
         <v>1273.794864057287</v>
       </c>
       <c r="D2" t="n">
-        <v>850.5022432422868</v>
+        <v>850.5022432422872</v>
       </c>
       <c r="E2" t="n">
-        <v>767.4907853858125</v>
+        <v>781.6025372422929</v>
       </c>
       <c r="F2" t="n">
-        <v>342.3666035752127</v>
+        <v>781.6025372422929</v>
       </c>
       <c r="G2" t="n">
-        <v>342.3666035752127</v>
+        <v>377.2634748317415</v>
       </c>
       <c r="H2" t="n">
-        <v>44.49822504924752</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="I2" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J2" t="n">
         <v>407.101683866143</v>
       </c>
       <c r="K2" t="n">
-        <v>407.101683866143</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="L2" t="n">
-        <v>407.101683866143</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="M2" t="n">
-        <v>957.7672188505811</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="N2" t="n">
-        <v>1508.432753835019</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="O2" t="n">
-        <v>1651.26943807629</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="P2" t="n">
-        <v>1651.26943807629</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="Q2" t="n">
-        <v>2107.354917580473</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="R2" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S2" t="n">
-        <v>2120.543958335516</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="T2" t="n">
-        <v>2120.543958335516</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="U2" t="n">
-        <v>2120.543958335516</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="V2" t="n">
-        <v>2120.543958335516</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="W2" t="n">
-        <v>2120.543958335516</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="X2" t="n">
-        <v>2120.543958335516</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="Y2" t="n">
-        <v>2120.543958335516</v>
+        <v>2120.543958335517</v>
       </c>
     </row>
     <row r="3">
@@ -4397,34 +4397,34 @@
         <v>285.5739203864298</v>
       </c>
       <c r="F3" t="n">
-        <v>191.9280900693339</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G3" t="n">
-        <v>97.87431828693794</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H3" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I3" t="n">
-        <v>44.49822504924752</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J3" t="n">
-        <v>316.1957143288386</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="K3" t="n">
-        <v>751.8547856608812</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="L3" t="n">
-        <v>751.8547856608812</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="M3" t="n">
+        <v>602.6104029955975</v>
+      </c>
+      <c r="N3" t="n">
+        <v>751.8547856608809</v>
+      </c>
+      <c r="O3" t="n">
         <v>1302.520320645319</v>
-      </c>
-      <c r="N3" t="n">
-        <v>1853.185855629757</v>
-      </c>
-      <c r="O3" t="n">
-        <v>1853.185855629757</v>
       </c>
       <c r="P3" t="n">
         <v>1853.185855629757</v>
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1127.679347573484</v>
+        <v>681.2762346339721</v>
       </c>
       <c r="C4" t="n">
-        <v>955.7067844524004</v>
+        <v>509.3036715128881</v>
       </c>
       <c r="D4" t="n">
-        <v>792.3900115791711</v>
+        <v>509.3036715128881</v>
       </c>
       <c r="E4" t="n">
-        <v>626.1818057320246</v>
+        <v>509.3036715128881</v>
       </c>
       <c r="F4" t="n">
-        <v>454.3200315065851</v>
+        <v>337.4418972874485</v>
       </c>
       <c r="G4" t="n">
-        <v>288.0630618008172</v>
+        <v>171.1849275816806</v>
       </c>
       <c r="H4" t="n">
         <v>144.2667933089716</v>
       </c>
       <c r="I4" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J4" t="n">
-        <v>101.9895532734055</v>
+        <v>101.9895532734058</v>
       </c>
       <c r="K4" t="n">
-        <v>328.5171544792427</v>
+        <v>328.5171544792431</v>
       </c>
       <c r="L4" t="n">
-        <v>683.2064757736637</v>
+        <v>683.2064757736639</v>
       </c>
       <c r="M4" t="n">
-        <v>1074.392270743914</v>
+        <v>1074.392270743915</v>
       </c>
       <c r="N4" t="n">
         <v>1451.88378161995</v>
       </c>
       <c r="O4" t="n">
-        <v>1807.311910299713</v>
+        <v>1807.311910299714</v>
       </c>
       <c r="P4" t="n">
-        <v>2097.911122221614</v>
+        <v>2097.911122221615</v>
       </c>
       <c r="Q4" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R4" t="n">
-        <v>2224.911252462376</v>
+        <v>2177.87263914955</v>
       </c>
       <c r="S4" t="n">
-        <v>2224.911252462376</v>
+        <v>2177.87263914955</v>
       </c>
       <c r="T4" t="n">
-        <v>2224.911252462376</v>
+        <v>1934.53329137545</v>
       </c>
       <c r="U4" t="n">
-        <v>2224.911252462376</v>
+        <v>1654.348842875754</v>
       </c>
       <c r="V4" t="n">
-        <v>2061.60438497749</v>
+        <v>1372.637375483783</v>
       </c>
       <c r="W4" t="n">
-        <v>1786.751981150003</v>
+        <v>1097.784971656296</v>
       </c>
       <c r="X4" t="n">
-        <v>1544.188084595808</v>
+        <v>1097.784971656296</v>
       </c>
       <c r="Y4" t="n">
-        <v>1317.84531628555</v>
+        <v>871.4422033460378</v>
       </c>
     </row>
     <row r="5">
@@ -4543,46 +4543,46 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1745.792697513689</v>
+        <v>1780.689568770218</v>
       </c>
       <c r="C5" t="n">
-        <v>1318.891967526989</v>
+        <v>1353.788838783518</v>
       </c>
       <c r="D5" t="n">
-        <v>895.5993467119897</v>
+        <v>930.4962179685185</v>
       </c>
       <c r="E5" t="n">
-        <v>469.6224068598473</v>
+        <v>504.5192781163761</v>
       </c>
       <c r="F5" t="n">
-        <v>44.49822504924753</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="G5" t="n">
-        <v>44.49822504924753</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="H5" t="n">
-        <v>44.49822504924753</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="I5" t="n">
         <v>44.49822504924753</v>
       </c>
       <c r="J5" t="n">
-        <v>44.49822504924753</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K5" t="n">
-        <v>572.914647509062</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="L5" t="n">
-        <v>572.914647509062</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="M5" t="n">
-        <v>1123.5801824935</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="N5" t="n">
-        <v>1674.245717477938</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="O5" t="n">
-        <v>2224.911252462377</v>
+        <v>2059.098288819458</v>
       </c>
       <c r="P5" t="n">
         <v>2224.911252462377</v>
@@ -4594,25 +4594,25 @@
         <v>2224.911252462377</v>
       </c>
       <c r="S5" t="n">
-        <v>2224.911252462377</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="T5" t="n">
-        <v>2224.911252462377</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="U5" t="n">
-        <v>2224.911252462377</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="V5" t="n">
-        <v>2224.911252462377</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="W5" t="n">
-        <v>2224.911252462377</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="X5" t="n">
-        <v>2224.911252462377</v>
+        <v>1780.689568770218</v>
       </c>
       <c r="Y5" t="n">
-        <v>2165.64106180522</v>
+        <v>1780.689568770218</v>
       </c>
     </row>
     <row r="6">
@@ -4652,22 +4652,22 @@
         <v>316.1957143288386</v>
       </c>
       <c r="L6" t="n">
-        <v>751.8547856608809</v>
+        <v>316.1957143288386</v>
       </c>
       <c r="M6" t="n">
-        <v>1302.520320645319</v>
+        <v>866.8612493132769</v>
       </c>
       <c r="N6" t="n">
-        <v>1302.520320645319</v>
+        <v>866.8612493132769</v>
       </c>
       <c r="O6" t="n">
-        <v>1853.185855629757</v>
+        <v>866.8612493132769</v>
       </c>
       <c r="P6" t="n">
-        <v>1853.185855629757</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="Q6" t="n">
-        <v>1853.185855629757</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="R6" t="n">
         <v>1853.185855629757</v>
@@ -4701,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>268.5772905989112</v>
+        <v>388.3325623957711</v>
       </c>
       <c r="C7" t="n">
-        <v>96.60472747782725</v>
+        <v>216.3599992746871</v>
       </c>
       <c r="D7" t="n">
-        <v>96.60472747782725</v>
+        <v>216.3599992746871</v>
       </c>
       <c r="E7" t="n">
-        <v>96.60472747782725</v>
+        <v>216.3599992746871</v>
       </c>
       <c r="F7" t="n">
-        <v>96.60472747782725</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="G7" t="n">
-        <v>96.60472747782725</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H7" t="n">
-        <v>96.60472747782725</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I7" t="n">
         <v>44.49822504924753</v>
@@ -4749,28 +4749,28 @@
         <v>2224.911252462376</v>
       </c>
       <c r="R7" t="n">
-        <v>2177.872639149549</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S7" t="n">
-        <v>2007.737591668684</v>
+        <v>2127.492863465543</v>
       </c>
       <c r="T7" t="n">
-        <v>1764.398243894584</v>
+        <v>1884.153515691443</v>
       </c>
       <c r="U7" t="n">
-        <v>1484.213795394888</v>
+        <v>1603.969067191748</v>
       </c>
       <c r="V7" t="n">
-        <v>1202.502328002917</v>
+        <v>1322.257599799776</v>
       </c>
       <c r="W7" t="n">
-        <v>927.6499241754298</v>
+        <v>1047.405195972289</v>
       </c>
       <c r="X7" t="n">
-        <v>685.0860276212348</v>
+        <v>804.8412994180946</v>
       </c>
       <c r="Y7" t="n">
-        <v>458.7432593109769</v>
+        <v>578.4985311078367</v>
       </c>
     </row>
     <row r="8">
@@ -4780,16 +4780,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2525.607981663617</v>
+        <v>1786.02567807839</v>
       </c>
       <c r="C8" t="n">
-        <v>2098.707251676917</v>
+        <v>1359.124948091691</v>
       </c>
       <c r="D8" t="n">
-        <v>1675.414630861917</v>
+        <v>935.8323272766909</v>
       </c>
       <c r="E8" t="n">
-        <v>1249.437691009775</v>
+        <v>824.3135091991753</v>
       </c>
       <c r="F8" t="n">
         <v>824.3135091991753</v>
@@ -4801,7 +4801,7 @@
         <v>122.1060682626588</v>
       </c>
       <c r="I8" t="n">
-        <v>87.20919700613001</v>
+        <v>87.20919700613</v>
       </c>
       <c r="J8" t="n">
         <v>449.8126558230255</v>
@@ -4810,46 +4810,46 @@
         <v>449.8126558230255</v>
       </c>
       <c r="L8" t="n">
-        <v>449.8126558230255</v>
+        <v>1379.437703442302</v>
       </c>
       <c r="M8" t="n">
-        <v>1454.098757242084</v>
+        <v>1379.437703442302</v>
       </c>
       <c r="N8" t="n">
-        <v>2430.349815728785</v>
+        <v>2233.394106611674</v>
       </c>
       <c r="O8" t="n">
-        <v>3196.09509164439</v>
+        <v>3078.538756762487</v>
       </c>
       <c r="P8" t="n">
-        <v>3904.374370802318</v>
+        <v>3786.818035920414</v>
       </c>
       <c r="Q8" t="n">
-        <v>4360.459850306501</v>
+        <v>4242.903515424598</v>
       </c>
       <c r="R8" t="n">
-        <v>4360.459850306501</v>
+        <v>4360.4598503065</v>
       </c>
       <c r="S8" t="n">
-        <v>4256.092556179641</v>
+        <v>4256.09255617964</v>
       </c>
       <c r="T8" t="n">
         <v>4035.166985224274</v>
       </c>
       <c r="U8" t="n">
-        <v>3776.812075820687</v>
+        <v>3776.812075820686</v>
       </c>
       <c r="V8" t="n">
-        <v>3419.322660946937</v>
+        <v>3419.322660946936</v>
       </c>
       <c r="W8" t="n">
-        <v>3419.322660946937</v>
+        <v>3022.931311247283</v>
       </c>
       <c r="X8" t="n">
-        <v>3007.602662114684</v>
+        <v>2611.21131241503</v>
       </c>
       <c r="Y8" t="n">
-        <v>2945.456345955147</v>
+        <v>2205.874042369921</v>
       </c>
     </row>
     <row r="9">
@@ -4859,16 +4859,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>654.3326880375853</v>
+        <v>654.3326880375852</v>
       </c>
       <c r="C9" t="n">
-        <v>536.8267845550901</v>
+        <v>536.8267845550899</v>
       </c>
       <c r="D9" t="n">
-        <v>432.9868260703751</v>
+        <v>432.986826070375</v>
       </c>
       <c r="E9" t="n">
-        <v>328.2848923433123</v>
+        <v>328.2848923433122</v>
       </c>
       <c r="F9" t="n">
         <v>234.6390620262164</v>
@@ -4877,25 +4877,25 @@
         <v>140.5852902438204</v>
       </c>
       <c r="H9" t="n">
-        <v>87.20919700613001</v>
+        <v>87.20919700613</v>
       </c>
       <c r="I9" t="n">
-        <v>87.20919700613001</v>
+        <v>87.20919700613</v>
       </c>
       <c r="J9" t="n">
-        <v>87.20919700613001</v>
+        <v>87.20919700613</v>
       </c>
       <c r="K9" t="n">
-        <v>87.20919700613001</v>
+        <v>87.20919700613</v>
       </c>
       <c r="L9" t="n">
-        <v>87.20919700613001</v>
+        <v>87.20919700613</v>
       </c>
       <c r="M9" t="n">
-        <v>1143.195734982175</v>
+        <v>87.20919700613</v>
       </c>
       <c r="N9" t="n">
-        <v>1895.89682758664</v>
+        <v>1166.423009956989</v>
       </c>
       <c r="O9" t="n">
         <v>1895.89682758664</v>
@@ -4925,10 +4925,10 @@
         <v>1086.429932337693</v>
       </c>
       <c r="X9" t="n">
-        <v>922.9525861043556</v>
+        <v>922.9525861043555</v>
       </c>
       <c r="Y9" t="n">
-        <v>783.259697457648</v>
+        <v>783.2596974576479</v>
       </c>
     </row>
     <row r="10">
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1170.390319530367</v>
+        <v>528.4619233494857</v>
       </c>
       <c r="C10" t="n">
-        <v>998.4177564092828</v>
+        <v>356.4893602284017</v>
       </c>
       <c r="D10" t="n">
-        <v>835.1009835360535</v>
+        <v>356.4893602284017</v>
       </c>
       <c r="E10" t="n">
-        <v>668.892777688907</v>
+        <v>259.0709712315696</v>
       </c>
       <c r="F10" t="n">
-        <v>497.0310034634675</v>
+        <v>87.20919700613</v>
       </c>
       <c r="G10" t="n">
-        <v>330.7740337576996</v>
+        <v>87.20919700613</v>
       </c>
       <c r="H10" t="n">
-        <v>186.977765265854</v>
+        <v>87.20919700613</v>
       </c>
       <c r="I10" t="n">
-        <v>87.20919700613001</v>
+        <v>87.20919700613</v>
       </c>
       <c r="J10" t="n">
         <v>144.700525230288</v>
@@ -4992,22 +4992,22 @@
         <v>2267.622224419258</v>
       </c>
       <c r="T10" t="n">
-        <v>2267.622224419258</v>
+        <v>2024.282876645158</v>
       </c>
       <c r="U10" t="n">
-        <v>2267.622224419258</v>
+        <v>1744.098428145462</v>
       </c>
       <c r="V10" t="n">
-        <v>2104.315356934372</v>
+        <v>1462.386960753491</v>
       </c>
       <c r="W10" t="n">
-        <v>1829.462953106885</v>
+        <v>1187.534556926004</v>
       </c>
       <c r="X10" t="n">
-        <v>1586.89905655269</v>
+        <v>944.9706603718092</v>
       </c>
       <c r="Y10" t="n">
-        <v>1360.556288242432</v>
+        <v>718.6278920615513</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2227.739603137652</v>
+        <v>2265.306158437344</v>
       </c>
       <c r="C11" t="n">
-        <v>1800.838873150952</v>
+        <v>1838.405428450645</v>
       </c>
       <c r="D11" t="n">
-        <v>1377.546252335952</v>
+        <v>1415.112807635645</v>
       </c>
       <c r="E11" t="n">
-        <v>951.56931248381</v>
+        <v>989.1358677835025</v>
       </c>
       <c r="F11" t="n">
-        <v>526.4451306732102</v>
+        <v>564.0116859729027</v>
       </c>
       <c r="G11" t="n">
-        <v>122.1060682626588</v>
+        <v>159.6726235623513</v>
       </c>
       <c r="H11" t="n">
         <v>122.1060682626588</v>
       </c>
       <c r="I11" t="n">
-        <v>87.20919700613001</v>
+        <v>87.20919700613</v>
       </c>
       <c r="J11" t="n">
-        <v>449.8126558230255</v>
+        <v>87.20919700613</v>
       </c>
       <c r="K11" t="n">
-        <v>1165.320963798525</v>
+        <v>87.20919700613</v>
       </c>
       <c r="L11" t="n">
-        <v>1165.320963798525</v>
+        <v>1016.834244625407</v>
       </c>
       <c r="M11" t="n">
-        <v>1257.143048124974</v>
+        <v>2021.120346044465</v>
       </c>
       <c r="N11" t="n">
-        <v>2233.394106611675</v>
+        <v>2997.371404531166</v>
       </c>
       <c r="O11" t="n">
-        <v>3078.538756762488</v>
+        <v>3842.516054681978</v>
       </c>
       <c r="P11" t="n">
-        <v>3786.818035920415</v>
+        <v>4242.903515424598</v>
       </c>
       <c r="Q11" t="n">
         <v>4242.903515424598</v>
       </c>
       <c r="R11" t="n">
-        <v>4360.459850306501</v>
+        <v>4360.4598503065</v>
       </c>
       <c r="S11" t="n">
-        <v>4256.092556179641</v>
+        <v>4256.09255617964</v>
       </c>
       <c r="T11" t="n">
-        <v>4035.166985224274</v>
+        <v>4256.09255617964</v>
       </c>
       <c r="U11" t="n">
-        <v>4035.166985224274</v>
+        <v>4256.09255617964</v>
       </c>
       <c r="V11" t="n">
-        <v>3861.036586006197</v>
+        <v>3898.60314130589</v>
       </c>
       <c r="W11" t="n">
-        <v>3464.645236306544</v>
+        <v>3502.211791606237</v>
       </c>
       <c r="X11" t="n">
-        <v>3052.925237474291</v>
+        <v>3090.491792773984</v>
       </c>
       <c r="Y11" t="n">
-        <v>2647.587967429182</v>
+        <v>2685.154522728875</v>
       </c>
     </row>
     <row r="12">
@@ -5096,16 +5096,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>654.3326880375853</v>
+        <v>654.3326880375852</v>
       </c>
       <c r="C12" t="n">
-        <v>536.8267845550901</v>
+        <v>536.8267845550899</v>
       </c>
       <c r="D12" t="n">
-        <v>432.9868260703751</v>
+        <v>432.986826070375</v>
       </c>
       <c r="E12" t="n">
-        <v>328.2848923433123</v>
+        <v>328.2848923433122</v>
       </c>
       <c r="F12" t="n">
         <v>234.6390620262164</v>
@@ -5114,22 +5114,22 @@
         <v>140.5852902438204</v>
       </c>
       <c r="H12" t="n">
-        <v>87.20919700613001</v>
+        <v>87.20919700613</v>
       </c>
       <c r="I12" t="n">
-        <v>87.20919700613001</v>
+        <v>94.65583996804183</v>
       </c>
       <c r="J12" t="n">
-        <v>358.9066862857211</v>
+        <v>94.65583996804183</v>
       </c>
       <c r="K12" t="n">
-        <v>358.9066862857211</v>
+        <v>685.1407665363814</v>
       </c>
       <c r="L12" t="n">
-        <v>839.9102896105946</v>
+        <v>685.1407665363814</v>
       </c>
       <c r="M12" t="n">
-        <v>1895.89682758664</v>
+        <v>1741.127304512427</v>
       </c>
       <c r="N12" t="n">
         <v>1895.89682758664</v>
@@ -5162,10 +5162,10 @@
         <v>1086.429932337693</v>
       </c>
       <c r="X12" t="n">
-        <v>922.9525861043556</v>
+        <v>922.9525861043555</v>
       </c>
       <c r="Y12" t="n">
-        <v>783.259697457648</v>
+        <v>783.2596974576479</v>
       </c>
     </row>
     <row r="13">
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1170.390319530367</v>
+        <v>431.0435343526535</v>
       </c>
       <c r="C13" t="n">
-        <v>998.4177564092828</v>
+        <v>259.0709712315696</v>
       </c>
       <c r="D13" t="n">
-        <v>835.1009835360535</v>
+        <v>259.0709712315696</v>
       </c>
       <c r="E13" t="n">
-        <v>668.892777688907</v>
+        <v>259.0709712315696</v>
       </c>
       <c r="F13" t="n">
-        <v>497.0310034634675</v>
+        <v>87.20919700613</v>
       </c>
       <c r="G13" t="n">
-        <v>330.7740337576996</v>
+        <v>87.20919700613</v>
       </c>
       <c r="H13" t="n">
-        <v>186.977765265854</v>
+        <v>87.20919700613</v>
       </c>
       <c r="I13" t="n">
-        <v>87.20919700613001</v>
+        <v>87.20919700613</v>
       </c>
       <c r="J13" t="n">
         <v>144.700525230288</v>
@@ -5226,25 +5226,25 @@
         <v>2267.622224419258</v>
       </c>
       <c r="S13" t="n">
-        <v>2267.622224419258</v>
+        <v>2170.203835422426</v>
       </c>
       <c r="T13" t="n">
-        <v>2267.622224419258</v>
+        <v>1926.864487648326</v>
       </c>
       <c r="U13" t="n">
-        <v>2267.622224419258</v>
+        <v>1646.68003914863</v>
       </c>
       <c r="V13" t="n">
-        <v>2104.315356934372</v>
+        <v>1364.968571756659</v>
       </c>
       <c r="W13" t="n">
-        <v>1829.462953106885</v>
+        <v>1090.116167929172</v>
       </c>
       <c r="X13" t="n">
-        <v>1586.89905655269</v>
+        <v>847.5522713749772</v>
       </c>
       <c r="Y13" t="n">
-        <v>1360.556288242432</v>
+        <v>621.2095030647192</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1890.39297220525</v>
+        <v>1786.02567807839</v>
       </c>
       <c r="C14" t="n">
-        <v>1463.49224221855</v>
+        <v>1359.124948091691</v>
       </c>
       <c r="D14" t="n">
-        <v>1040.199621403551</v>
+        <v>935.8323272766909</v>
       </c>
       <c r="E14" t="n">
-        <v>1040.199621403551</v>
+        <v>824.3135091991753</v>
       </c>
       <c r="F14" t="n">
-        <v>615.0754395929507</v>
+        <v>824.3135091991753</v>
       </c>
       <c r="G14" t="n">
-        <v>210.7363771823993</v>
+        <v>419.9744467886239</v>
       </c>
       <c r="H14" t="n">
-        <v>87.20919700613001</v>
+        <v>122.1060682626588</v>
       </c>
       <c r="I14" t="n">
-        <v>87.20919700613001</v>
+        <v>87.20919700613</v>
       </c>
       <c r="J14" t="n">
-        <v>87.20919700613001</v>
+        <v>449.8126558230255</v>
       </c>
       <c r="K14" t="n">
-        <v>802.7175049816291</v>
+        <v>1165.320963798525</v>
       </c>
       <c r="L14" t="n">
-        <v>1732.342552600906</v>
+        <v>2094.946011417801</v>
       </c>
       <c r="M14" t="n">
-        <v>2736.628654019964</v>
+        <v>2233.394106611674</v>
       </c>
       <c r="N14" t="n">
-        <v>3712.879712506665</v>
+        <v>2233.394106611674</v>
       </c>
       <c r="O14" t="n">
-        <v>4360.459850306501</v>
+        <v>3078.538756762487</v>
       </c>
       <c r="P14" t="n">
-        <v>4360.459850306501</v>
+        <v>3786.818035920414</v>
       </c>
       <c r="Q14" t="n">
-        <v>4360.459850306501</v>
+        <v>4242.903515424598</v>
       </c>
       <c r="R14" t="n">
-        <v>4360.459850306501</v>
+        <v>4360.4598503065</v>
       </c>
       <c r="S14" t="n">
-        <v>4360.459850306501</v>
+        <v>4256.09255617964</v>
       </c>
       <c r="T14" t="n">
-        <v>4139.534279351134</v>
+        <v>4035.166985224274</v>
       </c>
       <c r="U14" t="n">
-        <v>3881.179369947546</v>
+        <v>3776.812075820686</v>
       </c>
       <c r="V14" t="n">
-        <v>3523.689955073795</v>
+        <v>3419.322660946936</v>
       </c>
       <c r="W14" t="n">
-        <v>3127.298605374142</v>
+        <v>3022.931311247283</v>
       </c>
       <c r="X14" t="n">
-        <v>2715.57860654189</v>
+        <v>2611.21131241503</v>
       </c>
       <c r="Y14" t="n">
-        <v>2310.24133649678</v>
+        <v>2205.874042369921</v>
       </c>
     </row>
     <row r="15">
@@ -5333,16 +5333,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>654.3326880375853</v>
+        <v>654.3326880375852</v>
       </c>
       <c r="C15" t="n">
-        <v>536.8267845550901</v>
+        <v>536.8267845550899</v>
       </c>
       <c r="D15" t="n">
-        <v>432.9868260703751</v>
+        <v>432.986826070375</v>
       </c>
       <c r="E15" t="n">
-        <v>328.2848923433123</v>
+        <v>328.2848923433122</v>
       </c>
       <c r="F15" t="n">
         <v>234.6390620262164</v>
@@ -5351,31 +5351,31 @@
         <v>140.5852902438204</v>
       </c>
       <c r="H15" t="n">
-        <v>87.20919700613001</v>
+        <v>87.20919700613</v>
       </c>
       <c r="I15" t="n">
-        <v>87.20919700613001</v>
+        <v>94.65583996804183</v>
       </c>
       <c r="J15" t="n">
-        <v>87.20919700613001</v>
+        <v>366.3533292476329</v>
       </c>
       <c r="K15" t="n">
-        <v>87.20919700613001</v>
+        <v>956.8382558159725</v>
       </c>
       <c r="L15" t="n">
-        <v>87.20919700613001</v>
+        <v>956.8382558159725</v>
       </c>
       <c r="M15" t="n">
-        <v>816.6830146357809</v>
+        <v>956.8382558159725</v>
       </c>
       <c r="N15" t="n">
-        <v>1895.89682758664</v>
+        <v>956.8382558159725</v>
       </c>
       <c r="O15" t="n">
-        <v>1895.89682758664</v>
+        <v>956.8382558159725</v>
       </c>
       <c r="P15" t="n">
-        <v>1895.89682758664</v>
+        <v>1431.75135072386</v>
       </c>
       <c r="Q15" t="n">
         <v>1895.89682758664</v>
@@ -5399,10 +5399,10 @@
         <v>1086.429932337693</v>
       </c>
       <c r="X15" t="n">
-        <v>922.9525861043556</v>
+        <v>922.9525861043555</v>
       </c>
       <c r="Y15" t="n">
-        <v>783.259697457648</v>
+        <v>783.2596974576479</v>
       </c>
     </row>
     <row r="16">
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>311.2882625557938</v>
+        <v>431.0435343526535</v>
       </c>
       <c r="C16" t="n">
-        <v>186.977765265854</v>
+        <v>259.0709712315696</v>
       </c>
       <c r="D16" t="n">
-        <v>186.977765265854</v>
+        <v>259.0709712315696</v>
       </c>
       <c r="E16" t="n">
-        <v>186.977765265854</v>
+        <v>259.0709712315696</v>
       </c>
       <c r="F16" t="n">
-        <v>186.977765265854</v>
+        <v>87.20919700613</v>
       </c>
       <c r="G16" t="n">
-        <v>186.977765265854</v>
+        <v>87.20919700613</v>
       </c>
       <c r="H16" t="n">
-        <v>186.977765265854</v>
+        <v>87.20919700613</v>
       </c>
       <c r="I16" t="n">
-        <v>87.20919700613001</v>
+        <v>87.20919700613</v>
       </c>
       <c r="J16" t="n">
         <v>144.700525230288</v>
@@ -5460,28 +5460,28 @@
         <v>2267.622224419258</v>
       </c>
       <c r="R16" t="n">
-        <v>2220.583611106431</v>
+        <v>2267.622224419258</v>
       </c>
       <c r="S16" t="n">
-        <v>2050.448563625566</v>
+        <v>2170.203835422426</v>
       </c>
       <c r="T16" t="n">
-        <v>1807.109215851466</v>
+        <v>1926.864487648326</v>
       </c>
       <c r="U16" t="n">
-        <v>1526.92476735177</v>
+        <v>1646.68003914863</v>
       </c>
       <c r="V16" t="n">
-        <v>1245.213299959799</v>
+        <v>1364.968571756659</v>
       </c>
       <c r="W16" t="n">
-        <v>970.3608961323123</v>
+        <v>1090.116167929172</v>
       </c>
       <c r="X16" t="n">
-        <v>727.7969995781174</v>
+        <v>847.5522713749772</v>
       </c>
       <c r="Y16" t="n">
-        <v>501.4542312678594</v>
+        <v>621.2095030647192</v>
       </c>
     </row>
     <row r="17">
@@ -5491,10 +5491,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C17" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D17" t="n">
         <v>1690.508147261616</v>
@@ -5503,49 +5503,49 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F17" t="n">
-        <v>839.4070255988739</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G17" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H17" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I17" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J17" t="n">
-        <v>464.906172222724</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K17" t="n">
         <v>1180.414480198223</v>
       </c>
       <c r="L17" t="n">
-        <v>2110.0395278175</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="M17" t="n">
-        <v>3114.325629236558</v>
+        <v>2184.700581617281</v>
       </c>
       <c r="N17" t="n">
-        <v>4090.576687723259</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O17" t="n">
-        <v>4935.721337874071</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P17" t="n">
-        <v>5115.135670291426</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q17" t="n">
-        <v>5115.135670291426</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R17" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S17" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T17" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U17" t="n">
         <v>4531.487895805612</v>
@@ -5591,28 +5591,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I18" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J18" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K18" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L18" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M18" t="n">
-        <v>1158.289251381874</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N18" t="n">
-        <v>1910.990343986338</v>
+        <v>971.931772215671</v>
       </c>
       <c r="O18" t="n">
-        <v>1910.990343986338</v>
+        <v>971.931772215671</v>
       </c>
       <c r="P18" t="n">
-        <v>1910.990343986338</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q18" t="n">
         <v>1910.990343986338</v>
@@ -5649,16 +5649,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>437.5920494001418</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C19" t="n">
-        <v>265.6194862790578</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D19" t="n">
-        <v>102.3027134058285</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E19" t="n">
-        <v>102.3027134058285</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F19" t="n">
         <v>102.3027134058285</v>
@@ -5673,10 +5673,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J19" t="n">
-        <v>159.7940416299865</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K19" t="n">
-        <v>386.3216428358237</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L19" t="n">
         <v>741.0109641302445</v>
@@ -5697,28 +5697,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R19" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S19" t="n">
-        <v>2065.542080025265</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T19" t="n">
-        <v>1822.202732251165</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U19" t="n">
-        <v>1542.018283751469</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V19" t="n">
-        <v>1260.306816359498</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W19" t="n">
-        <v>985.454412532011</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X19" t="n">
-        <v>742.8905159778161</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y19" t="n">
-        <v>627.7580181122075</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063317</v>
       </c>
       <c r="C20" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076617</v>
       </c>
       <c r="D20" t="n">
-        <v>1690.508147261616</v>
+        <v>1690.508147261617</v>
       </c>
       <c r="E20" t="n">
-        <v>1264.531207409474</v>
+        <v>1264.531207409475</v>
       </c>
       <c r="F20" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988747</v>
       </c>
       <c r="G20" t="n">
-        <v>435.0679631883224</v>
+        <v>435.0679631883233</v>
       </c>
       <c r="H20" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623582</v>
       </c>
       <c r="I20" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J20" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K20" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L20" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M20" t="n">
-        <v>2751.722170419663</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="N20" t="n">
-        <v>3727.973228906364</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O20" t="n">
-        <v>4573.117879057176</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P20" t="n">
-        <v>4573.117879057176</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q20" t="n">
-        <v>5029.203358561359</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R20" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S20" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T20" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U20" t="n">
         <v>4531.487895805612</v>
       </c>
       <c r="V20" t="n">
-        <v>4173.998480931861</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W20" t="n">
-        <v>3777.607131232208</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X20" t="n">
         <v>3365.887132399956</v>
       </c>
       <c r="Y20" t="n">
-        <v>2960.549862354846</v>
+        <v>2960.549862354847</v>
       </c>
     </row>
     <row r="21">
@@ -5828,28 +5828,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I21" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J21" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K21" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L21" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M21" t="n">
-        <v>821.6753975134684</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N21" t="n">
-        <v>1910.990343986338</v>
+        <v>971.931772215671</v>
       </c>
       <c r="O21" t="n">
-        <v>1910.990343986338</v>
+        <v>971.931772215671</v>
       </c>
       <c r="P21" t="n">
-        <v>1910.990343986338</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q21" t="n">
         <v>1910.990343986338</v>
@@ -5886,16 +5886,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>437.5920494001418</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C22" t="n">
-        <v>265.6194862790578</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D22" t="n">
-        <v>102.3027134058285</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E22" t="n">
-        <v>102.3027134058285</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F22" t="n">
         <v>102.3027134058285</v>
@@ -5910,10 +5910,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J22" t="n">
-        <v>159.7940416299865</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K22" t="n">
-        <v>386.3216428358237</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L22" t="n">
         <v>741.0109641302445</v>
@@ -5934,28 +5934,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R22" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S22" t="n">
-        <v>2065.542080025265</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T22" t="n">
-        <v>1822.202732251165</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U22" t="n">
-        <v>1542.018283751469</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V22" t="n">
-        <v>1260.306816359498</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W22" t="n">
-        <v>985.454412532011</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X22" t="n">
-        <v>854.1007864224655</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y22" t="n">
-        <v>627.7580181122075</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="23">
@@ -5965,10 +5965,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C23" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D23" t="n">
         <v>1690.508147261616</v>
@@ -5977,49 +5977,49 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F23" t="n">
-        <v>839.4070255988739</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G23" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H23" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I23" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J23" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K23" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L23" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M23" t="n">
-        <v>2751.722170419663</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N23" t="n">
-        <v>3727.973228906364</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O23" t="n">
-        <v>4573.117879057176</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P23" t="n">
-        <v>5115.135670291426</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q23" t="n">
-        <v>5115.135670291426</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R23" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S23" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T23" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U23" t="n">
         <v>4531.487895805612</v>
@@ -6065,22 +6065,22 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I24" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J24" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="K24" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="L24" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="M24" t="n">
-        <v>821.6753975134684</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="N24" t="n">
-        <v>1910.990343986338</v>
+        <v>1021.509065974867</v>
       </c>
       <c r="O24" t="n">
         <v>1910.990343986338</v>
@@ -6123,16 +6123,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>326.3817789554925</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C25" t="n">
-        <v>154.4092158344085</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D25" t="n">
-        <v>102.3027134058285</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E25" t="n">
-        <v>102.3027134058285</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F25" t="n">
         <v>102.3027134058285</v>
@@ -6147,10 +6147,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J25" t="n">
-        <v>159.7940416299865</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K25" t="n">
-        <v>386.3216428358237</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L25" t="n">
         <v>741.0109641302445</v>
@@ -6171,28 +6171,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R25" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S25" t="n">
-        <v>2065.542080025265</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T25" t="n">
-        <v>1822.202732251165</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U25" t="n">
-        <v>1542.018283751469</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V25" t="n">
-        <v>1260.306816359498</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W25" t="n">
-        <v>985.454412532011</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X25" t="n">
-        <v>742.8905159778161</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y25" t="n">
-        <v>516.5477476675582</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="26">
@@ -6202,10 +6202,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C26" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D26" t="n">
         <v>1690.508147261616</v>
@@ -6214,49 +6214,49 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F26" t="n">
-        <v>839.4070255988739</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G26" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H26" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I26" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J26" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K26" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L26" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M26" t="n">
-        <v>2751.722170419663</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N26" t="n">
-        <v>3727.973228906364</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O26" t="n">
-        <v>4573.117879057176</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P26" t="n">
-        <v>5115.135670291426</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q26" t="n">
-        <v>5115.135670291426</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R26" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S26" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T26" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U26" t="n">
         <v>4531.487895805612</v>
@@ -6302,28 +6302,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I27" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J27" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K27" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L27" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M27" t="n">
-        <v>1158.289251381874</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N27" t="n">
-        <v>1910.990343986338</v>
+        <v>971.931772215671</v>
       </c>
       <c r="O27" t="n">
-        <v>1910.990343986338</v>
+        <v>971.931772215671</v>
       </c>
       <c r="P27" t="n">
-        <v>1910.990343986338</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q27" t="n">
         <v>1910.990343986338</v>
@@ -6360,34 +6360,34 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1185.483835930065</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C28" t="n">
-        <v>1013.511272808981</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D28" t="n">
-        <v>850.1944999357521</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E28" t="n">
-        <v>683.9862940886056</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F28" t="n">
-        <v>512.124519863166</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G28" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H28" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I28" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J28" t="n">
-        <v>159.7940416299865</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K28" t="n">
-        <v>386.3216428358237</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L28" t="n">
         <v>741.0109641302445</v>
@@ -6411,25 +6411,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S28" t="n">
-        <v>2282.715740818957</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T28" t="n">
-        <v>2282.715740818957</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U28" t="n">
-        <v>2282.715740818957</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V28" t="n">
-        <v>2119.408873334071</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W28" t="n">
-        <v>1844.556469506584</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X28" t="n">
-        <v>1601.992572952389</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y28" t="n">
-        <v>1375.649804642131</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="29">
@@ -6439,10 +6439,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C29" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D29" t="n">
         <v>1690.508147261616</v>
@@ -6451,55 +6451,55 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F29" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G29" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H29" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I29" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J29" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K29" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L29" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M29" t="n">
-        <v>2751.722170419663</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N29" t="n">
-        <v>3727.973228906364</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O29" t="n">
-        <v>4573.117879057176</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P29" t="n">
-        <v>5115.135670291425</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q29" t="n">
-        <v>5115.135670291425</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R29" t="n">
-        <v>5115.135670291425</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S29" t="n">
-        <v>5010.768376164566</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T29" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U29" t="n">
         <v>4531.487895805612</v>
       </c>
       <c r="V29" t="n">
-        <v>4173.99848093186</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W29" t="n">
         <v>3777.607131232208</v>
@@ -6539,28 +6539,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I30" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J30" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K30" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L30" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M30" t="n">
-        <v>1158.289251381874</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N30" t="n">
-        <v>1910.990343986338</v>
+        <v>971.931772215671</v>
       </c>
       <c r="O30" t="n">
-        <v>1910.990343986338</v>
+        <v>971.931772215671</v>
       </c>
       <c r="P30" t="n">
-        <v>1910.990343986338</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q30" t="n">
         <v>1910.990343986338</v>
@@ -6597,34 +6597,34 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1185.483835930065</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C31" t="n">
-        <v>1013.511272808981</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D31" t="n">
-        <v>850.1944999357521</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E31" t="n">
-        <v>683.9862940886056</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F31" t="n">
-        <v>512.124519863166</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G31" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H31" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I31" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J31" t="n">
-        <v>159.7940416299865</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K31" t="n">
-        <v>386.3216428358237</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L31" t="n">
         <v>741.0109641302445</v>
@@ -6648,25 +6648,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S31" t="n">
-        <v>2282.715740818957</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T31" t="n">
-        <v>2282.715740818957</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U31" t="n">
-        <v>2282.715740818957</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V31" t="n">
-        <v>2119.408873334071</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W31" t="n">
-        <v>1844.556469506584</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X31" t="n">
-        <v>1601.992572952389</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y31" t="n">
-        <v>1375.649804642131</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="32">
@@ -6676,10 +6676,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C32" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D32" t="n">
         <v>1690.508147261616</v>
@@ -6688,55 +6688,55 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F32" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G32" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H32" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I32" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J32" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K32" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L32" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M32" t="n">
-        <v>2751.722170419663</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N32" t="n">
-        <v>3727.973228906364</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O32" t="n">
-        <v>4573.117879057176</v>
+        <v>4406.8563911335</v>
       </c>
       <c r="P32" t="n">
-        <v>5115.135670291425</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q32" t="n">
-        <v>5115.135670291425</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R32" t="n">
-        <v>5115.135670291425</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S32" t="n">
-        <v>5010.768376164566</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T32" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U32" t="n">
         <v>4531.487895805612</v>
       </c>
       <c r="V32" t="n">
-        <v>4173.99848093186</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W32" t="n">
         <v>3777.607131232208</v>
@@ -6776,31 +6776,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I33" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J33" t="n">
-        <v>374.0002026854196</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K33" t="n">
-        <v>374.0002026854196</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L33" t="n">
-        <v>374.0002026854196</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M33" t="n">
-        <v>739.6560874287652</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N33" t="n">
-        <v>1828.971033901635</v>
+        <v>971.931772215671</v>
       </c>
       <c r="O33" t="n">
-        <v>1828.971033901635</v>
+        <v>971.931772215671</v>
       </c>
       <c r="P33" t="n">
-        <v>1828.971033901635</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q33" t="n">
-        <v>1828.971033901635</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R33" t="n">
         <v>1910.990343986338</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3710.79072403746</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C34" t="n">
-        <v>3538.818160916376</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D34" t="n">
-        <v>3538.818160916376</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E34" t="n">
-        <v>3372.609955069229</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F34" t="n">
-        <v>3200.74818084379</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G34" t="n">
-        <v>3034.491211138022</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H34" t="n">
-        <v>3034.491211138022</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I34" t="n">
-        <v>2934.722642878298</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J34" t="n">
-        <v>2992.213971102456</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K34" t="n">
-        <v>3218.741572308293</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L34" t="n">
-        <v>3573.430893602714</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M34" t="n">
-        <v>3964.616688572965</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N34" t="n">
-        <v>4342.108199449</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O34" t="n">
-        <v>4697.536328128764</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P34" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q34" t="n">
-        <v>5115.135670291426</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R34" t="n">
-        <v>5068.0970569786</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S34" t="n">
-        <v>4897.962009497734</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T34" t="n">
-        <v>4654.622661723634</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U34" t="n">
-        <v>4374.438213223939</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V34" t="n">
-        <v>4143.52058930372</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W34" t="n">
-        <v>4143.52058930372</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X34" t="n">
-        <v>3900.956692749525</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y34" t="n">
-        <v>3900.956692749525</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="35">
@@ -6913,10 +6913,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C35" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D35" t="n">
         <v>1690.508147261616</v>
@@ -6925,13 +6925,13 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F35" t="n">
-        <v>839.4070255988739</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G35" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H35" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I35" t="n">
         <v>102.3027134058285</v>
@@ -6955,19 +6955,19 @@
         <v>4573.117879057176</v>
       </c>
       <c r="P35" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q35" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R35" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S35" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T35" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U35" t="n">
         <v>4531.487895805612</v>
@@ -7007,34 +7007,34 @@
         <v>249.7325784259149</v>
       </c>
       <c r="G36" t="n">
-        <v>155.6788066435189</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H36" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="I36" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J36" t="n">
-        <v>374.0002026854196</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="K36" t="n">
-        <v>374.0002026854196</v>
+        <v>700.2342829360799</v>
       </c>
       <c r="L36" t="n">
-        <v>374.0002026854196</v>
+        <v>700.2342829360799</v>
       </c>
       <c r="M36" t="n">
-        <v>374.0002026854196</v>
+        <v>700.2342829360799</v>
       </c>
       <c r="N36" t="n">
-        <v>1463.315149158289</v>
+        <v>700.2342829360799</v>
       </c>
       <c r="O36" t="n">
-        <v>1463.315149158289</v>
+        <v>730.647150085061</v>
       </c>
       <c r="P36" t="n">
-        <v>1463.315149158289</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q36" t="n">
         <v>1910.990343986338</v>
@@ -7071,34 +7071,34 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1185.483835930065</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C37" t="n">
-        <v>1013.511272808981</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D37" t="n">
-        <v>850.194499935752</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E37" t="n">
-        <v>683.9862940886055</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F37" t="n">
-        <v>512.1245198631659</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G37" t="n">
-        <v>345.8675501573981</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H37" t="n">
-        <v>202.0712816655525</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I37" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J37" t="n">
-        <v>159.7940416299865</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K37" t="n">
-        <v>386.3216428358237</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L37" t="n">
         <v>741.0109641302445</v>
@@ -7122,25 +7122,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S37" t="n">
-        <v>2282.715740818957</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T37" t="n">
-        <v>2282.715740818957</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U37" t="n">
-        <v>2282.715740818957</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V37" t="n">
-        <v>2119.40887333407</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W37" t="n">
-        <v>1844.556469506584</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X37" t="n">
-        <v>1601.992572952389</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y37" t="n">
-        <v>1375.649804642131</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="38">
@@ -7150,10 +7150,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C38" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D38" t="n">
         <v>1690.508147261616</v>
@@ -7162,19 +7162,19 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F38" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G38" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H38" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I38" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J38" t="n">
-        <v>464.906172222724</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K38" t="n">
         <v>1180.414480198223</v>
@@ -7183,28 +7183,28 @@
         <v>2110.0395278175</v>
       </c>
       <c r="M38" t="n">
-        <v>3114.325629236558</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N38" t="n">
-        <v>4090.576687723259</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O38" t="n">
-        <v>4935.721337874071</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P38" t="n">
-        <v>5115.135670291426</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q38" t="n">
-        <v>5115.135670291426</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R38" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S38" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T38" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U38" t="n">
         <v>4531.487895805612</v>
@@ -7250,28 +7250,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I39" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J39" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K39" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L39" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M39" t="n">
-        <v>1021.509065974867</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N39" t="n">
-        <v>1021.509065974867</v>
+        <v>971.931772215671</v>
       </c>
       <c r="O39" t="n">
-        <v>1910.990343986338</v>
+        <v>971.931772215671</v>
       </c>
       <c r="P39" t="n">
-        <v>1910.990343986338</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q39" t="n">
         <v>1910.990343986338</v>
@@ -7308,34 +7308,34 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1185.483835930065</v>
+        <v>543.5554397491844</v>
       </c>
       <c r="C40" t="n">
-        <v>1013.511272808981</v>
+        <v>371.5828766281004</v>
       </c>
       <c r="D40" t="n">
-        <v>850.1944999357521</v>
+        <v>371.5828766281004</v>
       </c>
       <c r="E40" t="n">
-        <v>683.9862940886056</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F40" t="n">
-        <v>512.124519863166</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G40" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H40" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I40" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J40" t="n">
-        <v>159.7940416299865</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K40" t="n">
-        <v>386.3216428358237</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L40" t="n">
         <v>741.0109641302445</v>
@@ -7362,22 +7362,22 @@
         <v>2282.715740818957</v>
       </c>
       <c r="T40" t="n">
-        <v>2282.715740818957</v>
+        <v>2039.376393044857</v>
       </c>
       <c r="U40" t="n">
-        <v>2282.715740818957</v>
+        <v>1759.191944545161</v>
       </c>
       <c r="V40" t="n">
-        <v>2119.408873334071</v>
+        <v>1477.48047715319</v>
       </c>
       <c r="W40" t="n">
-        <v>1844.556469506584</v>
+        <v>1202.628073325703</v>
       </c>
       <c r="X40" t="n">
-        <v>1601.992572952389</v>
+        <v>960.064176771508</v>
       </c>
       <c r="Y40" t="n">
-        <v>1375.649804642131</v>
+        <v>733.72140846125</v>
       </c>
     </row>
     <row r="41">
@@ -7387,19 +7387,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2121.268919253066</v>
+        <v>2265.306158437344</v>
       </c>
       <c r="C41" t="n">
-        <v>1694.368189266366</v>
+        <v>1838.405428450645</v>
       </c>
       <c r="D41" t="n">
-        <v>1271.075568451366</v>
+        <v>1415.112807635645</v>
       </c>
       <c r="E41" t="n">
-        <v>845.0986285992237</v>
+        <v>989.1358677835025</v>
       </c>
       <c r="F41" t="n">
-        <v>419.9744467886239</v>
+        <v>564.0116859729027</v>
       </c>
       <c r="G41" t="n">
         <v>419.9744467886239</v>
@@ -7408,55 +7408,55 @@
         <v>122.1060682626588</v>
       </c>
       <c r="I41" t="n">
-        <v>87.20919700613001</v>
+        <v>87.20919700613</v>
       </c>
       <c r="J41" t="n">
-        <v>87.20919700613001</v>
+        <v>449.8126558230255</v>
       </c>
       <c r="K41" t="n">
-        <v>802.7175049816291</v>
+        <v>1165.320963798525</v>
       </c>
       <c r="L41" t="n">
-        <v>1732.342552600906</v>
+        <v>2094.946011417801</v>
       </c>
       <c r="M41" t="n">
-        <v>2736.628654019964</v>
+        <v>3099.232112836859</v>
       </c>
       <c r="N41" t="n">
-        <v>3712.879712506665</v>
+        <v>3099.232112836859</v>
       </c>
       <c r="O41" t="n">
-        <v>4360.459850306501</v>
+        <v>3099.232112836859</v>
       </c>
       <c r="P41" t="n">
-        <v>4360.459850306501</v>
+        <v>3807.511391994787</v>
       </c>
       <c r="Q41" t="n">
-        <v>4360.459850306501</v>
+        <v>4263.59687149897</v>
       </c>
       <c r="R41" t="n">
-        <v>4360.459850306501</v>
+        <v>4360.4598503065</v>
       </c>
       <c r="S41" t="n">
-        <v>4256.092556179641</v>
+        <v>4256.09255617964</v>
       </c>
       <c r="T41" t="n">
-        <v>4035.166985224274</v>
+        <v>4256.09255617964</v>
       </c>
       <c r="U41" t="n">
-        <v>3776.812075820687</v>
+        <v>4256.09255617964</v>
       </c>
       <c r="V41" t="n">
-        <v>3419.322660946937</v>
+        <v>3898.60314130589</v>
       </c>
       <c r="W41" t="n">
-        <v>3358.174552421958</v>
+        <v>3502.211791606237</v>
       </c>
       <c r="X41" t="n">
-        <v>2946.454553589705</v>
+        <v>3090.491792773984</v>
       </c>
       <c r="Y41" t="n">
-        <v>2541.117283544596</v>
+        <v>2685.154522728875</v>
       </c>
     </row>
     <row r="42">
@@ -7466,16 +7466,16 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>654.3326880375853</v>
+        <v>654.3326880375852</v>
       </c>
       <c r="C42" t="n">
-        <v>536.8267845550901</v>
+        <v>536.8267845550899</v>
       </c>
       <c r="D42" t="n">
-        <v>432.9868260703751</v>
+        <v>432.986826070375</v>
       </c>
       <c r="E42" t="n">
-        <v>328.2848923433123</v>
+        <v>328.2848923433122</v>
       </c>
       <c r="F42" t="n">
         <v>234.6390620262164</v>
@@ -7484,34 +7484,34 @@
         <v>140.5852902438204</v>
       </c>
       <c r="H42" t="n">
-        <v>87.20919700613001</v>
+        <v>87.20919700613</v>
       </c>
       <c r="I42" t="n">
-        <v>87.20919700613001</v>
+        <v>94.65583996804183</v>
       </c>
       <c r="J42" t="n">
-        <v>358.9066862857211</v>
+        <v>94.65583996804183</v>
       </c>
       <c r="K42" t="n">
-        <v>949.3916128540607</v>
+        <v>685.1407665363814</v>
       </c>
       <c r="L42" t="n">
-        <v>949.3916128540607</v>
+        <v>1349.732040639157</v>
       </c>
       <c r="M42" t="n">
-        <v>949.3916128540607</v>
+        <v>1349.732040639157</v>
       </c>
       <c r="N42" t="n">
-        <v>949.3916128540607</v>
+        <v>1349.732040639157</v>
       </c>
       <c r="O42" t="n">
-        <v>949.3916128540607</v>
+        <v>1349.732040639157</v>
       </c>
       <c r="P42" t="n">
-        <v>1431.75135072386</v>
+        <v>1349.732040639157</v>
       </c>
       <c r="Q42" t="n">
-        <v>1895.89682758664</v>
+        <v>1813.877517501937</v>
       </c>
       <c r="R42" t="n">
         <v>1895.89682758664</v>
@@ -7532,10 +7532,10 @@
         <v>1086.429932337693</v>
       </c>
       <c r="X42" t="n">
-        <v>922.9525861043556</v>
+        <v>922.9525861043555</v>
       </c>
       <c r="Y42" t="n">
-        <v>783.259697457648</v>
+        <v>783.2596974576479</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>3263.227945417609</v>
+        <v>528.4619233494857</v>
       </c>
       <c r="C43" t="n">
-        <v>3091.255382296525</v>
+        <v>356.4893602284017</v>
       </c>
       <c r="D43" t="n">
-        <v>2927.938609423296</v>
+        <v>356.4893602284017</v>
       </c>
       <c r="E43" t="n">
-        <v>2761.730403576149</v>
+        <v>259.0709712315696</v>
       </c>
       <c r="F43" t="n">
-        <v>2589.86862935071</v>
+        <v>87.20919700613</v>
       </c>
       <c r="G43" t="n">
-        <v>2423.611659644942</v>
+        <v>87.20919700613</v>
       </c>
       <c r="H43" t="n">
-        <v>2279.815391153096</v>
+        <v>87.20919700613</v>
       </c>
       <c r="I43" t="n">
-        <v>2180.046822893372</v>
+        <v>87.20919700613</v>
       </c>
       <c r="J43" t="n">
-        <v>2237.538151117531</v>
+        <v>144.700525230288</v>
       </c>
       <c r="K43" t="n">
-        <v>2464.065752323368</v>
+        <v>371.2281264361252</v>
       </c>
       <c r="L43" t="n">
-        <v>2818.755073617789</v>
+        <v>725.917447730546</v>
       </c>
       <c r="M43" t="n">
-        <v>3209.940868588039</v>
+        <v>1117.103242700797</v>
       </c>
       <c r="N43" t="n">
-        <v>3587.432379464075</v>
+        <v>1494.594753576833</v>
       </c>
       <c r="O43" t="n">
-        <v>3942.860508143838</v>
+        <v>1850.022882256595</v>
       </c>
       <c r="P43" t="n">
-        <v>4233.459720065739</v>
+        <v>2140.622094178496</v>
       </c>
       <c r="Q43" t="n">
-        <v>4360.459850306501</v>
+        <v>2267.622224419258</v>
       </c>
       <c r="R43" t="n">
-        <v>4360.459850306501</v>
+        <v>2267.622224419258</v>
       </c>
       <c r="S43" t="n">
-        <v>4360.459850306501</v>
+        <v>2267.622224419258</v>
       </c>
       <c r="T43" t="n">
-        <v>4117.120502532401</v>
+        <v>2024.282876645158</v>
       </c>
       <c r="U43" t="n">
-        <v>4117.120502532401</v>
+        <v>1744.098428145462</v>
       </c>
       <c r="V43" t="n">
-        <v>4117.120502532401</v>
+        <v>1462.386960753491</v>
       </c>
       <c r="W43" t="n">
-        <v>3922.300578994128</v>
+        <v>1187.534556926004</v>
       </c>
       <c r="X43" t="n">
-        <v>3679.736682439933</v>
+        <v>944.9706603718092</v>
       </c>
       <c r="Y43" t="n">
-        <v>3453.393914129675</v>
+        <v>718.6278920615513</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2369.673452564205</v>
+        <v>1890.392972205249</v>
       </c>
       <c r="C44" t="n">
-        <v>1942.772722577505</v>
+        <v>1463.492242218549</v>
       </c>
       <c r="D44" t="n">
-        <v>1519.480101762505</v>
+        <v>1040.19962140355</v>
       </c>
       <c r="E44" t="n">
-        <v>1093.503161910363</v>
+        <v>1040.19962140355</v>
       </c>
       <c r="F44" t="n">
-        <v>668.3789800997631</v>
+        <v>615.0754395929498</v>
       </c>
       <c r="G44" t="n">
-        <v>264.0399176892117</v>
+        <v>210.7363771823984</v>
       </c>
       <c r="H44" t="n">
-        <v>87.20919700613001</v>
+        <v>87.20919700613</v>
       </c>
       <c r="I44" t="n">
-        <v>87.20919700613001</v>
+        <v>87.20919700613</v>
       </c>
       <c r="J44" t="n">
         <v>449.8126558230255</v>
       </c>
       <c r="K44" t="n">
-        <v>1165.320963798525</v>
+        <v>449.8126558230255</v>
       </c>
       <c r="L44" t="n">
-        <v>2094.946011417801</v>
+        <v>961.136225863843</v>
       </c>
       <c r="M44" t="n">
-        <v>2102.287698275787</v>
+        <v>1965.422327282901</v>
       </c>
       <c r="N44" t="n">
-        <v>3078.538756762488</v>
+        <v>2941.673385769602</v>
       </c>
       <c r="O44" t="n">
-        <v>3078.538756762488</v>
+        <v>3786.818035920414</v>
       </c>
       <c r="P44" t="n">
-        <v>3786.818035920415</v>
+        <v>3786.818035920414</v>
       </c>
       <c r="Q44" t="n">
         <v>4242.903515424598</v>
       </c>
       <c r="R44" t="n">
-        <v>4360.459850306501</v>
+        <v>4360.4598503065</v>
       </c>
       <c r="S44" t="n">
-        <v>4360.459850306501</v>
+        <v>4360.4598503065</v>
       </c>
       <c r="T44" t="n">
-        <v>4360.459850306501</v>
+        <v>4139.534279351133</v>
       </c>
       <c r="U44" t="n">
-        <v>4360.459850306501</v>
+        <v>3881.179369947545</v>
       </c>
       <c r="V44" t="n">
-        <v>4002.97043543275</v>
+        <v>3523.689955073794</v>
       </c>
       <c r="W44" t="n">
-        <v>3606.579085733098</v>
+        <v>3127.298605374142</v>
       </c>
       <c r="X44" t="n">
-        <v>3194.859086900845</v>
+        <v>2715.578606541889</v>
       </c>
       <c r="Y44" t="n">
-        <v>2789.521816855735</v>
+        <v>2310.241336496779</v>
       </c>
     </row>
     <row r="45">
@@ -7703,16 +7703,16 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>654.3326880375853</v>
+        <v>654.3326880375852</v>
       </c>
       <c r="C45" t="n">
-        <v>536.8267845550901</v>
+        <v>536.8267845550899</v>
       </c>
       <c r="D45" t="n">
-        <v>432.9868260703751</v>
+        <v>432.986826070375</v>
       </c>
       <c r="E45" t="n">
-        <v>328.2848923433123</v>
+        <v>328.2848923433122</v>
       </c>
       <c r="F45" t="n">
         <v>234.6390620262164</v>
@@ -7721,34 +7721,34 @@
         <v>140.5852902438204</v>
       </c>
       <c r="H45" t="n">
-        <v>87.20919700613001</v>
+        <v>87.20919700613</v>
       </c>
       <c r="I45" t="n">
-        <v>94.65583996804185</v>
+        <v>87.20919700613</v>
       </c>
       <c r="J45" t="n">
-        <v>366.3533292476329</v>
+        <v>87.20919700613</v>
       </c>
       <c r="K45" t="n">
-        <v>956.8382558159725</v>
+        <v>87.20919700613</v>
       </c>
       <c r="L45" t="n">
-        <v>956.8382558159725</v>
+        <v>87.20919700613</v>
       </c>
       <c r="M45" t="n">
-        <v>956.8382558159725</v>
+        <v>1143.195734982175</v>
       </c>
       <c r="N45" t="n">
-        <v>956.8382558159725</v>
+        <v>1431.75135072386</v>
       </c>
       <c r="O45" t="n">
-        <v>956.8382558159725</v>
+        <v>1431.75135072386</v>
       </c>
       <c r="P45" t="n">
-        <v>1349.732040639157</v>
+        <v>1431.75135072386</v>
       </c>
       <c r="Q45" t="n">
-        <v>1813.877517501937</v>
+        <v>1895.89682758664</v>
       </c>
       <c r="R45" t="n">
         <v>1895.89682758664</v>
@@ -7769,10 +7769,10 @@
         <v>1086.429932337693</v>
       </c>
       <c r="X45" t="n">
-        <v>922.9525861043556</v>
+        <v>922.9525861043555</v>
       </c>
       <c r="Y45" t="n">
-        <v>783.259697457648</v>
+        <v>783.2596974576479</v>
       </c>
     </row>
     <row r="46">
@@ -7782,7 +7782,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>431.0435343526536</v>
+        <v>431.0435343526535</v>
       </c>
       <c r="C46" t="n">
         <v>259.0709712315696</v>
@@ -7794,16 +7794,16 @@
         <v>259.0709712315696</v>
       </c>
       <c r="F46" t="n">
-        <v>87.20919700613001</v>
+        <v>87.20919700613</v>
       </c>
       <c r="G46" t="n">
-        <v>87.20919700613001</v>
+        <v>87.20919700613</v>
       </c>
       <c r="H46" t="n">
-        <v>87.20919700613001</v>
+        <v>87.20919700613</v>
       </c>
       <c r="I46" t="n">
-        <v>87.20919700613001</v>
+        <v>87.20919700613</v>
       </c>
       <c r="J46" t="n">
         <v>144.700525230288</v>
@@ -7981,22 +7981,22 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K2" t="n">
-        <v>35.76460079480934</v>
+        <v>591.9924139104035</v>
       </c>
       <c r="L2" t="n">
         <v>38.31204243262292</v>
       </c>
       <c r="M2" t="n">
-        <v>593.6590760150258</v>
+        <v>181.710741931019</v>
       </c>
       <c r="N2" t="n">
-        <v>593.5074359500401</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O2" t="n">
-        <v>181.6704383876111</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P2" t="n">
-        <v>37.5753618102313</v>
+        <v>593.8031749258255</v>
       </c>
       <c r="Q2" t="n">
         <v>496.8170781441769</v>
@@ -8054,28 +8054,28 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J3" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K3" t="n">
-        <v>462.4589018454976</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L3" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M3" t="n">
-        <v>579.324593627922</v>
+        <v>579.3245936279221</v>
       </c>
       <c r="N3" t="n">
-        <v>577.5708413291356</v>
+        <v>172.0949298956461</v>
       </c>
       <c r="O3" t="n">
-        <v>23.17188972222222</v>
+        <v>579.3997028378163</v>
       </c>
       <c r="P3" t="n">
-        <v>21.77084120482866</v>
+        <v>577.9986543204228</v>
       </c>
       <c r="Q3" t="n">
         <v>22.7470382889785</v>
@@ -8215,25 +8215,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K5" t="n">
-        <v>569.51856287543</v>
+        <v>591.9924139104035</v>
       </c>
       <c r="L5" t="n">
-        <v>38.31204243262292</v>
+        <v>594.539855548217</v>
       </c>
       <c r="M5" t="n">
-        <v>593.6590760150259</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N5" t="n">
-        <v>593.5074359500402</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O5" t="n">
         <v>593.6187724716183</v>
       </c>
       <c r="P5" t="n">
-        <v>37.5753618102313</v>
+        <v>205.0632038737858</v>
       </c>
       <c r="Q5" t="n">
         <v>36.12467460459804</v>
@@ -8300,7 +8300,7 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L6" t="n">
-        <v>462.5747547263935</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M6" t="n">
         <v>579.3245936279221</v>
@@ -8309,16 +8309,16 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O6" t="n">
-        <v>579.3997028378163</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P6" t="n">
-        <v>21.77084120482866</v>
+        <v>466.3767193553316</v>
       </c>
       <c r="Q6" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R6" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8458,16 +8458,16 @@
         <v>35.76460079480934</v>
       </c>
       <c r="L8" t="n">
-        <v>38.31204243262292</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M8" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N8" t="n">
-        <v>1023.391803124043</v>
+        <v>899.8618482580546</v>
       </c>
       <c r="O8" t="n">
-        <v>810.8710360384532</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P8" t="n">
         <v>753.0089771212694</v>
@@ -8476,7 +8476,7 @@
         <v>496.8170781441769</v>
       </c>
       <c r="R8" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8540,13 +8540,13 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M9" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N9" t="n">
-        <v>781.6471621574455</v>
+        <v>1111.457990790167</v>
       </c>
       <c r="O9" t="n">
-        <v>23.17188972222222</v>
+        <v>760.0141297521729</v>
       </c>
       <c r="P9" t="n">
         <v>21.77084120482866</v>
@@ -8689,16 +8689,16 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K11" t="n">
-        <v>758.5002654165255</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L11" t="n">
-        <v>38.31204243262292</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M11" t="n">
-        <v>130.1808430271589</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N11" t="n">
         <v>1023.391803124043</v>
@@ -8707,10 +8707,10 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P11" t="n">
-        <v>753.0089771212694</v>
+        <v>442.0071403381299</v>
       </c>
       <c r="Q11" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R11" t="n">
         <v>153.7764225027789</v>
@@ -8765,22 +8765,22 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J12" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K12" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L12" t="n">
-        <v>508.3773122949099</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M12" t="n">
         <v>1089.749849175</v>
       </c>
       <c r="N12" t="n">
-        <v>21.34302821354166</v>
+        <v>177.6758798036559</v>
       </c>
       <c r="O12" t="n">
         <v>23.17188972222222</v>
@@ -8926,7 +8926,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K14" t="n">
         <v>758.5002654165255</v>
@@ -8935,22 +8935,22 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M14" t="n">
-        <v>1051.861668373228</v>
+        <v>177.2778237013238</v>
       </c>
       <c r="N14" t="n">
-        <v>1023.391803124043</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O14" t="n">
-        <v>691.5123106689896</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P14" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q14" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R14" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9002,31 +9002,31 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J15" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K15" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L15" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M15" t="n">
-        <v>759.9390205422784</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N15" t="n">
-        <v>1111.457990790167</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O15" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P15" t="n">
-        <v>21.77084120482866</v>
+        <v>501.4810380814832</v>
       </c>
       <c r="Q15" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R15" t="n">
         <v>23.67291939414415</v>
@@ -9169,25 +9169,25 @@
         <v>758.5002654165255</v>
       </c>
       <c r="L17" t="n">
-        <v>977.3272420480539</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M17" t="n">
         <v>1051.861668373228</v>
       </c>
       <c r="N17" t="n">
-        <v>1023.391803124043</v>
+        <v>848.7638096822445</v>
       </c>
       <c r="O17" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P17" t="n">
-        <v>218.8019602116006</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q17" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R17" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9239,31 +9239,31 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J18" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K18" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L18" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M18" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N18" t="n">
-        <v>781.6471621574452</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O18" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P18" t="n">
-        <v>21.77084120482866</v>
+        <v>501.4810380814832</v>
       </c>
       <c r="Q18" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R18" t="n">
         <v>23.67291939414415</v>
@@ -9400,7 +9400,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K20" t="n">
         <v>758.5002654165255</v>
@@ -9409,22 +9409,22 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M20" t="n">
-        <v>1051.861668373228</v>
+        <v>924.3306556055956</v>
       </c>
       <c r="N20" t="n">
-        <v>1023.391803124043</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O20" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P20" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q20" t="n">
         <v>496.8170781441769</v>
       </c>
       <c r="R20" t="n">
-        <v>121.8329647736524</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9476,31 +9476,31 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J21" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K21" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L21" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M21" t="n">
-        <v>749.7358553685299</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N21" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O21" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P21" t="n">
-        <v>21.77084120482866</v>
+        <v>501.4810380814832</v>
       </c>
       <c r="Q21" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R21" t="n">
         <v>23.67291939414415</v>
@@ -9637,7 +9637,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K23" t="n">
         <v>758.5002654165255</v>
@@ -9646,22 +9646,22 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M23" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N23" t="n">
-        <v>1023.391803124043</v>
+        <v>924.1790155406098</v>
       </c>
       <c r="O23" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P23" t="n">
-        <v>585.0680802286663</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q23" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R23" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9713,7 +9713,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J24" t="n">
         <v>20.61111433333334</v>
@@ -9725,13 +9725,13 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M24" t="n">
-        <v>749.7358553685299</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N24" t="n">
-        <v>1121.661155963915</v>
+        <v>942.3124318571035</v>
       </c>
       <c r="O24" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P24" t="n">
         <v>21.77084120482866</v>
@@ -9874,7 +9874,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K26" t="n">
         <v>758.5002654165255</v>
@@ -9883,22 +9883,22 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M26" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N26" t="n">
-        <v>1023.391803124043</v>
+        <v>924.1790155406098</v>
       </c>
       <c r="O26" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P26" t="n">
-        <v>585.0680802286663</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q26" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R26" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9950,31 +9950,31 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J27" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K27" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L27" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M27" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N27" t="n">
-        <v>781.6471621574452</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O27" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P27" t="n">
-        <v>21.77084120482866</v>
+        <v>501.4810380814832</v>
       </c>
       <c r="Q27" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R27" t="n">
         <v>23.67291939414415</v>
@@ -10111,7 +10111,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K29" t="n">
         <v>758.5002654165255</v>
@@ -10120,22 +10120,22 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M29" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N29" t="n">
-        <v>1023.391803124043</v>
+        <v>924.1790155406098</v>
       </c>
       <c r="O29" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P29" t="n">
-        <v>585.0680802286654</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q29" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R29" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10187,31 +10187,31 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J30" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K30" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L30" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M30" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N30" t="n">
-        <v>781.6471621574452</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O30" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P30" t="n">
-        <v>21.77084120482866</v>
+        <v>501.4810380814832</v>
       </c>
       <c r="Q30" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R30" t="n">
         <v>23.67291939414415</v>
@@ -10348,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K32" t="n">
         <v>758.5002654165255</v>
@@ -10363,10 +10363,10 @@
         <v>1023.391803124043</v>
       </c>
       <c r="O32" t="n">
-        <v>891.0724241548241</v>
+        <v>356.8654072451563</v>
       </c>
       <c r="P32" t="n">
-        <v>585.0680802286654</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q32" t="n">
         <v>36.12467460459804</v>
@@ -10424,34 +10424,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J33" t="n">
         <v>295.0530226965566</v>
       </c>
       <c r="K33" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L33" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M33" t="n">
-        <v>392.4461590409599</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N33" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O33" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P33" t="n">
-        <v>21.77084120482866</v>
+        <v>501.4810380814832</v>
       </c>
       <c r="Q33" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R33" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10603,7 +10603,7 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P35" t="n">
-        <v>585.0680802286663</v>
+        <v>585.0680802286672</v>
       </c>
       <c r="Q35" t="n">
         <v>36.12467460459804</v>
@@ -10661,13 +10661,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J36" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K36" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L36" t="n">
         <v>22.51508671422956</v>
@@ -10676,16 +10676,16 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N36" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O36" t="n">
-        <v>23.17188972222222</v>
+        <v>53.89195754947579</v>
       </c>
       <c r="P36" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q36" t="n">
-        <v>474.9442047819572</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R36" t="n">
         <v>23.67291939414415</v>
@@ -10831,22 +10831,22 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M38" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N38" t="n">
-        <v>1023.391803124043</v>
+        <v>924.1790155406098</v>
       </c>
       <c r="O38" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P38" t="n">
-        <v>218.8019602116006</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q38" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R38" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10898,31 +10898,31 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J39" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K39" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L39" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M39" t="n">
-        <v>951.5880457335786</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N39" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O39" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P39" t="n">
-        <v>21.77084120482866</v>
+        <v>501.4810380814832</v>
       </c>
       <c r="Q39" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R39" t="n">
         <v>23.67291939414415</v>
@@ -11059,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K41" t="n">
         <v>758.5002654165255</v>
@@ -11071,19 +11071,19 @@
         <v>1051.861668373228</v>
       </c>
       <c r="N41" t="n">
-        <v>1023.391803124043</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O41" t="n">
-        <v>691.5123106689896</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P41" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q41" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R41" t="n">
-        <v>35.03264989479647</v>
+        <v>132.8740426296748</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11135,16 +11135,16 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J42" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K42" t="n">
         <v>618.848654609434</v>
       </c>
       <c r="L42" t="n">
-        <v>22.51508671422956</v>
+        <v>693.8194039897608</v>
       </c>
       <c r="M42" t="n">
         <v>23.09678051232798</v>
@@ -11156,13 +11156,13 @@
         <v>23.17188972222222</v>
       </c>
       <c r="P42" t="n">
-        <v>509.0028996591719</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q42" t="n">
         <v>491.5808533018869</v>
       </c>
       <c r="R42" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11299,22 +11299,22 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K44" t="n">
-        <v>758.5002654165255</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L44" t="n">
-        <v>977.3272420480539</v>
+        <v>554.8004970193073</v>
       </c>
       <c r="M44" t="n">
-        <v>44.847108210528</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N44" t="n">
         <v>1023.391803124043</v>
       </c>
       <c r="O44" t="n">
-        <v>37.3909593560241</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P44" t="n">
-        <v>753.0089771212694</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q44" t="n">
         <v>496.8170781441769</v>
@@ -11372,34 +11372,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J45" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K45" t="n">
-        <v>618.848654609434</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L45" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M45" t="n">
-        <v>23.09678051232798</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N45" t="n">
-        <v>21.34302821354166</v>
+        <v>312.813347144537</v>
       </c>
       <c r="O45" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P45" t="n">
-        <v>418.6332501171365</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q45" t="n">
         <v>491.5808533018869</v>
       </c>
       <c r="R45" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -22555,19 +22555,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>339.5358271757115</v>
+        <v>353.5064615136266</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G2" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22710,10 +22710,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -22722,7 +22722,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>115.7093528769452</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -22752,25 +22752,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T4" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>117.2205539080138</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -22783,7 +22783,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -22804,7 +22804,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I5" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22834,7 +22834,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>218.7163152458132</v>
@@ -22849,10 +22849,10 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X5" t="n">
-        <v>407.6027988439302</v>
+        <v>71.14695317428442</v>
       </c>
       <c r="Y5" t="n">
-        <v>342.6064085940732</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="6">
@@ -22953,7 +22953,7 @@
         <v>164.546123788675</v>
       </c>
       <c r="F7" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>164.5944000087102</v>
@@ -22962,7 +22962,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I7" t="n">
-        <v>47.18544517283286</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -22989,10 +22989,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>71.98949189919266</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -23029,10 +23029,10 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>311.3135405568806</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -23083,13 +23083,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>339.7590443467174</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -23184,22 +23184,22 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>68.1019186818112</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -23232,13 +23232,13 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T10" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>117.2205539080143</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -23275,7 +23275,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>294.8896947407055</v>
+        <v>257.6988049940099</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23311,13 +23311,13 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U11" t="n">
         <v>255.7713603095518</v>
       </c>
       <c r="V11" t="n">
-        <v>181.5254254991168</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23421,22 +23421,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23466,16 +23466,16 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S13" t="n">
-        <v>168.4336970060565</v>
+        <v>71.98949189919266</v>
       </c>
       <c r="T13" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>117.2205539080143</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23503,19 +23503,19 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>421.717170453621</v>
+        <v>311.3135405568806</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>172.5977863661989</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23545,7 +23545,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -23655,7 +23655,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>47.1854451728328</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>161.683605144497</v>
@@ -23664,7 +23664,7 @@
         <v>164.546123788675</v>
       </c>
       <c r="F16" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>164.5944000087102</v>
@@ -23673,7 +23673,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>71.98949189919266</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23895,13 +23895,13 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E19" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F19" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>164.5944000087102</v>
@@ -23937,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>110.0981677402029</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24132,13 +24132,13 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E22" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F22" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>164.5944000087102</v>
@@ -24174,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24192,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>110.0981677402029</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24369,13 +24369,13 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>110.0981677402028</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E25" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F25" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>164.5944000087102</v>
@@ -24411,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24606,22 +24606,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24651,16 +24651,16 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S28" t="n">
-        <v>168.4336970060565</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T28" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>117.2205539080143</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24843,22 +24843,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24888,16 +24888,16 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S31" t="n">
-        <v>168.4336970060565</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T31" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>117.2205539080143</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25083,19 +25083,19 @@
         <v>161.683605144497</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H34" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25134,16 +25134,16 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>50.28590503703475</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25317,22 +25317,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25362,16 +25362,16 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S37" t="n">
-        <v>168.4336970060565</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T37" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>117.2205539080138</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25554,22 +25554,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>68.10191868181103</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25602,13 +25602,13 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T40" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>117.2205539080143</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25642,7 +25642,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>400.2956717864458</v>
+        <v>257.6988049940099</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -25681,16 +25681,16 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>331.890808762928</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -25791,22 +25791,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>68.1019186818112</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25842,13 +25842,13 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>79.23215548632174</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -25873,7 +25873,7 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -25882,7 +25882,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>119.8272812644546</v>
+        <v>172.5977863661998</v>
       </c>
       <c r="I44" t="n">
         <v>34.5479025439635</v>
@@ -25918,10 +25918,10 @@
         <v>103.323621185591</v>
       </c>
       <c r="T44" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>449550.5221406262</v>
+        <v>449550.5221406263</v>
       </c>
     </row>
     <row r="3">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>668409.6531749821</v>
+        <v>668409.6531749822</v>
       </c>
     </row>
     <row r="7">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>745751.6974353091</v>
+        <v>745751.6974353092</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>745751.6974353093</v>
+        <v>745751.6974353092</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>668409.6531749823</v>
+        <v>668409.6531749819</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>668409.6531749822</v>
+        <v>668409.6531749819</v>
       </c>
     </row>
   </sheetData>
@@ -26319,43 +26319,43 @@
         <v>177882.8010830319</v>
       </c>
       <c r="D2" t="n">
+        <v>264467.8886250015</v>
+      </c>
+      <c r="E2" t="n">
         <v>264467.8886250014</v>
       </c>
-      <c r="E2" t="n">
-        <v>264467.8886250013</v>
-      </c>
       <c r="F2" t="n">
-        <v>264467.8886250015</v>
+        <v>264467.8886250014</v>
       </c>
       <c r="G2" t="n">
-        <v>295065.9616471597</v>
+        <v>295065.9616471598</v>
       </c>
       <c r="H2" t="n">
-        <v>295065.9616471595</v>
+        <v>295065.9616471598</v>
       </c>
       <c r="I2" t="n">
         <v>295065.9616471597</v>
       </c>
       <c r="J2" t="n">
-        <v>295065.9616471597</v>
+        <v>295065.9616471598</v>
       </c>
       <c r="K2" t="n">
-        <v>295065.9616471597</v>
+        <v>295065.9616471598</v>
       </c>
       <c r="L2" t="n">
-        <v>295065.9616471596</v>
+        <v>295065.9616471598</v>
       </c>
       <c r="M2" t="n">
-        <v>295065.9616471597</v>
+        <v>295065.9616471598</v>
       </c>
       <c r="N2" t="n">
-        <v>295065.9616471597</v>
+        <v>295065.9616471598</v>
       </c>
       <c r="O2" t="n">
-        <v>264467.8886250014</v>
+        <v>264467.8886250015</v>
       </c>
       <c r="P2" t="n">
-        <v>264467.8886250015</v>
+        <v>264467.8886250013</v>
       </c>
     </row>
     <row r="3">
@@ -26371,7 +26371,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>165841.3652370801</v>
+        <v>165841.36523708</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -26380,7 +26380,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>51711.33053014208</v>
+        <v>51711.33053014221</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26395,7 +26395,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>135122.0325442418</v>
+        <v>135122.0325442417</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -26432,28 +26432,28 @@
         <v>52028.77520179228</v>
       </c>
       <c r="G4" t="n">
-        <v>58064.51385187963</v>
+        <v>58064.51385187964</v>
       </c>
       <c r="H4" t="n">
-        <v>58064.51385187963</v>
+        <v>58064.51385187964</v>
       </c>
       <c r="I4" t="n">
-        <v>58064.51385187963</v>
+        <v>58064.51385187965</v>
       </c>
       <c r="J4" t="n">
-        <v>58064.51385187963</v>
+        <v>58064.51385187964</v>
       </c>
       <c r="K4" t="n">
-        <v>58064.51385187962</v>
+        <v>58064.51385187964</v>
       </c>
       <c r="L4" t="n">
-        <v>58064.51385187962</v>
+        <v>58064.51385187965</v>
       </c>
       <c r="M4" t="n">
         <v>58064.51385187964</v>
       </c>
       <c r="N4" t="n">
-        <v>58064.51385187963</v>
+        <v>58064.51385187964</v>
       </c>
       <c r="O4" t="n">
         <v>52028.77520179228</v>
@@ -26469,49 +26469,49 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>67446.25103742811</v>
+        <v>67446.25103742813</v>
       </c>
       <c r="C5" t="n">
         <v>67446.25103742813</v>
       </c>
       <c r="D5" t="n">
-        <v>99906.58972465881</v>
+        <v>99906.58972465878</v>
       </c>
       <c r="E5" t="n">
-        <v>66278.98972465881</v>
+        <v>66278.98972465879</v>
       </c>
       <c r="F5" t="n">
-        <v>66278.98972465881</v>
+        <v>66278.98972465879</v>
       </c>
       <c r="G5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="H5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="I5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="J5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="K5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="L5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="M5" t="n">
-        <v>77750.06218842966</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="N5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="O5" t="n">
-        <v>66278.98972465881</v>
+        <v>66278.98972465879</v>
       </c>
       <c r="P5" t="n">
-        <v>66278.98972465881</v>
+        <v>66278.98972465879</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-110917.2895662859</v>
+        <v>-111526.3352787756</v>
       </c>
       <c r="C6" t="n">
-        <v>75487.44384845131</v>
+        <v>74878.39813596159</v>
       </c>
       <c r="D6" t="n">
-        <v>-53308.84153852984</v>
+        <v>-53505.5773103432</v>
       </c>
       <c r="E6" t="n">
-        <v>146160.1236985502</v>
+        <v>145963.3879267367</v>
       </c>
       <c r="F6" t="n">
-        <v>146160.1236985504</v>
+        <v>145963.3879267367</v>
       </c>
       <c r="G6" t="n">
-        <v>107540.0550767083</v>
+        <v>107489.0244145239</v>
       </c>
       <c r="H6" t="n">
-        <v>159251.3856068502</v>
+        <v>159200.3549446662</v>
       </c>
       <c r="I6" t="n">
-        <v>159251.3856068504</v>
+        <v>159200.3549446661</v>
       </c>
       <c r="J6" t="n">
-        <v>13717.71567203393</v>
+        <v>13666.68500984964</v>
       </c>
       <c r="K6" t="n">
-        <v>159251.3856068504</v>
+        <v>159200.3549446661</v>
       </c>
       <c r="L6" t="n">
-        <v>24129.35306260845</v>
+        <v>24078.32240042444</v>
       </c>
       <c r="M6" t="n">
-        <v>159251.3856068504</v>
+        <v>159200.3549446661</v>
       </c>
       <c r="N6" t="n">
-        <v>159251.3856068504</v>
+        <v>159200.3549446661</v>
       </c>
       <c r="O6" t="n">
-        <v>146160.1236985503</v>
+        <v>145963.3879267368</v>
       </c>
       <c r="P6" t="n">
-        <v>146160.1236985504</v>
+        <v>145963.3879267366</v>
       </c>
     </row>
   </sheetData>
@@ -26789,7 +26789,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>556.227813115594</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="C4" t="n">
         <v>556.2278131155941</v>
@@ -26822,7 +26822,7 @@
         <v>1278.783917572857</v>
       </c>
       <c r="M4" t="n">
-        <v>1278.783917572856</v>
+        <v>1278.783917572857</v>
       </c>
       <c r="N4" t="n">
         <v>1278.783917572857</v>
@@ -27011,13 +27011,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>556.227813115594</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>533.8871494610312</v>
+        <v>533.8871494610308</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -27026,7 +27026,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>188.6689549962314</v>
+        <v>188.6689549962318</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27035,13 +27035,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>556.227813115594</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>533.8871494610312</v>
+        <v>533.8871494610306</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
@@ -27257,13 +27257,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>556.227813115594</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>533.8871494610312</v>
+        <v>533.8871494610308</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
@@ -27272,7 +27272,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>188.6689549962314</v>
+        <v>188.6689549962318</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -34701,22 +34701,22 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>556.227813115594</v>
+        <v>144.2794790315872</v>
       </c>
       <c r="N2" t="n">
-        <v>556.227813115594</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>144.279479031587</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q2" t="n">
         <v>460.6924035395789</v>
@@ -34774,28 +34774,28 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J3" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>440.0596680121643</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>556.227813115594</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="N3" t="n">
-        <v>556.227813115594</v>
+        <v>150.7519016821045</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -34935,25 +34935,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K5" t="n">
-        <v>533.7539620806207</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M5" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
         <v>556.2278131155941</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>167.4878420635545</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35020,7 +35020,7 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>440.0596680121639</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>556.2278131155941</v>
@@ -35029,16 +35029,16 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>444.6058781505029</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35178,16 +35178,16 @@
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M8" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>986.1121802895968</v>
+        <v>862.5822254236085</v>
       </c>
       <c r="O8" t="n">
-        <v>773.4800766824292</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P8" t="n">
         <v>715.433615311038</v>
@@ -35196,7 +35196,7 @@
         <v>460.6924035395789</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35260,13 +35260,13 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>760.3041339439038</v>
+        <v>1090.114962576625</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>736.8422400299507</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
@@ -35409,16 +35409,16 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>722.7356646217162</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M11" t="n">
-        <v>92.74958012772711</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N11" t="n">
         <v>986.1121802895968</v>
@@ -35427,10 +35427,10 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P11" t="n">
-        <v>715.433615311038</v>
+        <v>404.4317785278986</v>
       </c>
       <c r="Q11" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
         <v>118.7437726079824</v>
@@ -35485,22 +35485,22 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J12" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L12" t="n">
-        <v>485.8622255806804</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>1066.653068662672</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>156.3328515901142</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -35646,7 +35646,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K14" t="n">
         <v>722.7356646217162</v>
@@ -35655,22 +35655,22 @@
         <v>939.015199615431</v>
       </c>
       <c r="M14" t="n">
-        <v>1014.430405473796</v>
+        <v>139.846560801892</v>
       </c>
       <c r="N14" t="n">
-        <v>986.1121802895968</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>654.1213513129655</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,31 +35722,31 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>736.8422400299504</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>1090.114962576625</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>479.7101968766545</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35889,25 +35889,25 @@
         <v>722.7356646217162</v>
       </c>
       <c r="L17" t="n">
-        <v>939.015199615431</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
         <v>1014.430405473796</v>
       </c>
       <c r="N17" t="n">
-        <v>986.1121802895968</v>
+        <v>811.4841868477985</v>
       </c>
       <c r="O17" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P17" t="n">
-        <v>181.2265984013693</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,31 +35959,31 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>760.3041339439036</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>479.7101968766545</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36120,7 +36120,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K20" t="n">
         <v>722.7356646217162</v>
@@ -36129,22 +36129,22 @@
         <v>939.015199615431</v>
       </c>
       <c r="M20" t="n">
-        <v>1014.430405473796</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="N20" t="n">
-        <v>986.1121802895968</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q20" t="n">
         <v>460.6924035395789</v>
       </c>
       <c r="R20" t="n">
-        <v>86.8003148788559</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,31 +36196,31 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>726.6390748562019</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>479.7101968766545</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36357,7 +36357,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K23" t="n">
         <v>722.7356646217162</v>
@@ -36366,22 +36366,22 @@
         <v>939.015199615431</v>
       </c>
       <c r="M23" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>986.1121802895968</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="O23" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P23" t="n">
-        <v>547.4927184184349</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -36445,13 +36445,13 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>726.6390748562019</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>1100.318127750374</v>
+        <v>920.9694036435619</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36594,7 +36594,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K26" t="n">
         <v>722.7356646217162</v>
@@ -36603,22 +36603,22 @@
         <v>939.015199615431</v>
       </c>
       <c r="M26" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>986.1121802895968</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="O26" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P26" t="n">
-        <v>547.4927184184349</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,31 +36670,31 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>760.3041339439036</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>479.7101968766545</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36831,7 +36831,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K29" t="n">
         <v>722.7356646217162</v>
@@ -36840,22 +36840,22 @@
         <v>939.015199615431</v>
       </c>
       <c r="M29" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>986.1121802895968</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="O29" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P29" t="n">
-        <v>547.492718418434</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,31 +36907,31 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>760.3041339439036</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>479.7101968766545</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37068,7 +37068,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K32" t="n">
         <v>722.7356646217162</v>
@@ -37083,10 +37083,10 @@
         <v>986.1121802895968</v>
       </c>
       <c r="O32" t="n">
-        <v>853.6814647988001</v>
+        <v>319.4744478891323</v>
       </c>
       <c r="P32" t="n">
-        <v>547.492718418434</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
@@ -37144,34 +37144,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J33" t="n">
         <v>274.4419083632233</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>369.3493785286319</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>479.7101968766545</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R33" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37323,7 +37323,7 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P35" t="n">
-        <v>547.4927184184349</v>
+        <v>547.4927184184359</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
@@ -37381,13 +37381,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J36" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -37396,16 +37396,16 @@
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>30.72006782725357</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q36" t="n">
-        <v>452.1971664929787</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37551,22 +37551,22 @@
         <v>939.015199615431</v>
       </c>
       <c r="M38" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>986.1121802895968</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="O38" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P38" t="n">
-        <v>181.2265984013693</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,31 +37618,31 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>928.4912652212506</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>479.7101968766545</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37779,7 +37779,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K41" t="n">
         <v>722.7356646217162</v>
@@ -37791,19 +37791,19 @@
         <v>1014.430405473796</v>
       </c>
       <c r="N41" t="n">
-        <v>986.1121802895968</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>654.1213513129655</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>97.84139273487833</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,16 +37855,16 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J42" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>596.4494207761006</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>671.3043172755312</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -37876,13 +37876,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>487.2320584543432</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>468.8338150129084</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38019,22 +38019,22 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K44" t="n">
-        <v>722.7356646217162</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>939.015199615431</v>
+        <v>516.4884545866844</v>
       </c>
       <c r="M44" t="n">
-        <v>7.415845311096185</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N44" t="n">
         <v>986.1121802895968</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P44" t="n">
-        <v>715.433615311038</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
         <v>460.6924035395789</v>
@@ -38092,34 +38092,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>596.4494207761006</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>291.4703189309953</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>396.8624089123078</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>468.8338150129084</v>
       </c>
       <c r="R45" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
